--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{269CD900-4221-6444-A56D-48261C62C275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5134B977-4708-6849-8F92-DB0B4B404ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20460" yWindow="5180" windowWidth="29080" windowHeight="18880" activeTab="2" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="17180" yWindow="3400" windowWidth="29080" windowHeight="18880" activeTab="2" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -1384,15 +1384,9 @@
     <t>Integral of the spectral irradiance</t>
   </si>
   <si>
-    <t>Wellenlänge mit der höchsten Bestrahlungsstärke</t>
-  </si>
-  <si>
     <t>Bewertet wird nur der visuelle Bereich, d.h. Wellenlängen zwischen 380 und 780 nm.</t>
   </si>
   <si>
-    <t>Wavelength with the highest spectral value</t>
-  </si>
-  <si>
     <t>Integral der spektralen Photonenflussdichte</t>
   </si>
   <si>
@@ -1585,9 +1579,6 @@
     <t>Correction factor for the transmission of ocular media</t>
   </si>
   <si>
-    <t>age-related correction factor for melanopic light effects</t>
-  </si>
-  <si>
     <t xml:space="preserve">MEDI for a </t>
   </si>
   <si>
@@ -1894,9 +1885,6 @@
     <t>Cyanopic evaluation (short wavelength cone)</t>
   </si>
   <si>
-    <t>Rhodopic evaluation (skotopic vision)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> aber verwenden? Schicken Sie dem </t>
   </si>
   <si>
@@ -1964,6 +1952,18 @@
   </si>
   <si>
     <t>CIE Standard Illuminant</t>
+  </si>
+  <si>
+    <t>Rhodopic evaluation (scotopic vision)</t>
+  </si>
+  <si>
+    <t>Wavelength with the highest spectral value (or the mean, if there are several)</t>
+  </si>
+  <si>
+    <t>Wellenlänge mit der höchsten Bestrahlungsstärke (oder deren Mittelwert, wenn es mehrere gibt)</t>
+  </si>
+  <si>
+    <t>Age-related correction factor for melanopic light effects</t>
   </si>
 </sst>
 </file>
@@ -2331,7 +2331,7 @@
   <dimension ref="A1:E168"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2465,7 +2465,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2483,7 +2483,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2501,7 +2501,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2519,7 +2519,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,7 +2537,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>618</v>
+        <v>638</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2555,7 +2555,7 @@
         <v>146</v>
       </c>
       <c r="E12" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3035,8 +3035,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
   <dimension ref="A1:E171"/>
   <sheetViews>
-    <sheetView topLeftCell="A57" workbookViewId="0">
-      <selection activeCell="E66" sqref="E66"/>
+    <sheetView topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44:D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3185,7 +3185,7 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>619</v>
+        <v>615</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -3548,7 +3548,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3926,7 +3926,7 @@
         <v>116</v>
       </c>
       <c r="E49" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4211,10 +4211,10 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="E65" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4283,10 +4283,10 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>631</v>
+        <v>627</v>
       </c>
       <c r="E69" t="s">
-        <v>632</v>
+        <v>628</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4805,7 +4805,7 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>626</v>
+        <v>622</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>214</v>
@@ -4967,7 +4967,7 @@
         <v>lang$ui(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E107" t="s">
         <v>250</v>
@@ -6083,10 +6083,10 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
-        <v>620</v>
+        <v>616</v>
       </c>
       <c r="E169" t="s">
-        <v>622</v>
+        <v>618</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6101,10 +6101,10 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
-        <v>621</v>
+        <v>617</v>
       </c>
       <c r="E170" t="s">
-        <v>623</v>
+        <v>619</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -6119,10 +6119,10 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="E171" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
     </row>
   </sheetData>
@@ -6134,8 +6134,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496328DD-5C8E-3D45-AB81-313F176488D7}">
   <dimension ref="A1:E135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="E136" sqref="E136"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E80" sqref="E80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6966,10 +6966,10 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>448</v>
+        <v>640</v>
       </c>
       <c r="E46" t="s">
-        <v>450</v>
+        <v>639</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -6984,10 +6984,10 @@
         <v>lang$server(46)</v>
       </c>
       <c r="D47" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E47" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -7002,10 +7002,10 @@
         <v>lang$server(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E48" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -7020,10 +7020,10 @@
         <v>lang$server(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E49" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -7038,10 +7038,10 @@
         <v>lang$server(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="E50" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -7056,10 +7056,10 @@
         <v>lang$server(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E51" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -7074,10 +7074,10 @@
         <v>lang$server(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E52" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -7092,10 +7092,10 @@
         <v>lang$server(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E53" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -7110,10 +7110,10 @@
         <v>lang$server(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="E54" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -7146,10 +7146,10 @@
         <v>lang$server(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E56" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -7164,10 +7164,10 @@
         <v>lang$server(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="E57" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -7182,7 +7182,7 @@
         <v>lang$server(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="E58" t="s">
         <v>159</v>
@@ -7200,10 +7200,10 @@
         <v>lang$server(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="E59" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -7218,10 +7218,10 @@
         <v>lang$server(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="E60" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -7236,10 +7236,10 @@
         <v>lang$server(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E61" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -7254,10 +7254,10 @@
         <v>lang$server(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E62" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -7272,10 +7272,10 @@
         <v>lang$server(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="E63" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -7293,7 +7293,7 @@
         <v>201</v>
       </c>
       <c r="E64" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -7308,10 +7308,10 @@
         <v>lang$server(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E65" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -7326,10 +7326,10 @@
         <v>lang$server(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="E66" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -7344,10 +7344,10 @@
         <v>lang$server(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E67" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -7362,10 +7362,10 @@
         <v>lang$server(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E68" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -7380,10 +7380,10 @@
         <v>lang$server(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E69" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -7398,10 +7398,10 @@
         <v>lang$server(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="E70" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -7416,10 +7416,10 @@
         <v>lang$server(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="E71" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -7434,10 +7434,10 @@
         <v>lang$server(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E72" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -7452,10 +7452,10 @@
         <v>lang$server(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E73" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -7470,15 +7470,15 @@
         <v>lang$server(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E74" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7488,15 +7488,15 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="E75" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -7506,15 +7506,15 @@
         <v>lang$server(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E76" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7524,15 +7524,15 @@
         <v>lang$server(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="E77" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7542,15 +7542,15 @@
         <v>lang$server(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E78" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7560,15 +7560,15 @@
         <v>lang$server(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="E79" t="s">
-        <v>515</v>
+        <v>641</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7578,15 +7578,15 @@
         <v>lang$server(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="E80" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7596,15 +7596,15 @@
         <v>lang$server(80)</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -7614,15 +7614,15 @@
         <v>lang$server(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E82" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -7632,15 +7632,15 @@
         <v>lang$server(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E83" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -7650,15 +7650,15 @@
         <v>lang$server(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="E84" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -7668,15 +7668,15 @@
         <v>lang$server(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
       <c r="E85" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7686,15 +7686,15 @@
         <v>lang$server(85)</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -7704,15 +7704,15 @@
         <v>lang$server(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -7722,15 +7722,15 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
       <c r="E88" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -7740,15 +7740,15 @@
         <v>lang$server(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="E89" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -7758,15 +7758,15 @@
         <v>lang$server(89)</v>
       </c>
       <c r="D90" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
       <c r="E90" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7776,15 +7776,15 @@
         <v>lang$server(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E91" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -7794,15 +7794,15 @@
         <v>lang$server(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E92" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -7812,15 +7812,15 @@
         <v>lang$server(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
       <c r="E93" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -7830,15 +7830,15 @@
         <v>lang$server(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
       <c r="E94" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -7848,15 +7848,15 @@
         <v>lang$server(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -7866,15 +7866,15 @@
         <v>lang$server(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
       <c r="E96" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -7884,15 +7884,15 @@
         <v>lang$server(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -7902,15 +7902,15 @@
         <v>lang$server(97)</v>
       </c>
       <c r="D98" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
       <c r="E98" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -7920,15 +7920,15 @@
         <v>lang$server(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
       <c r="E99" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -7938,15 +7938,15 @@
         <v>lang$server(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
       <c r="E100" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -7956,7 +7956,7 @@
         <v>lang$server(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
       <c r="E101" t="s">
         <v>422</v>
@@ -7964,7 +7964,7 @@
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -7974,10 +7974,10 @@
         <v>lang$server(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
       <c r="E102" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -7992,10 +7992,10 @@
         <v>lang$server(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
       <c r="E103" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -8010,10 +8010,10 @@
         <v>lang$server(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
       <c r="E104" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -8028,10 +8028,10 @@
         <v>lang$server(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="E105" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -8046,7 +8046,7 @@
         <v>lang$server(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
       <c r="E106" t="s">
         <v>293</v>
@@ -8064,10 +8064,10 @@
         <v>lang$server(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
       <c r="E107" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -8082,10 +8082,10 @@
         <v>lang$server(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E108" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -8100,10 +8100,10 @@
         <v>lang$server(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
       <c r="E109" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -8118,10 +8118,10 @@
         <v>lang$server(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="E110" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -8136,10 +8136,10 @@
         <v>lang$server(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="E111" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -8154,10 +8154,10 @@
         <v>lang$server(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="E112" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -8172,10 +8172,10 @@
         <v>lang$server(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="E113" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -8190,10 +8190,10 @@
         <v>lang$server(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="E114" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -8208,10 +8208,10 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="E115" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -8226,10 +8226,10 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="E116" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -8244,10 +8244,10 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="E117" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -8262,10 +8262,10 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="E118" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -8280,10 +8280,10 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="E119" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -8298,10 +8298,10 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="E120" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -8316,10 +8316,10 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="E121" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -8334,10 +8334,10 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="E122" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -8352,10 +8352,10 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="E123" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -8370,10 +8370,10 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
+        <v>594</v>
+      </c>
+      <c r="E124" t="s">
         <v>597</v>
-      </c>
-      <c r="E124" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -8388,10 +8388,10 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="E125" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -8406,10 +8406,10 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="E126" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -8424,10 +8424,10 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
+        <v>603</v>
+      </c>
+      <c r="E127" t="s">
         <v>606</v>
-      </c>
-      <c r="E127" t="s">
-        <v>609</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -8442,10 +8442,10 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
+        <v>604</v>
+      </c>
+      <c r="E128" t="s">
         <v>607</v>
-      </c>
-      <c r="E128" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -8460,10 +8460,10 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
+        <v>605</v>
+      </c>
+      <c r="E129" t="s">
         <v>608</v>
-      </c>
-      <c r="E129" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -8478,10 +8478,10 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E130" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -8496,10 +8496,10 @@
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>624</v>
+        <v>620</v>
       </c>
       <c r="E131" t="s">
-        <v>625</v>
+        <v>621</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -8514,10 +8514,10 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>627</v>
+        <v>623</v>
       </c>
       <c r="E132" t="s">
-        <v>629</v>
+        <v>625</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -8532,10 +8532,10 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>628</v>
+        <v>624</v>
       </c>
       <c r="E133" t="s">
-        <v>630</v>
+        <v>626</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -8550,10 +8550,10 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="E134" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -8568,10 +8568,10 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="E135" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5134B977-4708-6849-8F92-DB0B4B404ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF8353-E821-D946-BEE6-3E02D45CCE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17180" yWindow="3400" windowWidth="29080" windowHeight="18880" activeTab="2" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="14440" yWindow="5460" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="960" uniqueCount="642">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="655">
   <si>
     <t>Deutsch</t>
   </si>
@@ -298,12 +298,6 @@
     <t>Tutorial_Overview</t>
   </si>
   <si>
-    <t>Wenn Sie eine Einführung in die Bedienung des Programmes benötigen, stehen Ihnen nachfolgend Tutorial-Videos zur Verfügung. Das Tutorial geht davon aus, dass  Sie mit der spektralen Bewertung im Hinblick auf radiometrische, photometrische, alpha-opische, und altersabhängige Wirkungen grundsätzlich vertraut sind und lediglich in die Funktionen des Programms eingeführt werden möchten (kurze Einführung). Alternativ steht über die Checkbox eine umfangreichere Einführung zur Verfügung, in der neben den Funktionen auch die zugrundeliegende Bewertung erläutert wird.</t>
-  </si>
-  <si>
-    <t>If you need a tutorial on how to use the program, please watch the video down below. The video presumes that you are familiar with spectral analysis in terms of radiometric, photometric, alpha-opic, and age-dependent properties and therefore only need a tutorial on the basic function of the program (short introduction). Alternatively there is a more extensive  tutorial available (through the checkbox), where more of the background is covered.</t>
-  </si>
-  <si>
     <t>Ich möchte eine umfangreiche Erläuterung über alle Programmfunktionen</t>
   </si>
   <si>
@@ -1021,21 +1015,6 @@
     <t>Impressum</t>
   </si>
   <si>
-    <t>erstellt. Die Applikation wurde im Kontext des Kurses 'Licht und Gesundheit' der virtuellen Hochschule Bayern (</t>
-  </si>
-  <si>
-    <t>) entwickelt. Es handelt sich jedoch um eine eigenständige Entwicklung des Autors und entstand ohne weitere Finanzierung.</t>
-  </si>
-  <si>
-    <t>Umsetzung in R und Shiny:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bei Fragen, Anmerkungen, oder Problemen wenden Sie sich bitte an den </t>
-  </si>
-  <si>
-    <t>Autor</t>
-  </si>
-  <si>
     <t>Wenn Sie die App nutzen, verwenden Sie bitte folgende Zitation:</t>
   </si>
   <si>
@@ -1057,33 +1036,6 @@
     <t>About</t>
   </si>
   <si>
-    <t>wurde mit R in der Version</t>
-  </si>
-  <si>
-    <t>Diese Applikation mit dem Versionsstand</t>
-  </si>
-  <si>
-    <t>This application with the version</t>
-  </si>
-  <si>
-    <t>was developed with R version</t>
-  </si>
-  <si>
-    <t>. This tool was developed in the context of a course series "Light and Health" of the virtual University of Bavaria (</t>
-  </si>
-  <si>
-    <t>). The tool is, however, a completely independent development of the author an was created without funding.</t>
-  </si>
-  <si>
-    <t>Design and Implementation in R and Shiny for R:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">For questions, comments, or problems please give a short descriptive message to the </t>
-  </si>
-  <si>
-    <t>author</t>
-  </si>
-  <si>
     <t>If you use the app or results generated by the tool, please reference it with:</t>
   </si>
   <si>
@@ -1615,15 +1567,9 @@
     <t>without weighing</t>
   </si>
   <si>
-    <t>rel. Transmissionsgradänderung</t>
-  </si>
-  <si>
     <t>Altersabhängig</t>
   </si>
   <si>
-    <t>relative transmission change</t>
-  </si>
-  <si>
     <t>Die altersabhängige Bewertung erfolgt gemäß der</t>
   </si>
   <si>
@@ -1942,12 +1888,6 @@
     <t xml:space="preserve">You can download several typical light spectra here. With the exception of the CIE Standard Illuminants and the Equal-Energy Spectrum all Spectra are examplary measurements. All measurements were taken with a </t>
   </si>
   <si>
-    <t>Die Datei, die Sie herunterladen möchten stammen aus CIE Standardwerken (CIE 015:2018, ISO 11664-2:2007/CIE S 014-2:2006, und ISO/CIE 11664-2:2022). Mit Klick auf den Downloadbutton bestätigen Sie, dass Ihnen die jeweilige offizielle Quelle zur Verfügung steht.</t>
-  </si>
-  <si>
-    <t>The file you want to download comes from CIE Standards (CIE 015:2018, ISO 11664-2:2007/CIE S 014-2:2006, and ISO/CIE 11664-2:2022). When you click Download, you pledge that you have official access to the respective Source.</t>
-  </si>
-  <si>
     <t>CIE Lichtart</t>
   </si>
   <si>
@@ -1964,6 +1904,105 @@
   </si>
   <si>
     <t>Age-related correction factor for melanopic light effects</t>
+  </si>
+  <si>
+    <t>relative transmission (vs. 32-yr)</t>
+  </si>
+  <si>
+    <t>rel. Transmissionsgrad (gegenüber 32-j.)</t>
+  </si>
+  <si>
+    <t>Das Spektrum, welches Sie herunterladen möchten, stammt aus CIE Standardwerken (CIE 015:2018, ISO 11664-2:2007/CIE S 014-2:2006, und ISO/CIE 11664-2:2022). Mit Klick auf den Downloadbutton bestätigen Sie, dass Ihnen die jeweilige offizielle Quelle zur Verfügung steht.</t>
+  </si>
+  <si>
+    <t>The spectrum you want to download comes from CIE Standards (CIE 015:2018, ISO 11664-2:2007/CIE S 014-2:2006, and ISO/CIE 11664-2:2022). When you click Download, you pledge that you have official access to the respective Source.</t>
+  </si>
+  <si>
+    <t>If you need a tutorial on how to use the program, please watch the video down below.</t>
+  </si>
+  <si>
+    <t>Wenn Sie eine Einführung in die Bedienung des Programmes benötigen, steht Ihnen das nachfolgende Tutorial-Video zur Verfügung.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> wurde mit </t>
+  </si>
+  <si>
+    <t xml:space="preserve">was developed with </t>
+  </si>
+  <si>
+    <t xml:space="preserve">. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> erstellt. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bei Anmerkungen oder Feedback wenden Sie sich bitte an die </t>
+  </si>
+  <si>
+    <t xml:space="preserve">For comments or feedback please give a short descriptive message to the </t>
+  </si>
+  <si>
+    <t>Funktionsmailadresse.</t>
+  </si>
+  <si>
+    <t>function Email.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Die Applikation mit dem Versionsstand </t>
+  </si>
+  <si>
+    <t xml:space="preserve">The application with the version </t>
+  </si>
+  <si>
+    <t>Autor:</t>
+  </si>
+  <si>
+    <t>This application is a publication of the German technical lighting society.</t>
+  </si>
+  <si>
+    <t>Author:</t>
+  </si>
+  <si>
+    <t>Diese Applikation ist eine Veröffentlichung der Deutschen Lichttechnischen Gesellschaft e.V..</t>
+  </si>
+  <si>
+    <t>Deutsche Lichttechnische Gesellschaft e.V. (LiTG)</t>
+  </si>
+  <si>
+    <t>Danneckerstraße 16</t>
+  </si>
+  <si>
+    <t>10245 Berlin</t>
+  </si>
+  <si>
+    <t>Telefon +49 30 / 26 36 95 24</t>
+  </si>
+  <si>
+    <t>Phone +49 30 / 26 36 95 24</t>
+  </si>
+  <si>
+    <t>Projektausschuss (in alphabetischer Reihenfolge):</t>
+  </si>
+  <si>
+    <t>Project Committee (in alphabetical order):</t>
+  </si>
+  <si>
+    <t>Bei Problemen, Bugs, oder Funktionswünschen bitten wir um eine entsprechende Meldung auf der GitHub-Seite des Projekts:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We kindly ask you to report bugs or function requests on the projects GitHub page: </t>
+  </si>
+  <si>
+    <t>Spectrum is already imported</t>
+  </si>
+  <si>
+    <t>Dieses Spektrum wurde bereits importiert</t>
+  </si>
+  <si>
+    <t>bearbeitet</t>
+  </si>
+  <si>
+    <t>adjusted</t>
   </si>
 </sst>
 </file>
@@ -2348,10 +2387,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2465,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>611</v>
+        <v>593</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2483,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>612</v>
+        <v>594</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2501,7 +2540,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>613</v>
+        <v>595</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2519,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>614</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2537,12 +2576,12 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>638</v>
+        <v>618</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2552,10 +2591,10 @@
         <v>lang$global(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>629</v>
+        <v>611</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3033,10 +3072,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
-  <dimension ref="A1:E171"/>
+  <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44:D44"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3053,10 +3092,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3185,7 +3224,7 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>615</v>
+        <v>597</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -3463,7 +3502,7 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3481,7 +3520,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3499,7 +3538,7 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3517,7 +3556,7 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3535,7 +3574,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3548,12 +3587,12 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>489</v>
+        <v>473</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3653,10 +3692,10 @@
         <v>lang$ui(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>86</v>
+        <v>627</v>
       </c>
       <c r="E34" t="s">
-        <v>87</v>
+        <v>626</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3671,15 +3710,15 @@
         <v>lang$ui(34)</v>
       </c>
       <c r="D35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3689,15 +3728,15 @@
         <v>lang$ui(35)</v>
       </c>
       <c r="D36" t="s">
+        <v>88</v>
+      </c>
+      <c r="E36" t="s">
         <v>90</v>
-      </c>
-      <c r="E36" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3707,15 +3746,15 @@
         <v>lang$ui(36)</v>
       </c>
       <c r="D37" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3725,15 +3764,15 @@
         <v>lang$ui(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3743,15 +3782,15 @@
         <v>lang$ui(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E39" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3761,15 +3800,15 @@
         <v>lang$ui(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E40" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3779,15 +3818,15 @@
         <v>lang$ui(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E41" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3797,15 +3836,15 @@
         <v>lang$ui(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3815,15 +3854,15 @@
         <v>lang$ui(42)</v>
       </c>
       <c r="D43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E43" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3833,15 +3872,15 @@
         <v>lang$ui(43)</v>
       </c>
       <c r="D44" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3851,15 +3890,15 @@
         <v>lang$ui(44)</v>
       </c>
       <c r="D45" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3869,15 +3908,15 @@
         <v>lang$ui(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E46" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -3887,15 +3926,15 @@
         <v>lang$ui(46)</v>
       </c>
       <c r="D47" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E47" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -3905,15 +3944,15 @@
         <v>lang$ui(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -3923,15 +3962,15 @@
         <v>lang$ui(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -3941,15 +3980,15 @@
         <v>lang$ui(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>388</v>
+        <v>372</v>
       </c>
       <c r="E50" t="s">
-        <v>390</v>
+        <v>374</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -3959,15 +3998,15 @@
         <v>lang$ui(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="E51" t="s">
-        <v>391</v>
+        <v>375</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -3977,15 +4016,15 @@
         <v>lang$ui(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E52" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -3995,15 +4034,15 @@
         <v>lang$ui(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E53" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -4013,15 +4052,15 @@
         <v>lang$ui(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E54" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -4031,15 +4070,15 @@
         <v>lang$ui(54)</v>
       </c>
       <c r="D55" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E55" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -4049,15 +4088,15 @@
         <v>lang$ui(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E56" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -4067,15 +4106,15 @@
         <v>lang$ui(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E57" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -4085,15 +4124,15 @@
         <v>lang$ui(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E58" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -4103,15 +4142,15 @@
         <v>lang$ui(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E59" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -4121,15 +4160,15 @@
         <v>lang$ui(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E60" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -4139,15 +4178,15 @@
         <v>lang$ui(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -4157,15 +4196,15 @@
         <v>lang$ui(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E62" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -4175,15 +4214,15 @@
         <v>lang$ui(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E63" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -4193,15 +4232,15 @@
         <v>lang$ui(63)</v>
       </c>
       <c r="D64" t="s">
+        <v>126</v>
+      </c>
+      <c r="E64" t="s">
         <v>128</v>
-      </c>
-      <c r="E64" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -4211,15 +4250,15 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>632</v>
+        <v>614</v>
       </c>
       <c r="E65" t="s">
-        <v>633</v>
+        <v>615</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -4229,15 +4268,15 @@
         <v>lang$ui(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E66" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -4247,15 +4286,15 @@
         <v>lang$ui(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E67" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -4265,15 +4304,15 @@
         <v>lang$ui(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
       <c r="E68" t="s">
-        <v>387</v>
+        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -4283,15 +4322,15 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>627</v>
+        <v>609</v>
       </c>
       <c r="E69" t="s">
-        <v>628</v>
+        <v>610</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -4301,15 +4340,15 @@
         <v>lang$ui(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="E70" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -4319,15 +4358,15 @@
         <v>lang$ui(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E71" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -4337,15 +4376,15 @@
         <v>lang$ui(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="E72" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -4355,15 +4394,15 @@
         <v>lang$ui(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E73" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -4373,15 +4412,15 @@
         <v>lang$ui(73)</v>
       </c>
       <c r="D74" t="s">
+        <v>158</v>
+      </c>
+      <c r="E74" t="s">
         <v>160</v>
-      </c>
-      <c r="E74" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -4391,15 +4430,15 @@
         <v>lang$ui(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E75" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -4409,15 +4448,15 @@
         <v>lang$ui(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E76" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -4427,15 +4466,15 @@
         <v>lang$ui(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E77" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -4445,15 +4484,15 @@
         <v>lang$ui(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="E78" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -4463,15 +4502,15 @@
         <v>lang$ui(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -4481,15 +4520,15 @@
         <v>lang$ui(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="E80" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -4499,15 +4538,15 @@
         <v>lang$ui(80)</v>
       </c>
       <c r="D81" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="E81" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -4517,15 +4556,15 @@
         <v>lang$ui(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E82" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -4535,15 +4574,15 @@
         <v>lang$ui(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E83" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -4553,15 +4592,15 @@
         <v>lang$ui(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="E84" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -4571,15 +4610,15 @@
         <v>lang$ui(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E85" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -4589,15 +4628,15 @@
         <v>lang$ui(85)</v>
       </c>
       <c r="D86" t="s">
-        <v>382</v>
+        <v>366</v>
       </c>
       <c r="E86" t="s">
-        <v>384</v>
+        <v>368</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -4607,15 +4646,15 @@
         <v>lang$ui(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>383</v>
+        <v>367</v>
       </c>
       <c r="E87" t="s">
-        <v>385</v>
+        <v>369</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -4625,15 +4664,15 @@
         <v>lang$ui(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E88" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -4643,15 +4682,15 @@
         <v>lang$ui(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E89" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -4661,15 +4700,15 @@
         <v>lang$ui(89)</v>
       </c>
       <c r="D90" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E90" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -4679,15 +4718,15 @@
         <v>lang$ui(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E91" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -4697,15 +4736,15 @@
         <v>lang$ui(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E92" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -4715,15 +4754,15 @@
         <v>lang$ui(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E93" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -4733,15 +4772,15 @@
         <v>lang$ui(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E94" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -4751,15 +4790,15 @@
         <v>lang$ui(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E95" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -4769,15 +4808,15 @@
         <v>lang$ui(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E96" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -4787,15 +4826,15 @@
         <v>lang$ui(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="E97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -4805,15 +4844,15 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>622</v>
+        <v>604</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -4823,15 +4862,15 @@
         <v>lang$ui(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E99" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -4841,15 +4880,15 @@
         <v>lang$ui(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E100" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -4859,15 +4898,15 @@
         <v>lang$ui(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E101" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -4877,15 +4916,15 @@
         <v>lang$ui(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E102" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -4895,15 +4934,15 @@
         <v>lang$ui(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E103" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -4913,15 +4952,15 @@
         <v>lang$ui(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E104" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -4931,15 +4970,15 @@
         <v>lang$ui(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="E105" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -4949,15 +4988,15 @@
         <v>lang$ui(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="E106" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -4967,15 +5006,15 @@
         <v>lang$ui(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>501</v>
+        <v>485</v>
       </c>
       <c r="E107" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -4985,15 +5024,15 @@
         <v>lang$ui(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E108" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -5003,15 +5042,15 @@
         <v>lang$ui(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E109" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -5021,15 +5060,15 @@
         <v>lang$ui(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="E110" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -5039,15 +5078,15 @@
         <v>lang$ui(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E111" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -5057,15 +5096,15 @@
         <v>lang$ui(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E112" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -5075,15 +5114,15 @@
         <v>lang$ui(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E113" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -5093,15 +5132,15 @@
         <v>lang$ui(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E114" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -5111,15 +5150,15 @@
         <v>lang$ui(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E115" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -5129,15 +5168,15 @@
         <v>lang$ui(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E116" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -5147,15 +5186,15 @@
         <v>lang$ui(116)</v>
       </c>
       <c r="D117" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E117" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -5165,15 +5204,15 @@
         <v>lang$ui(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E118" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -5183,10 +5222,10 @@
         <v>lang$ui(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E119" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -5201,10 +5240,10 @@
         <v>lang$ui(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="E120" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -5219,10 +5258,10 @@
         <v>lang$ui(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E121" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -5237,10 +5276,10 @@
         <v>lang$ui(121)</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -5255,10 +5294,10 @@
         <v>lang$ui(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="E123" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -5273,15 +5312,15 @@
         <v>lang$ui(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="E124" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -5291,15 +5330,15 @@
         <v>lang$ui(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E125" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -5309,15 +5348,15 @@
         <v>lang$ui(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E126" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -5327,15 +5366,15 @@
         <v>lang$ui(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E127" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -5345,15 +5384,15 @@
         <v>lang$ui(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E128" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -5363,15 +5402,15 @@
         <v>lang$ui(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E129" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -5381,15 +5420,15 @@
         <v>lang$ui(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E130" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -5399,15 +5438,15 @@
         <v>lang$ui(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E131" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -5417,15 +5456,15 @@
         <v>lang$ui(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="E132" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -5435,15 +5474,15 @@
         <v>lang$ui(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E133" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -5453,15 +5492,15 @@
         <v>lang$ui(133)</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -5471,15 +5510,15 @@
         <v>lang$ui(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E135" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -5489,15 +5528,15 @@
         <v>lang$ui(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E136" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -5507,15 +5546,15 @@
         <v>lang$ui(136)</v>
       </c>
       <c r="D137" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="E137" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -5525,15 +5564,15 @@
         <v>lang$ui(137)</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E138" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -5543,15 +5582,15 @@
         <v>lang$ui(138)</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="E139" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -5561,15 +5600,15 @@
         <v>lang$ui(139)</v>
       </c>
       <c r="D140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E140" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -5579,15 +5618,15 @@
         <v>lang$ui(140)</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -5597,15 +5636,15 @@
         <v>lang$ui(141)</v>
       </c>
       <c r="D142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E142" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -5615,15 +5654,15 @@
         <v>lang$ui(142)</v>
       </c>
       <c r="D143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="E143" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -5633,15 +5672,15 @@
         <v>lang$ui(143)</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E144" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B145">
         <v>144</v>
@@ -5651,15 +5690,15 @@
         <v>lang$ui(144)</v>
       </c>
       <c r="D145" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="E145" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -5669,15 +5708,15 @@
         <v>lang$ui(145)</v>
       </c>
       <c r="D146" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E146" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -5687,15 +5726,15 @@
         <v>lang$ui(146)</v>
       </c>
       <c r="D147" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="E147" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -5705,15 +5744,15 @@
         <v>lang$ui(147)</v>
       </c>
       <c r="D148" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E148" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B149">
         <v>148</v>
@@ -5723,15 +5762,15 @@
         <v>lang$ui(148)</v>
       </c>
       <c r="D149" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="E149" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B150">
         <v>149</v>
@@ -5741,15 +5780,15 @@
         <v>lang$ui(149)</v>
       </c>
       <c r="D150" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E150" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -5759,15 +5798,15 @@
         <v>lang$ui(150)</v>
       </c>
       <c r="D151" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="E151" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B152">
         <v>151</v>
@@ -5777,15 +5816,15 @@
         <v>lang$ui(151)</v>
       </c>
       <c r="D152" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E152" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B153">
         <v>152</v>
@@ -5795,15 +5834,15 @@
         <v>lang$ui(152)</v>
       </c>
       <c r="D153" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E153" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B154">
         <v>153</v>
@@ -5813,15 +5852,15 @@
         <v>lang$ui(153)</v>
       </c>
       <c r="D154" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E154" t="s">
-        <v>333</v>
+        <v>326</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B155">
         <v>154</v>
@@ -5831,15 +5870,15 @@
         <v>lang$ui(154)</v>
       </c>
       <c r="D155" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E155" t="s">
-        <v>334</v>
+        <v>327</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -5849,15 +5888,15 @@
         <v>lang$ui(155)</v>
       </c>
       <c r="D156" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E156" t="s">
-        <v>335</v>
+        <v>328</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B157">
         <v>156</v>
@@ -5867,15 +5906,15 @@
         <v>lang$ui(156)</v>
       </c>
       <c r="D157" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E157" t="s">
-        <v>336</v>
+        <v>329</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B158">
         <v>157</v>
@@ -5885,15 +5924,15 @@
         <v>lang$ui(157)</v>
       </c>
       <c r="D158" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E158" t="s">
-        <v>337</v>
+        <v>330</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B159">
         <v>158</v>
@@ -5903,15 +5942,15 @@
         <v>lang$ui(158)</v>
       </c>
       <c r="D159" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="E159" t="s">
-        <v>338</v>
+        <v>331</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B160">
         <v>159</v>
@@ -5921,15 +5960,15 @@
         <v>lang$ui(159)</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>340</v>
+        <v>636</v>
       </c>
       <c r="E160" t="s">
-        <v>341</v>
+        <v>637</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B161">
         <v>160</v>
@@ -5939,15 +5978,15 @@
         <v>lang$ui(160)</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>339</v>
+        <v>628</v>
       </c>
       <c r="E161" t="s">
-        <v>342</v>
+        <v>629</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B162">
         <v>161</v>
@@ -5957,15 +5996,15 @@
         <v>lang$ui(161)</v>
       </c>
       <c r="D162" t="s">
-        <v>327</v>
+        <v>631</v>
       </c>
       <c r="E162" t="s">
-        <v>343</v>
+        <v>630</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B163">
         <v>162</v>
@@ -5975,15 +6014,15 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>328</v>
+        <v>641</v>
       </c>
       <c r="E163" t="s">
-        <v>344</v>
+        <v>639</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -5993,15 +6032,15 @@
         <v>lang$ui(163)</v>
       </c>
       <c r="D164" t="s">
-        <v>329</v>
+        <v>638</v>
       </c>
       <c r="E164" t="s">
-        <v>345</v>
+        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B165">
         <v>164</v>
@@ -6011,15 +6050,15 @@
         <v>lang$ui(164)</v>
       </c>
       <c r="D165" t="s">
-        <v>330</v>
+        <v>632</v>
       </c>
       <c r="E165" t="s">
-        <v>346</v>
+        <v>633</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B166">
         <v>165</v>
@@ -6029,15 +6068,15 @@
         <v>lang$ui(165)</v>
       </c>
       <c r="D166" t="s">
-        <v>331</v>
+        <v>634</v>
       </c>
       <c r="E166" t="s">
-        <v>347</v>
+        <v>635</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B167">
         <v>166</v>
@@ -6047,15 +6086,15 @@
         <v>lang$ui(166)</v>
       </c>
       <c r="D167" t="s">
+        <v>325</v>
+      </c>
+      <c r="E167" t="s">
         <v>332</v>
-      </c>
-      <c r="E167" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B168">
         <v>167</v>
@@ -6065,10 +6104,10 @@
         <v>lang$ui(167)</v>
       </c>
       <c r="D168" t="s">
-        <v>350</v>
+        <v>334</v>
       </c>
       <c r="E168" t="s">
-        <v>349</v>
+        <v>333</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6083,10 +6122,10 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
-        <v>616</v>
+        <v>598</v>
       </c>
       <c r="E169" t="s">
-        <v>618</v>
+        <v>600</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6101,15 +6140,15 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
-        <v>617</v>
+        <v>599</v>
       </c>
       <c r="E170" t="s">
-        <v>619</v>
+        <v>601</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B171">
         <v>170</v>
@@ -6119,10 +6158,136 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
-        <v>630</v>
+        <v>612</v>
       </c>
       <c r="E171" t="s">
-        <v>631</v>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>324</v>
+      </c>
+      <c r="B172">
+        <v>171</v>
+      </c>
+      <c r="C172" s="3" t="str">
+        <f t="shared" ref="C172:C176" si="3">"lang$ui(" &amp; B172 &amp; ")"</f>
+        <v>lang$ui(171)</v>
+      </c>
+      <c r="D172" t="s">
+        <v>647</v>
+      </c>
+      <c r="E172" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A173" t="s">
+        <v>324</v>
+      </c>
+      <c r="B173">
+        <v>172</v>
+      </c>
+      <c r="C173" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>lang$ui(172)</v>
+      </c>
+      <c r="D173" t="s">
+        <v>642</v>
+      </c>
+      <c r="E173" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A174" t="s">
+        <v>324</v>
+      </c>
+      <c r="B174">
+        <v>173</v>
+      </c>
+      <c r="C174" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>lang$ui(173)</v>
+      </c>
+      <c r="D174" t="s">
+        <v>643</v>
+      </c>
+      <c r="E174" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A175" t="s">
+        <v>324</v>
+      </c>
+      <c r="B175">
+        <v>174</v>
+      </c>
+      <c r="C175" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>lang$ui(174)</v>
+      </c>
+      <c r="D175" t="s">
+        <v>644</v>
+      </c>
+      <c r="E175" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A176" t="s">
+        <v>324</v>
+      </c>
+      <c r="B176">
+        <v>175</v>
+      </c>
+      <c r="C176" s="3" t="str">
+        <f t="shared" si="3"/>
+        <v>lang$ui(175)</v>
+      </c>
+      <c r="D176" t="s">
+        <v>645</v>
+      </c>
+      <c r="E176" t="s">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A177" t="s">
+        <v>324</v>
+      </c>
+      <c r="B177">
+        <v>176</v>
+      </c>
+      <c r="C177" s="3" t="str">
+        <f t="shared" ref="C177" si="4">"lang$ui(" &amp; B177 &amp; ")"</f>
+        <v>lang$ui(176)</v>
+      </c>
+      <c r="D177" t="s">
+        <v>649</v>
+      </c>
+      <c r="E177" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A178" t="s">
+        <v>125</v>
+      </c>
+      <c r="B178">
+        <v>177</v>
+      </c>
+      <c r="C178" s="3" t="str">
+        <f t="shared" ref="C178" si="5">"lang$ui(" &amp; B178 &amp; ")"</f>
+        <v>lang$ui(177)</v>
+      </c>
+      <c r="D178" t="s">
+        <v>653</v>
+      </c>
+      <c r="E178" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
@@ -6132,10 +6297,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496328DD-5C8E-3D45-AB81-313F176488D7}">
-  <dimension ref="A1:E135"/>
+  <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E80" sqref="E80"/>
+    <sheetView topLeftCell="A111" workbookViewId="0">
+      <selection activeCell="D141" sqref="D141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6150,10 +6315,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="C1" t="s">
-        <v>438</v>
+        <v>422</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6164,7 +6329,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6174,15 +6339,15 @@
         <v>lang$server(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
-        <v>351</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>354</v>
+        <v>338</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6192,15 +6357,15 @@
         <v>lang$server(2)</v>
       </c>
       <c r="D3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="E3" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>355</v>
+        <v>339</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6210,15 +6375,15 @@
         <v>lang$server(3)</v>
       </c>
       <c r="D4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
       <c r="E4" t="s">
-        <v>357</v>
+        <v>341</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>356</v>
+        <v>340</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6228,15 +6393,15 @@
         <v>lang$server(4)</v>
       </c>
       <c r="D5" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
       <c r="E5" t="s">
-        <v>358</v>
+        <v>342</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6246,15 +6411,15 @@
         <v>lang$server(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>359</v>
+        <v>343</v>
       </c>
       <c r="E6" t="s">
-        <v>361</v>
+        <v>345</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6264,15 +6429,15 @@
         <v>lang$server(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>360</v>
+        <v>344</v>
       </c>
       <c r="E7" t="s">
-        <v>362</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6282,15 +6447,15 @@
         <v>lang$server(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>367</v>
+        <v>351</v>
       </c>
       <c r="E8" t="s">
-        <v>368</v>
+        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -6300,15 +6465,15 @@
         <v>lang$server(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>363</v>
+        <v>347</v>
       </c>
       <c r="E9" t="s">
-        <v>369</v>
+        <v>353</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -6318,15 +6483,15 @@
         <v>lang$server(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>364</v>
+        <v>348</v>
       </c>
       <c r="E10" t="s">
-        <v>370</v>
+        <v>354</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -6336,15 +6501,15 @@
         <v>lang$server(10)</v>
       </c>
       <c r="D11" t="s">
-        <v>375</v>
+        <v>359</v>
       </c>
       <c r="E11" t="s">
-        <v>376</v>
+        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -6354,15 +6519,15 @@
         <v>lang$server(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>378</v>
+        <v>362</v>
       </c>
       <c r="E12" t="s">
-        <v>379</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -6372,15 +6537,15 @@
         <v>lang$server(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>365</v>
+        <v>349</v>
       </c>
       <c r="E13" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -6390,15 +6555,15 @@
         <v>lang$server(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>377</v>
+        <v>361</v>
       </c>
       <c r="E14" t="s">
-        <v>372</v>
+        <v>356</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -6408,15 +6573,15 @@
         <v>lang$server(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>366</v>
+        <v>350</v>
       </c>
       <c r="E15" t="s">
-        <v>373</v>
+        <v>357</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -6426,15 +6591,15 @@
         <v>lang$server(15)</v>
       </c>
       <c r="D16" t="s">
-        <v>380</v>
+        <v>364</v>
       </c>
       <c r="E16" t="s">
-        <v>374</v>
+        <v>358</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -6444,15 +6609,15 @@
         <v>lang$server(16)</v>
       </c>
       <c r="D17" t="s">
-        <v>381</v>
+        <v>365</v>
       </c>
       <c r="E17" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -6462,15 +6627,15 @@
         <v>lang$server(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>392</v>
+        <v>376</v>
       </c>
       <c r="E18" t="s">
-        <v>394</v>
+        <v>378</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -6480,15 +6645,15 @@
         <v>lang$server(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>393</v>
+        <v>377</v>
       </c>
       <c r="E19" t="s">
-        <v>395</v>
+        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -6498,15 +6663,15 @@
         <v>lang$server(19)</v>
       </c>
       <c r="D20" t="s">
-        <v>396</v>
+        <v>380</v>
       </c>
       <c r="E20" t="s">
-        <v>397</v>
+        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -6516,15 +6681,15 @@
         <v>lang$server(20)</v>
       </c>
       <c r="D21" t="s">
-        <v>398</v>
+        <v>382</v>
       </c>
       <c r="E21" t="s">
-        <v>399</v>
+        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -6534,15 +6699,15 @@
         <v>lang$server(21)</v>
       </c>
       <c r="D22" t="s">
-        <v>400</v>
+        <v>384</v>
       </c>
       <c r="E22" t="s">
-        <v>401</v>
+        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -6552,15 +6717,15 @@
         <v>lang$server(22)</v>
       </c>
       <c r="D23" t="s">
-        <v>402</v>
+        <v>386</v>
       </c>
       <c r="E23" t="s">
-        <v>413</v>
+        <v>397</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -6570,15 +6735,15 @@
         <v>lang$server(23)</v>
       </c>
       <c r="D24" t="s">
-        <v>403</v>
+        <v>387</v>
       </c>
       <c r="E24" t="s">
-        <v>406</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -6588,15 +6753,15 @@
         <v>lang$server(24)</v>
       </c>
       <c r="D25" t="s">
-        <v>404</v>
+        <v>388</v>
       </c>
       <c r="E25" t="s">
-        <v>414</v>
+        <v>398</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -6606,15 +6771,15 @@
         <v>lang$server(25)</v>
       </c>
       <c r="D26" t="s">
-        <v>405</v>
+        <v>389</v>
       </c>
       <c r="E26" t="s">
-        <v>407</v>
+        <v>391</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -6624,15 +6789,15 @@
         <v>lang$server(26)</v>
       </c>
       <c r="D27" t="s">
-        <v>408</v>
+        <v>392</v>
       </c>
       <c r="E27" t="s">
-        <v>409</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -6642,15 +6807,15 @@
         <v>lang$server(27)</v>
       </c>
       <c r="D28" t="s">
-        <v>410</v>
+        <v>394</v>
       </c>
       <c r="E28" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -6660,15 +6825,15 @@
         <v>lang$server(28)</v>
       </c>
       <c r="D29" t="s">
-        <v>412</v>
+        <v>396</v>
       </c>
       <c r="E29" t="s">
-        <v>415</v>
+        <v>399</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -6678,15 +6843,15 @@
         <v>lang$server(29)</v>
       </c>
       <c r="D30" t="s">
-        <v>416</v>
+        <v>400</v>
       </c>
       <c r="E30" t="s">
-        <v>417</v>
+        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -6696,15 +6861,15 @@
         <v>lang$server(30)</v>
       </c>
       <c r="D31" t="s">
-        <v>418</v>
+        <v>402</v>
       </c>
       <c r="E31" t="s">
-        <v>419</v>
+        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -6714,15 +6879,15 @@
         <v>lang$server(31)</v>
       </c>
       <c r="D32" t="s">
-        <v>421</v>
+        <v>405</v>
       </c>
       <c r="E32" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -6732,15 +6897,15 @@
         <v>lang$server(32)</v>
       </c>
       <c r="D33" t="s">
-        <v>423</v>
+        <v>407</v>
       </c>
       <c r="E33" t="s">
-        <v>424</v>
+        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -6750,15 +6915,15 @@
         <v>lang$server(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="E34" t="s">
-        <v>426</v>
+        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>420</v>
+        <v>404</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -6768,15 +6933,15 @@
         <v>lang$server(34)</v>
       </c>
       <c r="D35" t="s">
-        <v>427</v>
+        <v>411</v>
       </c>
       <c r="E35" t="s">
-        <v>428</v>
+        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -6786,15 +6951,15 @@
         <v>lang$server(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="E36" t="s">
-        <v>431</v>
+        <v>415</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>430</v>
+        <v>414</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -6804,15 +6969,15 @@
         <v>lang$server(36)</v>
       </c>
       <c r="D37" t="s">
-        <v>432</v>
+        <v>416</v>
       </c>
       <c r="E37" t="s">
-        <v>433</v>
+        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -6822,15 +6987,15 @@
         <v>lang$server(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>434</v>
+        <v>418</v>
       </c>
       <c r="E38" t="s">
-        <v>436</v>
+        <v>420</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -6840,15 +7005,15 @@
         <v>lang$server(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>435</v>
+        <v>419</v>
       </c>
       <c r="E39" t="s">
-        <v>437</v>
+        <v>421</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -6858,15 +7023,15 @@
         <v>lang$server(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>440</v>
+        <v>424</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -6876,15 +7041,15 @@
         <v>lang$server(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -6894,15 +7059,15 @@
         <v>lang$server(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>441</v>
+        <v>425</v>
       </c>
       <c r="E42" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -6912,15 +7077,15 @@
         <v>lang$server(42)</v>
       </c>
       <c r="D43" t="s">
-        <v>442</v>
+        <v>426</v>
       </c>
       <c r="E43" t="s">
-        <v>443</v>
+        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -6930,15 +7095,15 @@
         <v>lang$server(43)</v>
       </c>
       <c r="D44" t="s">
-        <v>444</v>
+        <v>428</v>
       </c>
       <c r="E44" t="s">
-        <v>445</v>
+        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -6948,15 +7113,15 @@
         <v>lang$server(44)</v>
       </c>
       <c r="D45" t="s">
-        <v>446</v>
+        <v>430</v>
       </c>
       <c r="E45" t="s">
-        <v>447</v>
+        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -6966,15 +7131,15 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>640</v>
+        <v>620</v>
       </c>
       <c r="E46" t="s">
-        <v>639</v>
+        <v>619</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -6984,15 +7149,15 @@
         <v>lang$server(46)</v>
       </c>
       <c r="D47" t="s">
-        <v>449</v>
+        <v>433</v>
       </c>
       <c r="E47" t="s">
-        <v>450</v>
+        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -7002,15 +7167,15 @@
         <v>lang$server(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>448</v>
+        <v>432</v>
       </c>
       <c r="E48" t="s">
-        <v>451</v>
+        <v>435</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -7020,15 +7185,15 @@
         <v>lang$server(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>452</v>
+        <v>436</v>
       </c>
       <c r="E49" t="s">
-        <v>453</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -7038,15 +7203,15 @@
         <v>lang$server(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>454</v>
+        <v>438</v>
       </c>
       <c r="E50" t="s">
-        <v>455</v>
+        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -7056,15 +7221,15 @@
         <v>lang$server(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>457</v>
+        <v>441</v>
       </c>
       <c r="E51" t="s">
-        <v>456</v>
+        <v>440</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -7074,15 +7239,15 @@
         <v>lang$server(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>458</v>
+        <v>442</v>
       </c>
       <c r="E52" t="s">
-        <v>459</v>
+        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -7092,15 +7257,15 @@
         <v>lang$server(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>460</v>
+        <v>444</v>
       </c>
       <c r="E53" t="s">
-        <v>461</v>
+        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -7110,15 +7275,15 @@
         <v>lang$server(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>462</v>
+        <v>446</v>
       </c>
       <c r="E54" t="s">
-        <v>463</v>
+        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -7128,15 +7293,15 @@
         <v>lang$server(54)</v>
       </c>
       <c r="D55" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -7146,15 +7311,15 @@
         <v>lang$server(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>464</v>
+        <v>448</v>
       </c>
       <c r="E56" t="s">
-        <v>468</v>
+        <v>452</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -7164,15 +7329,15 @@
         <v>lang$server(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>465</v>
+        <v>449</v>
       </c>
       <c r="E57" t="s">
-        <v>469</v>
+        <v>453</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -7182,15 +7347,15 @@
         <v>lang$server(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>466</v>
+        <v>450</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -7200,15 +7365,15 @@
         <v>lang$server(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>467</v>
+        <v>451</v>
       </c>
       <c r="E59" t="s">
-        <v>473</v>
+        <v>457</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -7218,15 +7383,15 @@
         <v>lang$server(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>470</v>
+        <v>454</v>
       </c>
       <c r="E60" t="s">
-        <v>474</v>
+        <v>458</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -7236,15 +7401,15 @@
         <v>lang$server(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>471</v>
+        <v>455</v>
       </c>
       <c r="E61" t="s">
-        <v>475</v>
+        <v>459</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -7254,15 +7419,15 @@
         <v>lang$server(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>479</v>
+        <v>463</v>
       </c>
       <c r="E62" t="s">
-        <v>480</v>
+        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -7272,15 +7437,15 @@
         <v>lang$server(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>472</v>
+        <v>456</v>
       </c>
       <c r="E63" t="s">
-        <v>476</v>
+        <v>460</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -7290,15 +7455,15 @@
         <v>lang$server(63)</v>
       </c>
       <c r="D64" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>478</v>
+        <v>462</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -7308,15 +7473,15 @@
         <v>lang$server(64)</v>
       </c>
       <c r="D65" t="s">
+        <v>465</v>
+      </c>
+      <c r="E65" t="s">
         <v>481</v>
-      </c>
-      <c r="E65" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -7326,15 +7491,15 @@
         <v>lang$server(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="E66" t="s">
-        <v>491</v>
+        <v>475</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -7344,15 +7509,15 @@
         <v>lang$server(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>483</v>
+        <v>467</v>
       </c>
       <c r="E67" t="s">
-        <v>490</v>
+        <v>474</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -7362,15 +7527,15 @@
         <v>lang$server(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>484</v>
+        <v>468</v>
       </c>
       <c r="E68" t="s">
-        <v>492</v>
+        <v>476</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -7380,15 +7545,15 @@
         <v>lang$server(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>485</v>
+        <v>469</v>
       </c>
       <c r="E69" t="s">
-        <v>495</v>
+        <v>479</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -7398,15 +7563,15 @@
         <v>lang$server(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>486</v>
+        <v>470</v>
       </c>
       <c r="E70" t="s">
-        <v>493</v>
+        <v>477</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -7416,15 +7581,15 @@
         <v>lang$server(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>487</v>
+        <v>471</v>
       </c>
       <c r="E71" t="s">
-        <v>494</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -7434,15 +7599,15 @@
         <v>lang$server(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>488</v>
+        <v>472</v>
       </c>
       <c r="E72" t="s">
-        <v>496</v>
+        <v>480</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -7452,15 +7617,15 @@
         <v>lang$server(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>498</v>
+        <v>482</v>
       </c>
       <c r="E73" t="s">
-        <v>502</v>
+        <v>486</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -7470,15 +7635,15 @@
         <v>lang$server(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>499</v>
+        <v>483</v>
       </c>
       <c r="E74" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7488,15 +7653,15 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>500</v>
+        <v>484</v>
       </c>
       <c r="E75" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -7506,15 +7671,15 @@
         <v>lang$server(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>503</v>
+        <v>487</v>
       </c>
       <c r="E76" t="s">
-        <v>510</v>
+        <v>494</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7524,15 +7689,15 @@
         <v>lang$server(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>504</v>
+        <v>488</v>
       </c>
       <c r="E77" t="s">
-        <v>511</v>
+        <v>495</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7542,15 +7707,15 @@
         <v>lang$server(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>505</v>
+        <v>489</v>
       </c>
       <c r="E78" t="s">
-        <v>512</v>
+        <v>496</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7560,15 +7725,15 @@
         <v>lang$server(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>506</v>
+        <v>490</v>
       </c>
       <c r="E79" t="s">
-        <v>641</v>
+        <v>621</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7578,15 +7743,15 @@
         <v>lang$server(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>507</v>
+        <v>491</v>
       </c>
       <c r="E80" t="s">
-        <v>513</v>
+        <v>497</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7596,15 +7761,15 @@
         <v>lang$server(80)</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>508</v>
+        <v>492</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>514</v>
+        <v>498</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -7614,15 +7779,15 @@
         <v>lang$server(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>509</v>
+        <v>493</v>
       </c>
       <c r="E82" t="s">
-        <v>515</v>
+        <v>499</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -7632,15 +7797,15 @@
         <v>lang$server(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>516</v>
+        <v>500</v>
       </c>
       <c r="E83" t="s">
-        <v>517</v>
+        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -7650,15 +7815,15 @@
         <v>lang$server(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>518</v>
+        <v>502</v>
       </c>
       <c r="E84" t="s">
-        <v>524</v>
+        <v>508</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -7668,15 +7833,15 @@
         <v>lang$server(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>519</v>
+        <v>503</v>
       </c>
       <c r="E85" t="s">
-        <v>523</v>
+        <v>507</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7686,15 +7851,15 @@
         <v>lang$server(85)</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>520</v>
+        <v>504</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -7704,15 +7869,15 @@
         <v>lang$server(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>521</v>
+        <v>505</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>522</v>
+        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -7722,15 +7887,15 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>525</v>
+        <v>623</v>
       </c>
       <c r="E88" t="s">
-        <v>527</v>
+        <v>622</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -7740,15 +7905,15 @@
         <v>lang$server(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>528</v>
+        <v>510</v>
       </c>
       <c r="E89" t="s">
-        <v>533</v>
+        <v>515</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -7758,15 +7923,15 @@
         <v>lang$server(89)</v>
       </c>
       <c r="D90" t="s">
-        <v>529</v>
+        <v>511</v>
       </c>
       <c r="E90" t="s">
-        <v>530</v>
+        <v>512</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7776,15 +7941,15 @@
         <v>lang$server(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>531</v>
+        <v>513</v>
       </c>
       <c r="E91" t="s">
-        <v>532</v>
+        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -7794,15 +7959,15 @@
         <v>lang$server(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>534</v>
+        <v>516</v>
       </c>
       <c r="E92" t="s">
-        <v>535</v>
+        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -7812,15 +7977,15 @@
         <v>lang$server(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>536</v>
+        <v>518</v>
       </c>
       <c r="E93" t="s">
-        <v>537</v>
+        <v>519</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -7830,15 +7995,15 @@
         <v>lang$server(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>538</v>
+        <v>520</v>
       </c>
       <c r="E94" t="s">
-        <v>539</v>
+        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -7848,15 +8013,15 @@
         <v>lang$server(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>540</v>
+        <v>522</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>541</v>
+        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -7866,15 +8031,15 @@
         <v>lang$server(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>542</v>
+        <v>524</v>
       </c>
       <c r="E96" t="s">
-        <v>544</v>
+        <v>526</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -7884,15 +8049,15 @@
         <v>lang$server(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>543</v>
+        <v>525</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -7902,15 +8067,15 @@
         <v>lang$server(97)</v>
       </c>
       <c r="D98" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
       <c r="E98" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -7920,15 +8085,15 @@
         <v>lang$server(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
       <c r="E99" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -7938,15 +8103,15 @@
         <v>lang$server(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
       <c r="E100" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -7956,15 +8121,15 @@
         <v>lang$server(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="E101" t="s">
-        <v>422</v>
+        <v>406</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -7974,15 +8139,15 @@
         <v>lang$server(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
       <c r="E102" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -7992,15 +8157,15 @@
         <v>lang$server(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
       <c r="E103" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -8010,15 +8175,15 @@
         <v>lang$server(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
       <c r="E104" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -8028,15 +8193,15 @@
         <v>lang$server(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
       <c r="E105" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -8046,15 +8211,15 @@
         <v>lang$server(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
       <c r="E106" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -8064,15 +8229,15 @@
         <v>lang$server(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="E107" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -8082,15 +8247,15 @@
         <v>lang$server(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="E108" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -8100,15 +8265,15 @@
         <v>lang$server(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="E109" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -8118,15 +8283,15 @@
         <v>lang$server(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
       <c r="E110" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -8136,15 +8301,15 @@
         <v>lang$server(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
       <c r="E111" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -8154,15 +8319,15 @@
         <v>lang$server(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="E112" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -8172,15 +8337,15 @@
         <v>lang$server(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="E113" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -8190,15 +8355,15 @@
         <v>lang$server(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="E114" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -8208,15 +8373,15 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
       <c r="E115" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -8226,15 +8391,15 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
       <c r="E116" t="s">
-        <v>582</v>
+        <v>564</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -8244,15 +8409,15 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>583</v>
+        <v>565</v>
       </c>
       <c r="E117" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -8262,15 +8427,15 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>585</v>
+        <v>567</v>
       </c>
       <c r="E118" t="s">
-        <v>586</v>
+        <v>568</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -8280,15 +8445,15 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>587</v>
+        <v>569</v>
       </c>
       <c r="E119" t="s">
-        <v>588</v>
+        <v>570</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -8298,15 +8463,15 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>589</v>
+        <v>571</v>
       </c>
       <c r="E120" t="s">
-        <v>590</v>
+        <v>572</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -8316,15 +8481,15 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>591</v>
+        <v>573</v>
       </c>
       <c r="E121" t="s">
-        <v>596</v>
+        <v>578</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -8334,15 +8499,15 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
-        <v>592</v>
+        <v>574</v>
       </c>
       <c r="E122" t="s">
-        <v>599</v>
+        <v>581</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -8352,15 +8517,15 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>593</v>
+        <v>575</v>
       </c>
       <c r="E123" t="s">
-        <v>598</v>
+        <v>580</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -8370,15 +8535,15 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>594</v>
+        <v>576</v>
       </c>
       <c r="E124" t="s">
-        <v>597</v>
+        <v>579</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -8388,15 +8553,15 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>595</v>
+        <v>577</v>
       </c>
       <c r="E125" t="s">
-        <v>600</v>
+        <v>582</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -8406,15 +8571,15 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>601</v>
+        <v>583</v>
       </c>
       <c r="E126" t="s">
-        <v>602</v>
+        <v>584</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -8424,15 +8589,15 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>603</v>
+        <v>585</v>
       </c>
       <c r="E127" t="s">
-        <v>606</v>
+        <v>588</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -8442,15 +8607,15 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>604</v>
+        <v>586</v>
       </c>
       <c r="E128" t="s">
-        <v>607</v>
+        <v>589</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -8460,15 +8625,15 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>605</v>
+        <v>587</v>
       </c>
       <c r="E129" t="s">
-        <v>608</v>
+        <v>590</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -8478,10 +8643,10 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>609</v>
+        <v>591</v>
       </c>
       <c r="E130" t="s">
-        <v>610</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -8496,15 +8661,15 @@
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>620</v>
+        <v>602</v>
       </c>
       <c r="E131" t="s">
-        <v>621</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -8514,15 +8679,15 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>623</v>
+        <v>605</v>
       </c>
       <c r="E132" t="s">
-        <v>625</v>
+        <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -8532,15 +8697,15 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>624</v>
+        <v>606</v>
       </c>
       <c r="E133" t="s">
-        <v>626</v>
+        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -8550,15 +8715,15 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>634</v>
+        <v>624</v>
       </c>
       <c r="E134" t="s">
-        <v>635</v>
+        <v>625</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -8568,10 +8733,28 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>636</v>
+        <v>616</v>
       </c>
       <c r="E135" t="s">
-        <v>637</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>181</v>
+      </c>
+      <c r="B136">
+        <v>135</v>
+      </c>
+      <c r="C136" s="3" t="str">
+        <f t="shared" ref="C136" si="3">"lang$server(" &amp; B136 &amp; ")"</f>
+        <v>lang$server(135)</v>
+      </c>
+      <c r="D136" t="s">
+        <v>652</v>
+      </c>
+      <c r="E136" t="s">
+        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03FF8353-E821-D946-BEE6-3E02D45CCE04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A035851-D9C6-3846-AAB6-44623326C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14440" yWindow="5460" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="15240" yWindow="5580" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -1723,12 +1723,6 @@
     <t xml:space="preserve"> files were created.</t>
   </si>
   <si>
-    <t>Der Export wird vorbereitet. Die Dateien benötigen etwas Zeit zur Vorbereitung und stehen dann als Zip-Datei zum Herunterladen bereit.</t>
-  </si>
-  <si>
-    <t>Export files are prepared. They need a few moments to be ready for download as a ZIP-file.</t>
-  </si>
-  <si>
     <t>Die Dateien werden für den Download vorbereitet. Bitte haben Sie einen Moment Geduld.</t>
   </si>
   <si>
@@ -2003,6 +1997,12 @@
   </si>
   <si>
     <t>adjusted</t>
+  </si>
+  <si>
+    <t>Der Export wurde erfolgreich abgeschlossen.</t>
+  </si>
+  <si>
+    <t>Export was successful.</t>
   </si>
 </sst>
 </file>
@@ -2504,7 +2504,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2522,7 +2522,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2540,7 +2540,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2558,7 +2558,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2576,7 +2576,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2594,7 +2594,7 @@
         <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -3074,8 +3074,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="E149" sqref="E149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3224,7 +3224,7 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -3692,10 +3692,10 @@
         <v>lang$ui(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="E34" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4250,10 +4250,10 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E65" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4322,10 +4322,10 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="E69" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4844,7 +4844,7 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>212</v>
@@ -5960,10 +5960,10 @@
         <v>lang$ui(159)</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="E160" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -5978,10 +5978,10 @@
         <v>lang$ui(160)</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="E161" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -5996,10 +5996,10 @@
         <v>lang$ui(161)</v>
       </c>
       <c r="D162" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E162" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -6014,10 +6014,10 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="E163" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6032,10 +6032,10 @@
         <v>lang$ui(163)</v>
       </c>
       <c r="D164" t="s">
+        <v>636</v>
+      </c>
+      <c r="E164" t="s">
         <v>638</v>
-      </c>
-      <c r="E164" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -6050,10 +6050,10 @@
         <v>lang$ui(164)</v>
       </c>
       <c r="D165" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E165" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6068,10 +6068,10 @@
         <v>lang$ui(165)</v>
       </c>
       <c r="D166" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E166" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6122,10 +6122,10 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
+        <v>596</v>
+      </c>
+      <c r="E169" t="s">
         <v>598</v>
-      </c>
-      <c r="E169" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6140,10 +6140,10 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
+        <v>597</v>
+      </c>
+      <c r="E170" t="s">
         <v>599</v>
-      </c>
-      <c r="E170" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -6158,10 +6158,10 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="E171" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -6176,10 +6176,10 @@
         <v>lang$ui(171)</v>
       </c>
       <c r="D172" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E172" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -6194,10 +6194,10 @@
         <v>lang$ui(172)</v>
       </c>
       <c r="D173" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E173" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -6212,10 +6212,10 @@
         <v>lang$ui(173)</v>
       </c>
       <c r="D174" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E174" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -6230,10 +6230,10 @@
         <v>lang$ui(174)</v>
       </c>
       <c r="D175" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="E175" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -6248,10 +6248,10 @@
         <v>lang$ui(175)</v>
       </c>
       <c r="D176" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="E176" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -6266,10 +6266,10 @@
         <v>lang$ui(176)</v>
       </c>
       <c r="D177" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="E177" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -6284,10 +6284,10 @@
         <v>lang$ui(177)</v>
       </c>
       <c r="D178" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E178" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -6299,8 +6299,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496328DD-5C8E-3D45-AB81-313F176488D7}">
   <dimension ref="A1:E136"/>
   <sheetViews>
-    <sheetView topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="D141" sqref="D141"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7131,10 +7131,10 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="E46" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -7728,7 +7728,7 @@
         <v>490</v>
       </c>
       <c r="E79" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
@@ -7887,10 +7887,10 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="E88" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
@@ -8373,10 +8373,10 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>561</v>
+        <v>653</v>
       </c>
       <c r="E115" t="s">
-        <v>562</v>
+        <v>654</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -8391,10 +8391,10 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="E116" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -8409,10 +8409,10 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="E117" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -8427,10 +8427,10 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
       <c r="E118" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -8445,10 +8445,10 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="E119" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -8463,10 +8463,10 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="E120" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -8481,10 +8481,10 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="E121" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -8499,10 +8499,10 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="E122" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -8517,10 +8517,10 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="E123" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -8535,10 +8535,10 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="E124" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -8553,10 +8553,10 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="E125" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -8571,10 +8571,10 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="E126" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -8589,10 +8589,10 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="E127" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -8607,10 +8607,10 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="E128" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -8625,10 +8625,10 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E129" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -8643,10 +8643,10 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
       <c r="E130" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -8661,10 +8661,10 @@
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E131" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -8679,10 +8679,10 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
+        <v>603</v>
+      </c>
+      <c r="E132" t="s">
         <v>605</v>
-      </c>
-      <c r="E132" t="s">
-        <v>607</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -8697,10 +8697,10 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
+        <v>604</v>
+      </c>
+      <c r="E133" t="s">
         <v>606</v>
-      </c>
-      <c r="E133" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -8715,10 +8715,10 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E134" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -8733,10 +8733,10 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="E135" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -8751,10 +8751,10 @@
         <v>lang$server(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="E136" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A035851-D9C6-3846-AAB6-44623326C748}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E9377-188E-9E4F-905F-E812145FAD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15240" yWindow="5580" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="11680" yWindow="3040" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="984" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="662">
   <si>
     <t>Deutsch</t>
   </si>
@@ -994,9 +994,6 @@
     <t xml:space="preserve">Here, you can download graphs and tables from the </t>
   </si>
   <si>
-    <t xml:space="preserve"> section. Display options from that tab are kept for the export. For a few exceptions, export options can be overriden in the </t>
-  </si>
-  <si>
     <t>Validität</t>
   </si>
   <si>
@@ -2003,6 +2000,30 @@
   </si>
   <si>
     <t>Export was successful.</t>
+  </si>
+  <si>
+    <t>Header</t>
+  </si>
+  <si>
+    <t>https://litg.shinyapps.io/Spectran_de/</t>
+  </si>
+  <si>
+    <t>https://litg.shinyapps.io/Spectran_en/</t>
+  </si>
+  <si>
+    <t>Zur Englischen Sprachversion</t>
+  </si>
+  <si>
+    <t>To the German version</t>
+  </si>
+  <si>
+    <t>earth-americas</t>
+  </si>
+  <si>
+    <t>earth-europe</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> section. Display options from that tab are kept for the export. For a few exceptions, export options can be overritten in the </t>
   </si>
 </sst>
 </file>
@@ -2367,10 +2388,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D99FFC6-0F2D-9847-9357-C8569C6C6BF8}">
-  <dimension ref="A1:E168"/>
+  <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2387,10 +2408,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2504,7 +2525,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2522,7 +2543,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2540,7 +2561,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2558,7 +2579,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2576,7 +2597,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2594,17 +2615,62 @@
         <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="3"/>
+      <c r="A13" t="s">
+        <v>654</v>
+      </c>
+      <c r="B13">
+        <v>12</v>
+      </c>
+      <c r="C13" s="3" t="str">
+        <f t="shared" ref="C13:C15" si="1">"lang$global(" &amp; B13 &amp; ")"</f>
+        <v>lang$global(12)</v>
+      </c>
+      <c r="D13" t="s">
+        <v>657</v>
+      </c>
+      <c r="E13" t="s">
+        <v>658</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="3"/>
+      <c r="A14" t="s">
+        <v>654</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lang$global(13)</v>
+      </c>
+      <c r="D14" t="s">
+        <v>659</v>
+      </c>
+      <c r="E14" t="s">
+        <v>660</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="3"/>
+      <c r="A15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>lang$global(14)</v>
+      </c>
+      <c r="D15" t="s">
+        <v>656</v>
+      </c>
+      <c r="E15" t="s">
+        <v>655</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C16" s="3"/>
@@ -3064,6 +3130,9 @@
     </row>
     <row r="168" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C168" s="3"/>
+    </row>
+    <row r="169" spans="3:3" x14ac:dyDescent="0.2">
+      <c r="C169" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3074,8 +3143,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="E149" sqref="E149"/>
+    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3092,10 +3161,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3224,7 +3293,7 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -3587,7 +3656,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3692,10 +3761,10 @@
         <v>lang$ui(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="E34" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -3965,7 +4034,7 @@
         <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -3980,10 +4049,10 @@
         <v>lang$ui(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -3998,10 +4067,10 @@
         <v>lang$ui(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E51" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4250,10 +4319,10 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
+        <v>611</v>
+      </c>
+      <c r="E65" t="s">
         <v>612</v>
-      </c>
-      <c r="E65" t="s">
-        <v>613</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4304,10 +4373,10 @@
         <v>lang$ui(67)</v>
       </c>
       <c r="D68" t="s">
+        <v>369</v>
+      </c>
+      <c r="E68" t="s">
         <v>370</v>
-      </c>
-      <c r="E68" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4322,10 +4391,10 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
+        <v>606</v>
+      </c>
+      <c r="E69" t="s">
         <v>607</v>
-      </c>
-      <c r="E69" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4628,10 +4697,10 @@
         <v>lang$ui(85)</v>
       </c>
       <c r="D86" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E86" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4646,10 +4715,10 @@
         <v>lang$ui(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E87" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4844,7 +4913,7 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>212</v>
@@ -5006,7 +5075,7 @@
         <v>lang$ui(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E107" t="s">
         <v>248</v>
@@ -5369,7 +5438,7 @@
         <v>263</v>
       </c>
       <c r="E127" t="s">
-        <v>318</v>
+        <v>661</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -5842,7 +5911,7 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B154">
         <v>153</v>
@@ -5852,15 +5921,15 @@
         <v>lang$ui(153)</v>
       </c>
       <c r="D154" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E154" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B155">
         <v>154</v>
@@ -5870,15 +5939,15 @@
         <v>lang$ui(154)</v>
       </c>
       <c r="D155" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E155" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -5888,15 +5957,15 @@
         <v>lang$ui(155)</v>
       </c>
       <c r="D156" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E156" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B157">
         <v>156</v>
@@ -5906,15 +5975,15 @@
         <v>lang$ui(156)</v>
       </c>
       <c r="D157" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E157" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B158">
         <v>157</v>
@@ -5924,15 +5993,15 @@
         <v>lang$ui(157)</v>
       </c>
       <c r="D158" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E158" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B159">
         <v>158</v>
@@ -5942,15 +6011,15 @@
         <v>lang$ui(158)</v>
       </c>
       <c r="D159" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E159" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B160">
         <v>159</v>
@@ -5960,15 +6029,15 @@
         <v>lang$ui(159)</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>633</v>
+      </c>
+      <c r="E160" t="s">
         <v>634</v>
-      </c>
-      <c r="E160" t="s">
-        <v>635</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B161">
         <v>160</v>
@@ -5978,15 +6047,15 @@
         <v>lang$ui(160)</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="E161" t="s">
         <v>626</v>
-      </c>
-      <c r="E161" t="s">
-        <v>627</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B162">
         <v>161</v>
@@ -5996,15 +6065,15 @@
         <v>lang$ui(161)</v>
       </c>
       <c r="D162" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E162" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B163">
         <v>162</v>
@@ -6014,15 +6083,15 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E163" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -6032,15 +6101,15 @@
         <v>lang$ui(163)</v>
       </c>
       <c r="D164" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="E164" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B165">
         <v>164</v>
@@ -6050,15 +6119,15 @@
         <v>lang$ui(164)</v>
       </c>
       <c r="D165" t="s">
+        <v>629</v>
+      </c>
+      <c r="E165" t="s">
         <v>630</v>
-      </c>
-      <c r="E165" t="s">
-        <v>631</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B166">
         <v>165</v>
@@ -6068,15 +6137,15 @@
         <v>lang$ui(165)</v>
       </c>
       <c r="D166" t="s">
+        <v>631</v>
+      </c>
+      <c r="E166" t="s">
         <v>632</v>
-      </c>
-      <c r="E166" t="s">
-        <v>633</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B167">
         <v>166</v>
@@ -6086,15 +6155,15 @@
         <v>lang$ui(166)</v>
       </c>
       <c r="D167" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E167" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B168">
         <v>167</v>
@@ -6104,10 +6173,10 @@
         <v>lang$ui(167)</v>
       </c>
       <c r="D168" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E168" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
@@ -6122,10 +6191,10 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="E169" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6140,10 +6209,10 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="E170" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -6158,15 +6227,15 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
+        <v>609</v>
+      </c>
+      <c r="E171" t="s">
         <v>610</v>
-      </c>
-      <c r="E171" t="s">
-        <v>611</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B172">
         <v>171</v>
@@ -6176,15 +6245,15 @@
         <v>lang$ui(171)</v>
       </c>
       <c r="D172" t="s">
+        <v>644</v>
+      </c>
+      <c r="E172" t="s">
         <v>645</v>
-      </c>
-      <c r="E172" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B173">
         <v>172</v>
@@ -6194,15 +6263,15 @@
         <v>lang$ui(172)</v>
       </c>
       <c r="D173" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E173" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B174">
         <v>173</v>
@@ -6212,15 +6281,15 @@
         <v>lang$ui(173)</v>
       </c>
       <c r="D174" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E174" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B175">
         <v>174</v>
@@ -6230,15 +6299,15 @@
         <v>lang$ui(174)</v>
       </c>
       <c r="D175" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E175" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B176">
         <v>175</v>
@@ -6248,15 +6317,15 @@
         <v>lang$ui(175)</v>
       </c>
       <c r="D176" t="s">
+        <v>642</v>
+      </c>
+      <c r="E176" t="s">
         <v>643</v>
-      </c>
-      <c r="E176" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B177">
         <v>176</v>
@@ -6266,10 +6335,10 @@
         <v>lang$ui(176)</v>
       </c>
       <c r="D177" t="s">
+        <v>646</v>
+      </c>
+      <c r="E177" t="s">
         <v>647</v>
-      </c>
-      <c r="E177" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -6284,10 +6353,10 @@
         <v>lang$ui(177)</v>
       </c>
       <c r="D178" t="s">
+        <v>650</v>
+      </c>
+      <c r="E178" t="s">
         <v>651</v>
-      </c>
-      <c r="E178" t="s">
-        <v>652</v>
       </c>
     </row>
   </sheetData>
@@ -6315,10 +6384,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C1" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6329,7 +6398,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6339,15 +6408,15 @@
         <v>lang$server(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -6357,15 +6426,15 @@
         <v>lang$server(2)</v>
       </c>
       <c r="D3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -6375,15 +6444,15 @@
         <v>lang$server(3)</v>
       </c>
       <c r="D4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E4" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -6393,10 +6462,10 @@
         <v>lang$server(4)</v>
       </c>
       <c r="D5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E5" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6411,10 +6480,10 @@
         <v>lang$server(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6429,10 +6498,10 @@
         <v>lang$server(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6447,10 +6516,10 @@
         <v>lang$server(7)</v>
       </c>
       <c r="D8" t="s">
+        <v>350</v>
+      </c>
+      <c r="E8" t="s">
         <v>351</v>
-      </c>
-      <c r="E8" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6465,10 +6534,10 @@
         <v>lang$server(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6483,10 +6552,10 @@
         <v>lang$server(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6501,10 +6570,10 @@
         <v>lang$server(10)</v>
       </c>
       <c r="D11" t="s">
+        <v>358</v>
+      </c>
+      <c r="E11" t="s">
         <v>359</v>
-      </c>
-      <c r="E11" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6519,10 +6588,10 @@
         <v>lang$server(11)</v>
       </c>
       <c r="D12" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12" t="s">
         <v>362</v>
-      </c>
-      <c r="E12" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6537,10 +6606,10 @@
         <v>lang$server(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E13" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6555,10 +6624,10 @@
         <v>lang$server(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E14" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6573,10 +6642,10 @@
         <v>lang$server(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E15" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6591,10 +6660,10 @@
         <v>lang$server(15)</v>
       </c>
       <c r="D16" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E16" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -6609,7 +6678,7 @@
         <v>lang$server(16)</v>
       </c>
       <c r="D17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E17" t="s">
         <v>291</v>
@@ -6627,10 +6696,10 @@
         <v>lang$server(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E18" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6645,10 +6714,10 @@
         <v>lang$server(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E19" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -6663,10 +6732,10 @@
         <v>lang$server(19)</v>
       </c>
       <c r="D20" t="s">
+        <v>379</v>
+      </c>
+      <c r="E20" t="s">
         <v>380</v>
-      </c>
-      <c r="E20" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -6681,10 +6750,10 @@
         <v>lang$server(20)</v>
       </c>
       <c r="D21" t="s">
+        <v>381</v>
+      </c>
+      <c r="E21" t="s">
         <v>382</v>
-      </c>
-      <c r="E21" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6699,10 +6768,10 @@
         <v>lang$server(21)</v>
       </c>
       <c r="D22" t="s">
+        <v>383</v>
+      </c>
+      <c r="E22" t="s">
         <v>384</v>
-      </c>
-      <c r="E22" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -6717,10 +6786,10 @@
         <v>lang$server(22)</v>
       </c>
       <c r="D23" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E23" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -6735,10 +6804,10 @@
         <v>lang$server(23)</v>
       </c>
       <c r="D24" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E24" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -6753,10 +6822,10 @@
         <v>lang$server(24)</v>
       </c>
       <c r="D25" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E25" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6771,10 +6840,10 @@
         <v>lang$server(25)</v>
       </c>
       <c r="D26" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E26" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6789,10 +6858,10 @@
         <v>lang$server(26)</v>
       </c>
       <c r="D27" t="s">
+        <v>391</v>
+      </c>
+      <c r="E27" t="s">
         <v>392</v>
-      </c>
-      <c r="E27" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6807,10 +6876,10 @@
         <v>lang$server(27)</v>
       </c>
       <c r="D28" t="s">
+        <v>393</v>
+      </c>
+      <c r="E28" t="s">
         <v>394</v>
-      </c>
-      <c r="E28" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6825,10 +6894,10 @@
         <v>lang$server(28)</v>
       </c>
       <c r="D29" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E29" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6843,10 +6912,10 @@
         <v>lang$server(29)</v>
       </c>
       <c r="D30" t="s">
+        <v>399</v>
+      </c>
+      <c r="E30" t="s">
         <v>400</v>
-      </c>
-      <c r="E30" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6861,15 +6930,15 @@
         <v>lang$server(30)</v>
       </c>
       <c r="D31" t="s">
+        <v>401</v>
+      </c>
+      <c r="E31" t="s">
         <v>402</v>
-      </c>
-      <c r="E31" t="s">
-        <v>403</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -6879,15 +6948,15 @@
         <v>lang$server(31)</v>
       </c>
       <c r="D32" t="s">
+        <v>404</v>
+      </c>
+      <c r="E32" t="s">
         <v>405</v>
-      </c>
-      <c r="E32" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -6897,15 +6966,15 @@
         <v>lang$server(32)</v>
       </c>
       <c r="D33" t="s">
+        <v>406</v>
+      </c>
+      <c r="E33" t="s">
         <v>407</v>
-      </c>
-      <c r="E33" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -6915,15 +6984,15 @@
         <v>lang$server(33)</v>
       </c>
       <c r="D34" t="s">
+        <v>408</v>
+      </c>
+      <c r="E34" t="s">
         <v>409</v>
-      </c>
-      <c r="E34" t="s">
-        <v>410</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -6933,15 +7002,15 @@
         <v>lang$server(34)</v>
       </c>
       <c r="D35" t="s">
+        <v>410</v>
+      </c>
+      <c r="E35" t="s">
         <v>411</v>
-      </c>
-      <c r="E35" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -6951,15 +7020,15 @@
         <v>lang$server(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E36" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -6969,10 +7038,10 @@
         <v>lang$server(36)</v>
       </c>
       <c r="D37" t="s">
+        <v>415</v>
+      </c>
+      <c r="E37" t="s">
         <v>416</v>
-      </c>
-      <c r="E37" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -6987,10 +7056,10 @@
         <v>lang$server(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E38" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -7005,10 +7074,10 @@
         <v>lang$server(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E39" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -7026,7 +7095,7 @@
         <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -7059,7 +7128,7 @@
         <v>lang$server(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E42" t="s">
         <v>134</v>
@@ -7077,10 +7146,10 @@
         <v>lang$server(42)</v>
       </c>
       <c r="D43" t="s">
+        <v>425</v>
+      </c>
+      <c r="E43" t="s">
         <v>426</v>
-      </c>
-      <c r="E43" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -7095,10 +7164,10 @@
         <v>lang$server(43)</v>
       </c>
       <c r="D44" t="s">
+        <v>427</v>
+      </c>
+      <c r="E44" t="s">
         <v>428</v>
-      </c>
-      <c r="E44" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -7113,10 +7182,10 @@
         <v>lang$server(44)</v>
       </c>
       <c r="D45" t="s">
+        <v>429</v>
+      </c>
+      <c r="E45" t="s">
         <v>430</v>
-      </c>
-      <c r="E45" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -7131,10 +7200,10 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="E46" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -7149,10 +7218,10 @@
         <v>lang$server(46)</v>
       </c>
       <c r="D47" t="s">
+        <v>432</v>
+      </c>
+      <c r="E47" t="s">
         <v>433</v>
-      </c>
-      <c r="E47" t="s">
-        <v>434</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -7167,10 +7236,10 @@
         <v>lang$server(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E48" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -7185,10 +7254,10 @@
         <v>lang$server(48)</v>
       </c>
       <c r="D49" t="s">
+        <v>435</v>
+      </c>
+      <c r="E49" t="s">
         <v>436</v>
-      </c>
-      <c r="E49" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -7203,10 +7272,10 @@
         <v>lang$server(49)</v>
       </c>
       <c r="D50" t="s">
+        <v>437</v>
+      </c>
+      <c r="E50" t="s">
         <v>438</v>
-      </c>
-      <c r="E50" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -7221,10 +7290,10 @@
         <v>lang$server(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E51" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -7239,10 +7308,10 @@
         <v>lang$server(51)</v>
       </c>
       <c r="D52" t="s">
+        <v>441</v>
+      </c>
+      <c r="E52" t="s">
         <v>442</v>
-      </c>
-      <c r="E52" t="s">
-        <v>443</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -7257,10 +7326,10 @@
         <v>lang$server(52)</v>
       </c>
       <c r="D53" t="s">
+        <v>443</v>
+      </c>
+      <c r="E53" t="s">
         <v>444</v>
-      </c>
-      <c r="E53" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -7275,10 +7344,10 @@
         <v>lang$server(53)</v>
       </c>
       <c r="D54" t="s">
+        <v>445</v>
+      </c>
+      <c r="E54" t="s">
         <v>446</v>
-      </c>
-      <c r="E54" t="s">
-        <v>447</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -7311,10 +7380,10 @@
         <v>lang$server(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E56" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -7329,10 +7398,10 @@
         <v>lang$server(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E57" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -7347,7 +7416,7 @@
         <v>lang$server(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E58" t="s">
         <v>157</v>
@@ -7365,10 +7434,10 @@
         <v>lang$server(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E59" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -7383,10 +7452,10 @@
         <v>lang$server(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E60" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -7401,10 +7470,10 @@
         <v>lang$server(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="E61" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -7419,10 +7488,10 @@
         <v>lang$server(61)</v>
       </c>
       <c r="D62" t="s">
+        <v>462</v>
+      </c>
+      <c r="E62" t="s">
         <v>463</v>
-      </c>
-      <c r="E62" t="s">
-        <v>464</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -7437,10 +7506,10 @@
         <v>lang$server(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E63" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -7458,7 +7527,7 @@
         <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -7473,10 +7542,10 @@
         <v>lang$server(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E65" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -7491,10 +7560,10 @@
         <v>lang$server(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E66" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -7509,10 +7578,10 @@
         <v>lang$server(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E67" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -7527,10 +7596,10 @@
         <v>lang$server(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E68" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -7545,10 +7614,10 @@
         <v>lang$server(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E69" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -7563,10 +7632,10 @@
         <v>lang$server(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E70" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -7581,10 +7650,10 @@
         <v>lang$server(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="E71" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -7599,10 +7668,10 @@
         <v>lang$server(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E72" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -7617,10 +7686,10 @@
         <v>lang$server(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E73" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -7635,15 +7704,15 @@
         <v>lang$server(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E74" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7653,15 +7722,15 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E75" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -7671,15 +7740,15 @@
         <v>lang$server(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E76" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7689,15 +7758,15 @@
         <v>lang$server(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="E77" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7707,15 +7776,15 @@
         <v>lang$server(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="E78" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7725,15 +7794,15 @@
         <v>lang$server(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="E79" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7743,15 +7812,15 @@
         <v>lang$server(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E80" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7761,15 +7830,15 @@
         <v>lang$server(80)</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -7779,15 +7848,15 @@
         <v>lang$server(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="E82" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -7797,15 +7866,15 @@
         <v>lang$server(82)</v>
       </c>
       <c r="D83" t="s">
+        <v>499</v>
+      </c>
+      <c r="E83" t="s">
         <v>500</v>
-      </c>
-      <c r="E83" t="s">
-        <v>501</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -7815,15 +7884,15 @@
         <v>lang$server(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E84" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -7833,15 +7902,15 @@
         <v>lang$server(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E85" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7851,15 +7920,15 @@
         <v>lang$server(85)</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -7869,15 +7938,15 @@
         <v>lang$server(86)</v>
       </c>
       <c r="D87" t="s">
+        <v>504</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>505</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -7887,15 +7956,15 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E88" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -7905,15 +7974,15 @@
         <v>lang$server(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E89" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -7923,15 +7992,15 @@
         <v>lang$server(89)</v>
       </c>
       <c r="D90" t="s">
+        <v>510</v>
+      </c>
+      <c r="E90" t="s">
         <v>511</v>
-      </c>
-      <c r="E90" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7941,15 +8010,15 @@
         <v>lang$server(90)</v>
       </c>
       <c r="D91" t="s">
+        <v>512</v>
+      </c>
+      <c r="E91" t="s">
         <v>513</v>
-      </c>
-      <c r="E91" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -7959,15 +8028,15 @@
         <v>lang$server(91)</v>
       </c>
       <c r="D92" t="s">
+        <v>515</v>
+      </c>
+      <c r="E92" t="s">
         <v>516</v>
-      </c>
-      <c r="E92" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -7977,15 +8046,15 @@
         <v>lang$server(92)</v>
       </c>
       <c r="D93" t="s">
+        <v>517</v>
+      </c>
+      <c r="E93" t="s">
         <v>518</v>
-      </c>
-      <c r="E93" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -7995,15 +8064,15 @@
         <v>lang$server(93)</v>
       </c>
       <c r="D94" t="s">
+        <v>519</v>
+      </c>
+      <c r="E94" t="s">
         <v>520</v>
-      </c>
-      <c r="E94" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -8013,15 +8082,15 @@
         <v>lang$server(94)</v>
       </c>
       <c r="D95" t="s">
+        <v>521</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>522</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -8031,15 +8100,15 @@
         <v>lang$server(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="E96" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -8049,15 +8118,15 @@
         <v>lang$server(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -8067,15 +8136,15 @@
         <v>lang$server(97)</v>
       </c>
       <c r="D98" t="s">
+        <v>527</v>
+      </c>
+      <c r="E98" t="s">
         <v>528</v>
-      </c>
-      <c r="E98" t="s">
-        <v>529</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -8085,15 +8154,15 @@
         <v>lang$server(98)</v>
       </c>
       <c r="D99" t="s">
+        <v>529</v>
+      </c>
+      <c r="E99" t="s">
         <v>530</v>
-      </c>
-      <c r="E99" t="s">
-        <v>531</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -8103,15 +8172,15 @@
         <v>lang$server(99)</v>
       </c>
       <c r="D100" t="s">
+        <v>531</v>
+      </c>
+      <c r="E100" t="s">
         <v>532</v>
-      </c>
-      <c r="E100" t="s">
-        <v>533</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -8121,15 +8190,15 @@
         <v>lang$server(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="E101" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -8139,10 +8208,10 @@
         <v>lang$server(101)</v>
       </c>
       <c r="D102" t="s">
+        <v>534</v>
+      </c>
+      <c r="E102" t="s">
         <v>535</v>
-      </c>
-      <c r="E102" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -8157,10 +8226,10 @@
         <v>lang$server(102)</v>
       </c>
       <c r="D103" t="s">
+        <v>536</v>
+      </c>
+      <c r="E103" t="s">
         <v>537</v>
-      </c>
-      <c r="E103" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -8175,10 +8244,10 @@
         <v>lang$server(103)</v>
       </c>
       <c r="D104" t="s">
+        <v>538</v>
+      </c>
+      <c r="E104" t="s">
         <v>539</v>
-      </c>
-      <c r="E104" t="s">
-        <v>540</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -8193,10 +8262,10 @@
         <v>lang$server(104)</v>
       </c>
       <c r="D105" t="s">
+        <v>540</v>
+      </c>
+      <c r="E105" t="s">
         <v>541</v>
-      </c>
-      <c r="E105" t="s">
-        <v>542</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -8211,7 +8280,7 @@
         <v>lang$server(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E106" t="s">
         <v>291</v>
@@ -8229,10 +8298,10 @@
         <v>lang$server(106)</v>
       </c>
       <c r="D107" t="s">
+        <v>543</v>
+      </c>
+      <c r="E107" t="s">
         <v>544</v>
-      </c>
-      <c r="E107" t="s">
-        <v>545</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -8247,10 +8316,10 @@
         <v>lang$server(107)</v>
       </c>
       <c r="D108" t="s">
+        <v>545</v>
+      </c>
+      <c r="E108" t="s">
         <v>546</v>
-      </c>
-      <c r="E108" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -8265,10 +8334,10 @@
         <v>lang$server(108)</v>
       </c>
       <c r="D109" t="s">
+        <v>547</v>
+      </c>
+      <c r="E109" t="s">
         <v>548</v>
-      </c>
-      <c r="E109" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -8283,10 +8352,10 @@
         <v>lang$server(109)</v>
       </c>
       <c r="D110" t="s">
+        <v>549</v>
+      </c>
+      <c r="E110" t="s">
         <v>550</v>
-      </c>
-      <c r="E110" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -8301,10 +8370,10 @@
         <v>lang$server(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E111" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -8319,10 +8388,10 @@
         <v>lang$server(111)</v>
       </c>
       <c r="D112" t="s">
+        <v>555</v>
+      </c>
+      <c r="E112" t="s">
         <v>556</v>
-      </c>
-      <c r="E112" t="s">
-        <v>557</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -8337,10 +8406,10 @@
         <v>lang$server(112)</v>
       </c>
       <c r="D113" t="s">
+        <v>557</v>
+      </c>
+      <c r="E113" t="s">
         <v>558</v>
-      </c>
-      <c r="E113" t="s">
-        <v>559</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -8355,10 +8424,10 @@
         <v>lang$server(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E114" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -8373,10 +8442,10 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
+        <v>652</v>
+      </c>
+      <c r="E115" t="s">
         <v>653</v>
-      </c>
-      <c r="E115" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -8391,10 +8460,10 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
+        <v>560</v>
+      </c>
+      <c r="E116" t="s">
         <v>561</v>
-      </c>
-      <c r="E116" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -8409,10 +8478,10 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>562</v>
+      </c>
+      <c r="E117" t="s">
         <v>563</v>
-      </c>
-      <c r="E117" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -8427,10 +8496,10 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
+        <v>564</v>
+      </c>
+      <c r="E118" t="s">
         <v>565</v>
-      </c>
-      <c r="E118" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -8445,10 +8514,10 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
+        <v>566</v>
+      </c>
+      <c r="E119" t="s">
         <v>567</v>
-      </c>
-      <c r="E119" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -8463,10 +8532,10 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
+        <v>568</v>
+      </c>
+      <c r="E120" t="s">
         <v>569</v>
-      </c>
-      <c r="E120" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -8481,10 +8550,10 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E121" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -8499,10 +8568,10 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E122" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -8517,10 +8586,10 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E123" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -8535,10 +8604,10 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="E124" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -8553,10 +8622,10 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E125" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -8571,10 +8640,10 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
+        <v>580</v>
+      </c>
+      <c r="E126" t="s">
         <v>581</v>
-      </c>
-      <c r="E126" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -8589,10 +8658,10 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="E127" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -8607,10 +8676,10 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="E128" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -8625,10 +8694,10 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="E129" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -8643,10 +8712,10 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
+        <v>588</v>
+      </c>
+      <c r="E130" t="s">
         <v>589</v>
-      </c>
-      <c r="E130" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -8661,10 +8730,10 @@
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
+        <v>599</v>
+      </c>
+      <c r="E131" t="s">
         <v>600</v>
-      </c>
-      <c r="E131" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -8679,10 +8748,10 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="E132" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -8697,10 +8766,10 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="E133" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -8715,10 +8784,10 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
+        <v>621</v>
+      </c>
+      <c r="E134" t="s">
         <v>622</v>
-      </c>
-      <c r="E134" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -8733,10 +8802,10 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
+        <v>613</v>
+      </c>
+      <c r="E135" t="s">
         <v>614</v>
-      </c>
-      <c r="E135" t="s">
-        <v>615</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -8751,10 +8820,10 @@
         <v>lang$server(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="E136" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{039E9377-188E-9E4F-905F-E812145FAD95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC1F23-173C-E440-AE20-C36BD38942DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11680" yWindow="3040" windowWidth="30240" windowHeight="18880" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="5760" yWindow="3040" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="993" uniqueCount="662">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="664">
   <si>
     <t>Deutsch</t>
   </si>
@@ -1996,12 +1996,6 @@
     <t>adjusted</t>
   </si>
   <si>
-    <t>Der Export wurde erfolgreich abgeschlossen.</t>
-  </si>
-  <si>
-    <t>Export was successful.</t>
-  </si>
-  <si>
     <t>Header</t>
   </si>
   <si>
@@ -2024,6 +2018,18 @@
   </si>
   <si>
     <t xml:space="preserve"> section. Display options from that tab are kept for the export. For a few exceptions, export options can be overritten in the </t>
+  </si>
+  <si>
+    <t>Erstelle ZIP-Datei</t>
+  </si>
+  <si>
+    <t>Create ZIP file</t>
+  </si>
+  <si>
+    <t>Export file was successfully created. It can be downloaded now:</t>
+  </si>
+  <si>
+    <t>Die Exportdatei wurde erfolgreich vorbereitet und kann nun heruntergeladen werden:</t>
   </si>
 </sst>
 </file>
@@ -2620,7 +2626,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2630,15 +2636,15 @@
         <v>lang$global(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="E13" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2648,15 +2654,15 @@
         <v>lang$global(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="E14" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2666,10 +2672,10 @@
         <v>lang$global(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E15" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3143,7 +3149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A105" workbookViewId="0">
+    <sheetView topLeftCell="A105" workbookViewId="0">
       <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
@@ -5438,7 +5444,7 @@
         <v>263</v>
       </c>
       <c r="E127" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6366,10 +6372,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496328DD-5C8E-3D45-AB81-313F176488D7}">
-  <dimension ref="A1:E136"/>
+  <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="H100" sqref="H100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8442,10 +8448,10 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>652</v>
+        <v>663</v>
       </c>
       <c r="E115" t="s">
-        <v>653</v>
+        <v>662</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -8726,7 +8732,7 @@
         <v>130</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" ref="C131:C135" si="2">"lang$server(" &amp; B131 &amp; ")"</f>
+        <f t="shared" ref="C131:C137" si="2">"lang$server(" &amp; B131 &amp; ")"</f>
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
@@ -8824,6 +8830,24 @@
       </c>
       <c r="E136" t="s">
         <v>648</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>259</v>
+      </c>
+      <c r="B137">
+        <v>136</v>
+      </c>
+      <c r="C137" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>lang$server(136)</v>
+      </c>
+      <c r="D137" t="s">
+        <v>660</v>
+      </c>
+      <c r="E137" t="s">
+        <v>661</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24FC1F23-173C-E440-AE20-C36BD38942DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C02E8D-8425-F64E-A2BE-A9BDD4597F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="3040" windowWidth="30240" windowHeight="18880" activeTab="2" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="51200" yWindow="15120" windowWidth="18760" windowHeight="18880" activeTab="2" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="996" uniqueCount="664">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="659">
   <si>
     <t>Deutsch</t>
   </si>
@@ -1042,30 +1042,9 @@
     <t>Verwendete Pakete in R:</t>
   </si>
   <si>
-    <t>https://mstream.hm.edu/static/mh_default_org/api/fc28fe08-8633-4457-bdd4-8fb23cc93b22/701f69b3-4c42-4dbd-9d2e-ecbc8c8843bf/concat.mp4</t>
-  </si>
-  <si>
-    <t>https://mstream.hm.edu/static/mh_default_org/api/e7e1bce6-baa7-4398-9868-2cd3e60fe6d1/0264a242-2421-4efd-8910-baa697cb3a76/concat.mp4</t>
-  </si>
-  <si>
     <t>Tutorial_Kurz</t>
   </si>
   <si>
-    <t>Tutorial_1</t>
-  </si>
-  <si>
-    <t>Tutorial_2</t>
-  </si>
-  <si>
-    <t>Tutorial_3</t>
-  </si>
-  <si>
-    <t>https://mstream.hm.edu/static/mh_default_org/api/afd5206c-d94a-4e42-b692-d5f169b5e8a6/451737a4-fa44-4cbd-a075-51c333feac70/concat.mp4</t>
-  </si>
-  <si>
-    <t>https://mstream.hm.edu/static/mh_default_org/api/44110ec1-1533-41c7-9085-ee30caf80458/beb097cb-a757-43e4-be49-64710d23c3bb/concat.mp4</t>
-  </si>
-  <si>
     <t xml:space="preserve">Gültige Spalten: 1 bis </t>
   </si>
   <si>
@@ -2030,6 +2009,12 @@
   </si>
   <si>
     <t>Die Exportdatei wurde erfolgreich vorbereitet und kann nun heruntergeladen werden:</t>
+  </si>
+  <si>
+    <t>https://mstream.hm.edu/static/mh_default_org/api/eba0e91a-856c-4bde-98e4-dbed166a8581/09ecbc0b-14f9-4277-bd3e-15fa52bcd5cf/concat.mp4</t>
+  </si>
+  <si>
+    <t>https://mstream.hm.edu/static/mh_default_org/api/4ea1066d-53d9-4461-a4e2-665fadbf1312/8ee8c531-9b35-4896-baab-f87670b7a916/concat.mp4</t>
   </si>
 </sst>
 </file>
@@ -2414,10 +2399,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2531,7 +2516,7 @@
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2549,7 +2534,7 @@
         <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2567,7 +2552,7 @@
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2585,7 +2570,7 @@
         <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2603,7 +2588,7 @@
         <v>11</v>
       </c>
       <c r="E11" t="s">
-        <v>615</v>
+        <v>608</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2621,12 +2606,12 @@
         <v>144</v>
       </c>
       <c r="E12" t="s">
-        <v>608</v>
+        <v>601</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2636,15 +2621,15 @@
         <v>lang$global(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>655</v>
+        <v>648</v>
       </c>
       <c r="E13" t="s">
-        <v>656</v>
+        <v>649</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2654,15 +2639,15 @@
         <v>lang$global(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>657</v>
+        <v>650</v>
       </c>
       <c r="E14" t="s">
-        <v>658</v>
+        <v>651</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>652</v>
+        <v>645</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2672,10 +2657,10 @@
         <v>lang$global(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>654</v>
+        <v>647</v>
       </c>
       <c r="E15" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3149,7 +3134,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
   <dimension ref="A1:E178"/>
   <sheetViews>
-    <sheetView topLeftCell="A105" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
@@ -3167,10 +3152,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3299,7 +3284,7 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="E8" t="s">
         <v>32</v>
@@ -3662,7 +3647,7 @@
         <v>73</v>
       </c>
       <c r="E28" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -3767,10 +3752,10 @@
         <v>lang$ui(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>624</v>
+        <v>617</v>
       </c>
       <c r="E34" t="s">
-        <v>623</v>
+        <v>616</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
@@ -4040,7 +4025,7 @@
         <v>114</v>
       </c>
       <c r="E49" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -4055,10 +4040,10 @@
         <v>lang$ui(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="E50" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -4073,10 +4058,10 @@
         <v>lang$ui(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
       <c r="E51" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -4325,10 +4310,10 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="E65" t="s">
-        <v>612</v>
+        <v>605</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -4379,10 +4364,10 @@
         <v>lang$ui(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="E68" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -4397,10 +4382,10 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>606</v>
+        <v>599</v>
       </c>
       <c r="E69" t="s">
-        <v>607</v>
+        <v>600</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -4703,10 +4688,10 @@
         <v>lang$ui(85)</v>
       </c>
       <c r="D86" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="E86" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
@@ -4721,10 +4706,10 @@
         <v>lang$ui(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="E87" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
@@ -4919,7 +4904,7 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>601</v>
+        <v>594</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>212</v>
@@ -5081,7 +5066,7 @@
         <v>lang$ui(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="E107" t="s">
         <v>248</v>
@@ -5444,7 +5429,7 @@
         <v>263</v>
       </c>
       <c r="E127" t="s">
-        <v>659</v>
+        <v>652</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6035,10 +6020,10 @@
         <v>lang$ui(159)</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>633</v>
+        <v>626</v>
       </c>
       <c r="E160" t="s">
-        <v>634</v>
+        <v>627</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
@@ -6053,10 +6038,10 @@
         <v>lang$ui(160)</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>625</v>
+        <v>618</v>
       </c>
       <c r="E161" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
@@ -6071,10 +6056,10 @@
         <v>lang$ui(161)</v>
       </c>
       <c r="D162" t="s">
-        <v>628</v>
+        <v>621</v>
       </c>
       <c r="E162" t="s">
-        <v>627</v>
+        <v>620</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
@@ -6089,10 +6074,10 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>638</v>
+        <v>631</v>
       </c>
       <c r="E163" t="s">
-        <v>636</v>
+        <v>629</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6107,10 +6092,10 @@
         <v>lang$ui(163)</v>
       </c>
       <c r="D164" t="s">
-        <v>635</v>
+        <v>628</v>
       </c>
       <c r="E164" t="s">
-        <v>637</v>
+        <v>630</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -6125,10 +6110,10 @@
         <v>lang$ui(164)</v>
       </c>
       <c r="D165" t="s">
-        <v>629</v>
+        <v>622</v>
       </c>
       <c r="E165" t="s">
-        <v>630</v>
+        <v>623</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
@@ -6143,10 +6128,10 @@
         <v>lang$ui(165)</v>
       </c>
       <c r="D166" t="s">
-        <v>631</v>
+        <v>624</v>
       </c>
       <c r="E166" t="s">
-        <v>632</v>
+        <v>625</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
@@ -6197,10 +6182,10 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
       <c r="E169" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
@@ -6215,10 +6200,10 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="E170" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
@@ -6233,10 +6218,10 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
-        <v>609</v>
+        <v>602</v>
       </c>
       <c r="E171" t="s">
-        <v>610</v>
+        <v>603</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
@@ -6251,10 +6236,10 @@
         <v>lang$ui(171)</v>
       </c>
       <c r="D172" t="s">
-        <v>644</v>
+        <v>637</v>
       </c>
       <c r="E172" t="s">
-        <v>645</v>
+        <v>638</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -6269,10 +6254,10 @@
         <v>lang$ui(172)</v>
       </c>
       <c r="D173" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
       <c r="E173" t="s">
-        <v>639</v>
+        <v>632</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -6287,10 +6272,10 @@
         <v>lang$ui(173)</v>
       </c>
       <c r="D174" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
       <c r="E174" t="s">
-        <v>640</v>
+        <v>633</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -6305,10 +6290,10 @@
         <v>lang$ui(174)</v>
       </c>
       <c r="D175" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
       <c r="E175" t="s">
-        <v>641</v>
+        <v>634</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -6323,10 +6308,10 @@
         <v>lang$ui(175)</v>
       </c>
       <c r="D176" t="s">
-        <v>642</v>
+        <v>635</v>
       </c>
       <c r="E176" t="s">
-        <v>643</v>
+        <v>636</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -6341,10 +6326,10 @@
         <v>lang$ui(176)</v>
       </c>
       <c r="D177" t="s">
-        <v>646</v>
+        <v>639</v>
       </c>
       <c r="E177" t="s">
-        <v>647</v>
+        <v>640</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -6359,10 +6344,10 @@
         <v>lang$ui(177)</v>
       </c>
       <c r="D178" t="s">
-        <v>650</v>
+        <v>643</v>
       </c>
       <c r="E178" t="s">
-        <v>651</v>
+        <v>644</v>
       </c>
     </row>
   </sheetData>
@@ -6374,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496328DD-5C8E-3D45-AB81-313F176488D7}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="H100" sqref="H100"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6390,10 +6375,10 @@
         <v>12</v>
       </c>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="C1" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6404,7 +6389,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6414,16 +6399,13 @@
         <v>lang$server(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>334</v>
+        <v>658</v>
       </c>
       <c r="E2" t="s">
-        <v>334</v>
+        <v>657</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>337</v>
-      </c>
       <c r="B3">
         <v>2</v>
       </c>
@@ -6431,17 +6413,8 @@
         <f t="shared" ref="C3:C66" si="0">"lang$server(" &amp; B3 &amp; ")"</f>
         <v>lang$server(2)</v>
       </c>
-      <c r="D3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E3" t="s">
-        <v>335</v>
-      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>338</v>
-      </c>
       <c r="B4">
         <v>3</v>
       </c>
@@ -6449,29 +6422,14 @@
         <f t="shared" si="0"/>
         <v>lang$server(3)</v>
       </c>
-      <c r="D4" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" t="s">
-        <v>340</v>
-      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>339</v>
-      </c>
       <c r="B5">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>lang$server(4)</v>
-      </c>
-      <c r="D5" t="s">
-        <v>341</v>
-      </c>
-      <c r="E5" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -6486,10 +6444,10 @@
         <v>lang$server(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>342</v>
+        <v>335</v>
       </c>
       <c r="E6" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
@@ -6504,10 +6462,10 @@
         <v>lang$server(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="E7" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -6522,10 +6480,10 @@
         <v>lang$server(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="E8" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -6540,10 +6498,10 @@
         <v>lang$server(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="E9" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -6558,10 +6516,10 @@
         <v>lang$server(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="E10" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -6576,10 +6534,10 @@
         <v>lang$server(10)</v>
       </c>
       <c r="D11" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="E11" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -6594,10 +6552,10 @@
         <v>lang$server(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="E12" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -6612,10 +6570,10 @@
         <v>lang$server(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="E13" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -6630,10 +6588,10 @@
         <v>lang$server(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="E14" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -6648,10 +6606,10 @@
         <v>lang$server(14)</v>
       </c>
       <c r="D15" t="s">
+        <v>342</v>
+      </c>
+      <c r="E15" t="s">
         <v>349</v>
-      </c>
-      <c r="E15" t="s">
-        <v>356</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -6666,10 +6624,10 @@
         <v>lang$server(15)</v>
       </c>
       <c r="D16" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="E16" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
@@ -6684,7 +6642,7 @@
         <v>lang$server(16)</v>
       </c>
       <c r="D17" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="E17" t="s">
         <v>291</v>
@@ -6702,10 +6660,10 @@
         <v>lang$server(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="E18" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -6720,10 +6678,10 @@
         <v>lang$server(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="E19" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -6738,10 +6696,10 @@
         <v>lang$server(19)</v>
       </c>
       <c r="D20" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="E20" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -6756,10 +6714,10 @@
         <v>lang$server(20)</v>
       </c>
       <c r="D21" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="E21" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
@@ -6774,10 +6732,10 @@
         <v>lang$server(21)</v>
       </c>
       <c r="D22" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="E22" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
@@ -6792,10 +6750,10 @@
         <v>lang$server(22)</v>
       </c>
       <c r="D23" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="E23" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -6810,10 +6768,10 @@
         <v>lang$server(23)</v>
       </c>
       <c r="D24" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
       <c r="E24" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
@@ -6828,10 +6786,10 @@
         <v>lang$server(24)</v>
       </c>
       <c r="D25" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="E25" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
@@ -6846,10 +6804,10 @@
         <v>lang$server(25)</v>
       </c>
       <c r="D26" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="E26" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
@@ -6864,10 +6822,10 @@
         <v>lang$server(26)</v>
       </c>
       <c r="D27" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="E27" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
@@ -6882,10 +6840,10 @@
         <v>lang$server(27)</v>
       </c>
       <c r="D28" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="E28" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
@@ -6900,10 +6858,10 @@
         <v>lang$server(28)</v>
       </c>
       <c r="D29" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="E29" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
@@ -6918,10 +6876,10 @@
         <v>lang$server(29)</v>
       </c>
       <c r="D30" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="E30" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
@@ -6936,15 +6894,15 @@
         <v>lang$server(30)</v>
       </c>
       <c r="D31" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
       <c r="E31" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -6954,15 +6912,15 @@
         <v>lang$server(31)</v>
       </c>
       <c r="D32" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
       <c r="E32" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -6972,15 +6930,15 @@
         <v>lang$server(32)</v>
       </c>
       <c r="D33" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="E33" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -6990,15 +6948,15 @@
         <v>lang$server(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
       <c r="E34" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -7008,15 +6966,15 @@
         <v>lang$server(34)</v>
       </c>
       <c r="D35" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="E35" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -7026,15 +6984,15 @@
         <v>lang$server(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
       <c r="E36" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7044,10 +7002,10 @@
         <v>lang$server(36)</v>
       </c>
       <c r="D37" t="s">
-        <v>415</v>
+        <v>408</v>
       </c>
       <c r="E37" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
@@ -7062,10 +7020,10 @@
         <v>lang$server(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E38" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
@@ -7080,10 +7038,10 @@
         <v>lang$server(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="E39" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -7101,7 +7059,7 @@
         <v>198</v>
       </c>
       <c r="E40" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -7134,7 +7092,7 @@
         <v>lang$server(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="E42" t="s">
         <v>134</v>
@@ -7152,10 +7110,10 @@
         <v>lang$server(42)</v>
       </c>
       <c r="D43" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="E43" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
@@ -7170,10 +7128,10 @@
         <v>lang$server(43)</v>
       </c>
       <c r="D44" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
       <c r="E44" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
@@ -7188,10 +7146,10 @@
         <v>lang$server(44)</v>
       </c>
       <c r="D45" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
       <c r="E45" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
@@ -7206,10 +7164,10 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>617</v>
+        <v>610</v>
       </c>
       <c r="E46" t="s">
-        <v>616</v>
+        <v>609</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
@@ -7224,10 +7182,10 @@
         <v>lang$server(46)</v>
       </c>
       <c r="D47" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
       <c r="E47" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
@@ -7242,10 +7200,10 @@
         <v>lang$server(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>431</v>
+        <v>424</v>
       </c>
       <c r="E48" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
@@ -7260,10 +7218,10 @@
         <v>lang$server(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
       <c r="E49" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
@@ -7278,10 +7236,10 @@
         <v>lang$server(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="E50" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -7296,10 +7254,10 @@
         <v>lang$server(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="E51" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
@@ -7314,10 +7272,10 @@
         <v>lang$server(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
       <c r="E52" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
@@ -7332,10 +7290,10 @@
         <v>lang$server(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="E53" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
@@ -7350,10 +7308,10 @@
         <v>lang$server(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="E54" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
@@ -7386,10 +7344,10 @@
         <v>lang$server(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="E56" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
@@ -7404,10 +7362,10 @@
         <v>lang$server(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E57" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
@@ -7422,7 +7380,7 @@
         <v>lang$server(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
       <c r="E58" t="s">
         <v>157</v>
@@ -7440,10 +7398,10 @@
         <v>lang$server(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="E59" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
@@ -7458,10 +7416,10 @@
         <v>lang$server(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="E60" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
@@ -7476,10 +7434,10 @@
         <v>lang$server(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="E61" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
@@ -7494,10 +7452,10 @@
         <v>lang$server(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="E62" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -7512,10 +7470,10 @@
         <v>lang$server(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
       <c r="E63" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
@@ -7533,7 +7491,7 @@
         <v>199</v>
       </c>
       <c r="E64" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
@@ -7548,10 +7506,10 @@
         <v>lang$server(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
       <c r="E65" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
@@ -7566,10 +7524,10 @@
         <v>lang$server(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="E66" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
@@ -7584,10 +7542,10 @@
         <v>lang$server(66)</v>
       </c>
       <c r="D67" t="s">
+        <v>459</v>
+      </c>
+      <c r="E67" t="s">
         <v>466</v>
-      </c>
-      <c r="E67" t="s">
-        <v>473</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -7602,10 +7560,10 @@
         <v>lang$server(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
       <c r="E68" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -7620,10 +7578,10 @@
         <v>lang$server(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="E69" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -7638,10 +7596,10 @@
         <v>lang$server(69)</v>
       </c>
       <c r="D70" t="s">
+        <v>462</v>
+      </c>
+      <c r="E70" t="s">
         <v>469</v>
-      </c>
-      <c r="E70" t="s">
-        <v>476</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
@@ -7656,10 +7614,10 @@
         <v>lang$server(70)</v>
       </c>
       <c r="D71" t="s">
+        <v>463</v>
+      </c>
+      <c r="E71" t="s">
         <v>470</v>
-      </c>
-      <c r="E71" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -7674,10 +7632,10 @@
         <v>lang$server(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
       <c r="E72" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -7692,10 +7650,10 @@
         <v>lang$server(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="E73" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -7710,15 +7668,15 @@
         <v>lang$server(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="E74" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7728,15 +7686,15 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="E75" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -7746,15 +7704,15 @@
         <v>lang$server(75)</v>
       </c>
       <c r="D76" t="s">
+        <v>479</v>
+      </c>
+      <c r="E76" t="s">
         <v>486</v>
-      </c>
-      <c r="E76" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7764,15 +7722,15 @@
         <v>lang$server(76)</v>
       </c>
       <c r="D77" t="s">
+        <v>480</v>
+      </c>
+      <c r="E77" t="s">
         <v>487</v>
-      </c>
-      <c r="E77" t="s">
-        <v>494</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7782,15 +7740,15 @@
         <v>lang$server(77)</v>
       </c>
       <c r="D78" t="s">
+        <v>481</v>
+      </c>
+      <c r="E78" t="s">
         <v>488</v>
-      </c>
-      <c r="E78" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7800,15 +7758,15 @@
         <v>lang$server(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="E79" t="s">
-        <v>618</v>
+        <v>611</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7818,15 +7776,15 @@
         <v>lang$server(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="E80" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7836,15 +7794,15 @@
         <v>lang$server(80)</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -7854,15 +7812,15 @@
         <v>lang$server(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
       <c r="E82" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -7872,15 +7830,15 @@
         <v>lang$server(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="E83" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -7890,15 +7848,15 @@
         <v>lang$server(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="E84" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -7908,15 +7866,15 @@
         <v>lang$server(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
       <c r="E85" t="s">
-        <v>506</v>
+        <v>499</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7926,15 +7884,15 @@
         <v>lang$server(85)</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -7944,15 +7902,15 @@
         <v>lang$server(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>505</v>
+        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -7962,15 +7920,15 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>620</v>
+        <v>613</v>
       </c>
       <c r="E88" t="s">
-        <v>619</v>
+        <v>612</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -7980,15 +7938,15 @@
         <v>lang$server(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="E89" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -7998,15 +7956,15 @@
         <v>lang$server(89)</v>
       </c>
       <c r="D90" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
       <c r="E90" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -8016,15 +7974,15 @@
         <v>lang$server(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="E91" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -8034,15 +7992,15 @@
         <v>lang$server(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="E92" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -8052,15 +8010,15 @@
         <v>lang$server(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="E93" t="s">
-        <v>518</v>
+        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -8070,15 +8028,15 @@
         <v>lang$server(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>519</v>
+        <v>512</v>
       </c>
       <c r="E94" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -8088,15 +8046,15 @@
         <v>lang$server(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -8106,15 +8064,15 @@
         <v>lang$server(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E96" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -8124,15 +8082,15 @@
         <v>lang$server(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -8142,15 +8100,15 @@
         <v>lang$server(97)</v>
       </c>
       <c r="D98" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="E98" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -8160,15 +8118,15 @@
         <v>lang$server(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="E99" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -8178,15 +8136,15 @@
         <v>lang$server(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="E100" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -8196,15 +8154,15 @@
         <v>lang$server(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
       <c r="E101" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -8214,10 +8172,10 @@
         <v>lang$server(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="E102" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
@@ -8232,10 +8190,10 @@
         <v>lang$server(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
       <c r="E103" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
@@ -8250,10 +8208,10 @@
         <v>lang$server(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="E104" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
@@ -8268,10 +8226,10 @@
         <v>lang$server(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="E105" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
@@ -8286,7 +8244,7 @@
         <v>lang$server(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="E106" t="s">
         <v>291</v>
@@ -8304,10 +8262,10 @@
         <v>lang$server(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="E107" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
@@ -8322,10 +8280,10 @@
         <v>lang$server(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E108" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -8340,10 +8298,10 @@
         <v>lang$server(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="E109" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
@@ -8358,10 +8316,10 @@
         <v>lang$server(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="E110" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
@@ -8376,10 +8334,10 @@
         <v>lang$server(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="E111" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
@@ -8394,10 +8352,10 @@
         <v>lang$server(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
       <c r="E112" t="s">
-        <v>556</v>
+        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
@@ -8412,10 +8370,10 @@
         <v>lang$server(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>557</v>
+        <v>550</v>
       </c>
       <c r="E113" t="s">
-        <v>558</v>
+        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
@@ -8430,10 +8388,10 @@
         <v>lang$server(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="E114" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
@@ -8448,10 +8406,10 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>663</v>
+        <v>656</v>
       </c>
       <c r="E115" t="s">
-        <v>662</v>
+        <v>655</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -8466,10 +8424,10 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
       <c r="E116" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
@@ -8484,10 +8442,10 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="E117" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
@@ -8502,10 +8460,10 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>564</v>
+        <v>557</v>
       </c>
       <c r="E118" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
@@ -8520,10 +8478,10 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="E119" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
@@ -8538,10 +8496,10 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="E120" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
@@ -8556,10 +8514,10 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>570</v>
+        <v>563</v>
       </c>
       <c r="E121" t="s">
-        <v>575</v>
+        <v>568</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
@@ -8574,10 +8532,10 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
+        <v>564</v>
+      </c>
+      <c r="E122" t="s">
         <v>571</v>
-      </c>
-      <c r="E122" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
@@ -8592,10 +8550,10 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="E123" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
@@ -8610,10 +8568,10 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="E124" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
@@ -8628,10 +8586,10 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="E125" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
@@ -8646,10 +8604,10 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>580</v>
+        <v>573</v>
       </c>
       <c r="E126" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
@@ -8664,10 +8622,10 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="E127" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -8682,10 +8640,10 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
       <c r="E128" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -8700,10 +8658,10 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="E129" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
@@ -8718,10 +8676,10 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="E130" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
@@ -8736,10 +8694,10 @@
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>599</v>
+        <v>592</v>
       </c>
       <c r="E131" t="s">
-        <v>600</v>
+        <v>593</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
@@ -8754,10 +8712,10 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>602</v>
+        <v>595</v>
       </c>
       <c r="E132" t="s">
-        <v>604</v>
+        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
@@ -8772,10 +8730,10 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>603</v>
+        <v>596</v>
       </c>
       <c r="E133" t="s">
-        <v>605</v>
+        <v>598</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
@@ -8790,10 +8748,10 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>621</v>
+        <v>614</v>
       </c>
       <c r="E134" t="s">
-        <v>622</v>
+        <v>615</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -8808,10 +8766,10 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>613</v>
+        <v>606</v>
       </c>
       <c r="E135" t="s">
-        <v>614</v>
+        <v>607</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
@@ -8826,10 +8784,10 @@
         <v>lang$server(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>649</v>
+        <v>642</v>
       </c>
       <c r="E136" t="s">
-        <v>648</v>
+        <v>641</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -8844,10 +8802,10 @@
         <v>lang$server(136)</v>
       </c>
       <c r="D137" t="s">
-        <v>660</v>
+        <v>653</v>
       </c>
       <c r="E137" t="s">
-        <v>661</v>
+        <v>654</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32C02E8D-8425-F64E-A2BE-A9BDD4597F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10245A7-4585-4D4A-A0F0-1A299F3E8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="51200" yWindow="15120" windowWidth="18760" windowHeight="18880" activeTab="2" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="14540" yWindow="3740" windowWidth="29280" windowHeight="21840" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -61,9 +61,6 @@
     <t>rhodopisch</t>
   </si>
   <si>
-    <t>Melanopische Bewertung (OPN4/smel)</t>
-  </si>
-  <si>
     <t>Erythropische Bewertung (long wavelength cone)</t>
   </si>
   <si>
@@ -1789,9 +1786,6 @@
     <t>Comparison</t>
   </si>
   <si>
-    <t>Melanopic evaluation (OPN4/smel)</t>
-  </si>
-  <si>
     <t>Erythropic evaluation (long wavelength cone)</t>
   </si>
   <si>
@@ -2015,6 +2009,12 @@
   </si>
   <si>
     <t>https://mstream.hm.edu/static/mh_default_org/api/4ea1066d-53d9-4461-a4e2-665fadbf1312/8ee8c531-9b35-4896-baab-f87670b7a916/concat.mp4</t>
+  </si>
+  <si>
+    <t>Melanopic evaluation (s&lt;sub&gt;mel&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>Melanopische Bewertung (s&lt;sub&gt;mel&lt;/sub&gt;)</t>
   </si>
 </sst>
 </file>
@@ -2381,8 +2381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D99FFC6-0F2D-9847-9357-C8569C6C6BF8}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,13 +2396,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2413,7 +2413,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2426,12 +2426,12 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2444,12 +2444,12 @@
         <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2462,12 +2462,12 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2480,12 +2480,12 @@
         <v>5</v>
       </c>
       <c r="E5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2498,12 +2498,12 @@
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2513,15 +2513,15 @@
         <v>lang$global(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>658</v>
       </c>
       <c r="E7" t="s">
-        <v>583</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2531,15 +2531,15 @@
         <v>lang$global(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2549,15 +2549,15 @@
         <v>lang$global(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2567,15 +2567,15 @@
         <v>lang$global(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2585,15 +2585,15 @@
         <v>lang$global(10)</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2603,15 +2603,15 @@
         <v>lang$global(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2621,15 +2621,15 @@
         <v>lang$global(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="E13" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2639,15 +2639,15 @@
         <v>lang$global(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="E14" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2657,10 +2657,10 @@
         <v>lang$global(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="E15" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3135,7 +3135,7 @@
   <dimension ref="A1:E178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E128" sqref="E128"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,13 +3149,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3166,7 +3166,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3176,15 +3176,15 @@
         <v>lang$ui(1)</v>
       </c>
       <c r="D2" t="s">
+        <v>20</v>
+      </c>
+      <c r="E2" t="s">
         <v>21</v>
-      </c>
-      <c r="E2" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3194,15 +3194,15 @@
         <v>lang$ui(2)</v>
       </c>
       <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
         <v>24</v>
-      </c>
-      <c r="E3" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3212,15 +3212,15 @@
         <v>lang$ui(3)</v>
       </c>
       <c r="D4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E4" t="s">
         <v>35</v>
-      </c>
-      <c r="E4" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3230,15 +3230,15 @@
         <v>lang$ui(4)</v>
       </c>
       <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" t="s">
         <v>26</v>
-      </c>
-      <c r="E5" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3248,15 +3248,15 @@
         <v>lang$ui(5)</v>
       </c>
       <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
         <v>28</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3266,15 +3266,15 @@
         <v>lang$ui(6)</v>
       </c>
       <c r="D7" t="s">
+        <v>29</v>
+      </c>
+      <c r="E7" t="s">
         <v>30</v>
-      </c>
-      <c r="E7" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3284,15 +3284,15 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3302,15 +3302,15 @@
         <v>lang$ui(8)</v>
       </c>
       <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
         <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3320,15 +3320,15 @@
         <v>lang$ui(9)</v>
       </c>
       <c r="D10" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" t="s">
         <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3338,15 +3338,15 @@
         <v>lang$ui(10)</v>
       </c>
       <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11" t="s">
         <v>21</v>
-      </c>
-      <c r="E11" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3356,15 +3356,15 @@
         <v>lang$ui(11)</v>
       </c>
       <c r="D12" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" t="s">
         <v>40</v>
-      </c>
-      <c r="E12" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3374,15 +3374,15 @@
         <v>lang$ui(12)</v>
       </c>
       <c r="D13" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" t="s">
         <v>52</v>
-      </c>
-      <c r="E13" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3392,15 +3392,15 @@
         <v>lang$ui(13)</v>
       </c>
       <c r="D14" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" t="s">
         <v>42</v>
-      </c>
-      <c r="E14" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3410,15 +3410,15 @@
         <v>lang$ui(14)</v>
       </c>
       <c r="D15" t="s">
+        <v>43</v>
+      </c>
+      <c r="E15" t="s">
         <v>44</v>
-      </c>
-      <c r="E15" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3428,15 +3428,15 @@
         <v>lang$ui(15)</v>
       </c>
       <c r="D16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" t="s">
         <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3446,15 +3446,15 @@
         <v>lang$ui(16)</v>
       </c>
       <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
         <v>48</v>
-      </c>
-      <c r="E17" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3464,15 +3464,15 @@
         <v>lang$ui(17)</v>
       </c>
       <c r="D18" t="s">
+        <v>49</v>
+      </c>
+      <c r="E18" t="s">
         <v>50</v>
-      </c>
-      <c r="E18" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -3482,15 +3482,15 @@
         <v>lang$ui(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3500,15 +3500,15 @@
         <v>lang$ui(19)</v>
       </c>
       <c r="D20" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3518,15 +3518,15 @@
         <v>lang$ui(20)</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E21" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3536,15 +3536,15 @@
         <v>lang$ui(21)</v>
       </c>
       <c r="D22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3554,15 +3554,15 @@
         <v>lang$ui(22)</v>
       </c>
       <c r="D23" t="s">
+        <v>62</v>
+      </c>
+      <c r="E23" t="s">
         <v>63</v>
-      </c>
-      <c r="E23" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3572,15 +3572,15 @@
         <v>lang$ui(23)</v>
       </c>
       <c r="D24" t="s">
+        <v>66</v>
+      </c>
+      <c r="E24" t="s">
         <v>67</v>
-      </c>
-      <c r="E24" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3590,15 +3590,15 @@
         <v>lang$ui(24)</v>
       </c>
       <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" t="s">
         <v>65</v>
-      </c>
-      <c r="E25" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3608,15 +3608,15 @@
         <v>lang$ui(25)</v>
       </c>
       <c r="D26" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" t="s">
         <v>69</v>
-      </c>
-      <c r="E26" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3626,15 +3626,15 @@
         <v>lang$ui(26)</v>
       </c>
       <c r="D27" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" t="s">
         <v>71</v>
-      </c>
-      <c r="E27" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3644,15 +3644,15 @@
         <v>lang$ui(27)</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E28" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3662,15 +3662,15 @@
         <v>lang$ui(28)</v>
       </c>
       <c r="D29" t="s">
+        <v>73</v>
+      </c>
+      <c r="E29" t="s">
         <v>74</v>
-      </c>
-      <c r="E29" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3680,15 +3680,15 @@
         <v>lang$ui(29)</v>
       </c>
       <c r="D30" t="s">
+        <v>76</v>
+      </c>
+      <c r="E30" t="s">
         <v>77</v>
-      </c>
-      <c r="E30" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3698,15 +3698,15 @@
         <v>lang$ui(30)</v>
       </c>
       <c r="D31" t="s">
+        <v>78</v>
+      </c>
+      <c r="E31" t="s">
         <v>79</v>
-      </c>
-      <c r="E31" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3716,15 +3716,15 @@
         <v>lang$ui(31)</v>
       </c>
       <c r="D32" t="s">
+        <v>80</v>
+      </c>
+      <c r="E32" t="s">
         <v>81</v>
-      </c>
-      <c r="E32" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3734,15 +3734,15 @@
         <v>lang$ui(32)</v>
       </c>
       <c r="D33" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" t="s">
         <v>83</v>
-      </c>
-      <c r="E33" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3752,15 +3752,15 @@
         <v>lang$ui(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="E34" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3770,15 +3770,15 @@
         <v>lang$ui(34)</v>
       </c>
       <c r="D35" t="s">
+        <v>85</v>
+      </c>
+      <c r="E35" t="s">
         <v>86</v>
-      </c>
-      <c r="E35" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3788,15 +3788,15 @@
         <v>lang$ui(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E36" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3806,15 +3806,15 @@
         <v>lang$ui(36)</v>
       </c>
       <c r="D37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E37" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3824,15 +3824,15 @@
         <v>lang$ui(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E38" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3842,15 +3842,15 @@
         <v>lang$ui(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3860,15 +3860,15 @@
         <v>lang$ui(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E40" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3878,15 +3878,15 @@
         <v>lang$ui(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E41" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3896,15 +3896,15 @@
         <v>lang$ui(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E42" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3914,15 +3914,15 @@
         <v>lang$ui(42)</v>
       </c>
       <c r="D43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3932,15 +3932,15 @@
         <v>lang$ui(43)</v>
       </c>
       <c r="D44" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E44" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3950,15 +3950,15 @@
         <v>lang$ui(44)</v>
       </c>
       <c r="D45" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E45" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3968,15 +3968,15 @@
         <v>lang$ui(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E46" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -3986,15 +3986,15 @@
         <v>lang$ui(46)</v>
       </c>
       <c r="D47" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E47" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -4004,15 +4004,15 @@
         <v>lang$ui(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -4022,15 +4022,15 @@
         <v>lang$ui(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E49" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -4040,15 +4040,15 @@
         <v>lang$ui(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -4058,15 +4058,15 @@
         <v>lang$ui(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E51" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -4076,15 +4076,15 @@
         <v>lang$ui(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E52" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -4094,15 +4094,15 @@
         <v>lang$ui(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -4112,15 +4112,15 @@
         <v>lang$ui(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="E54" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -4130,15 +4130,15 @@
         <v>lang$ui(54)</v>
       </c>
       <c r="D55" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E55" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -4148,15 +4148,15 @@
         <v>lang$ui(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E56" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -4166,15 +4166,15 @@
         <v>lang$ui(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -4184,15 +4184,15 @@
         <v>lang$ui(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E58" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -4202,15 +4202,15 @@
         <v>lang$ui(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E59" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -4220,15 +4220,15 @@
         <v>lang$ui(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E60" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -4238,15 +4238,15 @@
         <v>lang$ui(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E61" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -4256,15 +4256,15 @@
         <v>lang$ui(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -4274,15 +4274,15 @@
         <v>lang$ui(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E63" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -4292,15 +4292,15 @@
         <v>lang$ui(63)</v>
       </c>
       <c r="D64" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E64" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -4310,15 +4310,15 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="E65" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -4328,15 +4328,15 @@
         <v>lang$ui(65)</v>
       </c>
       <c r="D66" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66" t="s">
         <v>146</v>
-      </c>
-      <c r="E66" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -4346,15 +4346,15 @@
         <v>lang$ui(66)</v>
       </c>
       <c r="D67" t="s">
+        <v>147</v>
+      </c>
+      <c r="E67" t="s">
         <v>148</v>
-      </c>
-      <c r="E67" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -4364,15 +4364,15 @@
         <v>lang$ui(67)</v>
       </c>
       <c r="D68" t="s">
+        <v>361</v>
+      </c>
+      <c r="E68" t="s">
         <v>362</v>
-      </c>
-      <c r="E68" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -4382,15 +4382,15 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="E69" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -4400,15 +4400,15 @@
         <v>lang$ui(69)</v>
       </c>
       <c r="D70" t="s">
+        <v>151</v>
+      </c>
+      <c r="E70" t="s">
         <v>152</v>
-      </c>
-      <c r="E70" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -4418,15 +4418,15 @@
         <v>lang$ui(70)</v>
       </c>
       <c r="D71" t="s">
+        <v>149</v>
+      </c>
+      <c r="E71" t="s">
         <v>150</v>
-      </c>
-      <c r="E71" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -4436,15 +4436,15 @@
         <v>lang$ui(71)</v>
       </c>
       <c r="D72" t="s">
+        <v>153</v>
+      </c>
+      <c r="E72" t="s">
         <v>154</v>
-      </c>
-      <c r="E72" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -4454,15 +4454,15 @@
         <v>lang$ui(72)</v>
       </c>
       <c r="D73" t="s">
+        <v>155</v>
+      </c>
+      <c r="E73" t="s">
         <v>156</v>
-      </c>
-      <c r="E73" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -4472,15 +4472,15 @@
         <v>lang$ui(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E74" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -4490,15 +4490,15 @@
         <v>lang$ui(74)</v>
       </c>
       <c r="D75" t="s">
+        <v>160</v>
+      </c>
+      <c r="E75" t="s">
         <v>161</v>
-      </c>
-      <c r="E75" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -4508,15 +4508,15 @@
         <v>lang$ui(75)</v>
       </c>
       <c r="D76" t="s">
+        <v>162</v>
+      </c>
+      <c r="E76" t="s">
         <v>163</v>
-      </c>
-      <c r="E76" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -4526,15 +4526,15 @@
         <v>lang$ui(76)</v>
       </c>
       <c r="D77" t="s">
+        <v>164</v>
+      </c>
+      <c r="E77" t="s">
         <v>165</v>
-      </c>
-      <c r="E77" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -4544,15 +4544,15 @@
         <v>lang$ui(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E78" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -4562,15 +4562,15 @@
         <v>lang$ui(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E79" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -4580,15 +4580,15 @@
         <v>lang$ui(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E80" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -4598,15 +4598,15 @@
         <v>lang$ui(80)</v>
       </c>
       <c r="D81" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E81" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -4616,15 +4616,15 @@
         <v>lang$ui(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="E82" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -4634,15 +4634,15 @@
         <v>lang$ui(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E83" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -4652,15 +4652,15 @@
         <v>lang$ui(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E84" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -4670,15 +4670,15 @@
         <v>lang$ui(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E85" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -4688,15 +4688,15 @@
         <v>lang$ui(85)</v>
       </c>
       <c r="D86" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E86" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -4706,15 +4706,15 @@
         <v>lang$ui(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E87" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -4724,15 +4724,15 @@
         <v>lang$ui(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E88" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -4742,15 +4742,15 @@
         <v>lang$ui(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E89" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -4760,15 +4760,15 @@
         <v>lang$ui(89)</v>
       </c>
       <c r="D90" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E90" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -4778,15 +4778,15 @@
         <v>lang$ui(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E91" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -4796,15 +4796,15 @@
         <v>lang$ui(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="E92" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -4814,15 +4814,15 @@
         <v>lang$ui(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E93" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -4832,15 +4832,15 @@
         <v>lang$ui(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E94" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -4850,15 +4850,15 @@
         <v>lang$ui(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E95" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -4868,15 +4868,15 @@
         <v>lang$ui(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E96" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -4886,15 +4886,15 @@
         <v>lang$ui(96)</v>
       </c>
       <c r="D97" t="s">
+        <v>209</v>
+      </c>
+      <c r="E97" t="s">
         <v>210</v>
-      </c>
-      <c r="E97" t="s">
-        <v>211</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -4904,15 +4904,15 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -4922,15 +4922,15 @@
         <v>lang$ui(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E99" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -4940,15 +4940,15 @@
         <v>lang$ui(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E100" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -4958,15 +4958,15 @@
         <v>lang$ui(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E101" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -4976,15 +4976,15 @@
         <v>lang$ui(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E102" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -4994,15 +4994,15 @@
         <v>lang$ui(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E103" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -5012,15 +5012,15 @@
         <v>lang$ui(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E104" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -5030,15 +5030,15 @@
         <v>lang$ui(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E105" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -5048,15 +5048,15 @@
         <v>lang$ui(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E106" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -5066,15 +5066,15 @@
         <v>lang$ui(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="E107" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -5084,15 +5084,15 @@
         <v>lang$ui(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E108" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -5102,15 +5102,15 @@
         <v>lang$ui(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E109" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -5120,15 +5120,15 @@
         <v>lang$ui(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E110" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -5138,15 +5138,15 @@
         <v>lang$ui(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E111" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -5156,15 +5156,15 @@
         <v>lang$ui(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E112" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -5174,15 +5174,15 @@
         <v>lang$ui(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E113" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -5192,15 +5192,15 @@
         <v>lang$ui(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E114" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -5210,15 +5210,15 @@
         <v>lang$ui(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E115" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -5228,15 +5228,15 @@
         <v>lang$ui(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E116" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -5246,15 +5246,15 @@
         <v>lang$ui(116)</v>
       </c>
       <c r="D117" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E117" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -5264,15 +5264,15 @@
         <v>lang$ui(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -5282,15 +5282,15 @@
         <v>lang$ui(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E119" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -5300,15 +5300,15 @@
         <v>lang$ui(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E120" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -5318,15 +5318,15 @@
         <v>lang$ui(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E121" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -5336,15 +5336,15 @@
         <v>lang$ui(121)</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -5354,15 +5354,15 @@
         <v>lang$ui(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E123" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -5372,15 +5372,15 @@
         <v>lang$ui(123)</v>
       </c>
       <c r="D124" t="s">
+        <v>255</v>
+      </c>
+      <c r="E124" t="s">
         <v>256</v>
-      </c>
-      <c r="E124" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -5390,15 +5390,15 @@
         <v>lang$ui(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E125" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -5408,15 +5408,15 @@
         <v>lang$ui(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E126" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -5426,15 +5426,15 @@
         <v>lang$ui(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E127" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -5444,15 +5444,15 @@
         <v>lang$ui(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E128" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -5462,15 +5462,15 @@
         <v>lang$ui(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E129" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -5480,15 +5480,15 @@
         <v>lang$ui(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E130" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -5498,15 +5498,15 @@
         <v>lang$ui(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E131" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -5516,15 +5516,15 @@
         <v>lang$ui(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E132" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -5534,15 +5534,15 @@
         <v>lang$ui(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E133" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -5552,15 +5552,15 @@
         <v>lang$ui(133)</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -5570,15 +5570,15 @@
         <v>lang$ui(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E135" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -5588,15 +5588,15 @@
         <v>lang$ui(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E136" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -5606,15 +5606,15 @@
         <v>lang$ui(136)</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E137" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -5624,15 +5624,15 @@
         <v>lang$ui(137)</v>
       </c>
       <c r="D138" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E138" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -5642,15 +5642,15 @@
         <v>lang$ui(138)</v>
       </c>
       <c r="D139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E139" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -5660,15 +5660,15 @@
         <v>lang$ui(139)</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E140" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -5678,15 +5678,15 @@
         <v>lang$ui(140)</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E141" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -5696,15 +5696,15 @@
         <v>lang$ui(141)</v>
       </c>
       <c r="D142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E142" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -5714,15 +5714,15 @@
         <v>lang$ui(142)</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E143" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -5732,15 +5732,15 @@
         <v>lang$ui(143)</v>
       </c>
       <c r="D144" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E144" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B145">
         <v>144</v>
@@ -5750,15 +5750,15 @@
         <v>lang$ui(144)</v>
       </c>
       <c r="D145" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="E145" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -5768,15 +5768,15 @@
         <v>lang$ui(145)</v>
       </c>
       <c r="D146" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E146" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -5786,15 +5786,15 @@
         <v>lang$ui(146)</v>
       </c>
       <c r="D147" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E147" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -5804,15 +5804,15 @@
         <v>lang$ui(147)</v>
       </c>
       <c r="D148" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E148" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B149">
         <v>148</v>
@@ -5822,15 +5822,15 @@
         <v>lang$ui(148)</v>
       </c>
       <c r="D149" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E149" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B150">
         <v>149</v>
@@ -5840,15 +5840,15 @@
         <v>lang$ui(149)</v>
       </c>
       <c r="D150" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E150" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -5858,15 +5858,15 @@
         <v>lang$ui(150)</v>
       </c>
       <c r="D151" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E151" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B152">
         <v>151</v>
@@ -5876,15 +5876,15 @@
         <v>lang$ui(151)</v>
       </c>
       <c r="D152" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E152" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B153">
         <v>152</v>
@@ -5894,15 +5894,15 @@
         <v>lang$ui(152)</v>
       </c>
       <c r="D153" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E153" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B154">
         <v>153</v>
@@ -5912,15 +5912,15 @@
         <v>lang$ui(153)</v>
       </c>
       <c r="D154" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E154" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B155">
         <v>154</v>
@@ -5930,15 +5930,15 @@
         <v>lang$ui(154)</v>
       </c>
       <c r="D155" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E155" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -5948,15 +5948,15 @@
         <v>lang$ui(155)</v>
       </c>
       <c r="D156" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E156" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B157">
         <v>156</v>
@@ -5966,15 +5966,15 @@
         <v>lang$ui(156)</v>
       </c>
       <c r="D157" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E157" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B158">
         <v>157</v>
@@ -5984,15 +5984,15 @@
         <v>lang$ui(157)</v>
       </c>
       <c r="D158" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="E158" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B159">
         <v>158</v>
@@ -6002,15 +6002,15 @@
         <v>lang$ui(158)</v>
       </c>
       <c r="D159" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E159" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B160">
         <v>159</v>
@@ -6020,15 +6020,15 @@
         <v>lang$ui(159)</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="E160" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B161">
         <v>160</v>
@@ -6038,15 +6038,15 @@
         <v>lang$ui(160)</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="E161" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B162">
         <v>161</v>
@@ -6056,15 +6056,15 @@
         <v>lang$ui(161)</v>
       </c>
       <c r="D162" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="E162" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B163">
         <v>162</v>
@@ -6074,15 +6074,15 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="E163" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -6092,15 +6092,15 @@
         <v>lang$ui(163)</v>
       </c>
       <c r="D164" t="s">
+        <v>626</v>
+      </c>
+      <c r="E164" t="s">
         <v>628</v>
-      </c>
-      <c r="E164" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B165">
         <v>164</v>
@@ -6110,15 +6110,15 @@
         <v>lang$ui(164)</v>
       </c>
       <c r="D165" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="E165" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B166">
         <v>165</v>
@@ -6128,15 +6128,15 @@
         <v>lang$ui(165)</v>
       </c>
       <c r="D166" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="E166" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B167">
         <v>166</v>
@@ -6146,15 +6146,15 @@
         <v>lang$ui(166)</v>
       </c>
       <c r="D167" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E167" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B168">
         <v>167</v>
@@ -6164,15 +6164,15 @@
         <v>lang$ui(167)</v>
       </c>
       <c r="D168" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E168" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B169">
         <v>168</v>
@@ -6182,15 +6182,15 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
+        <v>586</v>
+      </c>
+      <c r="E169" t="s">
         <v>588</v>
-      </c>
-      <c r="E169" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B170">
         <v>169</v>
@@ -6200,15 +6200,15 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
+        <v>587</v>
+      </c>
+      <c r="E170" t="s">
         <v>589</v>
-      </c>
-      <c r="E170" t="s">
-        <v>591</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B171">
         <v>170</v>
@@ -6218,15 +6218,15 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E171" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B172">
         <v>171</v>
@@ -6236,15 +6236,15 @@
         <v>lang$ui(171)</v>
       </c>
       <c r="D172" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="E172" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B173">
         <v>172</v>
@@ -6254,15 +6254,15 @@
         <v>lang$ui(172)</v>
       </c>
       <c r="D173" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="E173" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B174">
         <v>173</v>
@@ -6272,15 +6272,15 @@
         <v>lang$ui(173)</v>
       </c>
       <c r="D174" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="E174" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B175">
         <v>174</v>
@@ -6290,15 +6290,15 @@
         <v>lang$ui(174)</v>
       </c>
       <c r="D175" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="E175" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B176">
         <v>175</v>
@@ -6308,15 +6308,15 @@
         <v>lang$ui(175)</v>
       </c>
       <c r="D176" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="E176" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B177">
         <v>176</v>
@@ -6326,15 +6326,15 @@
         <v>lang$ui(176)</v>
       </c>
       <c r="D177" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="E177" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B178">
         <v>177</v>
@@ -6344,10 +6344,10 @@
         <v>lang$ui(177)</v>
       </c>
       <c r="D178" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="E178" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
     </row>
   </sheetData>
@@ -6359,8 +6359,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496328DD-5C8E-3D45-AB81-313F176488D7}">
   <dimension ref="A1:E137"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6372,13 +6372,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6389,7 +6389,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6399,10 +6399,10 @@
         <v>lang$server(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="E2" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6434,7 +6434,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6444,15 +6444,15 @@
         <v>lang$server(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6462,15 +6462,15 @@
         <v>lang$server(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6480,15 +6480,15 @@
         <v>lang$server(7)</v>
       </c>
       <c r="D8" t="s">
+        <v>342</v>
+      </c>
+      <c r="E8" t="s">
         <v>343</v>
-      </c>
-      <c r="E8" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -6498,15 +6498,15 @@
         <v>lang$server(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -6516,15 +6516,15 @@
         <v>lang$server(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -6534,15 +6534,15 @@
         <v>lang$server(10)</v>
       </c>
       <c r="D11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E11" t="s">
         <v>351</v>
-      </c>
-      <c r="E11" t="s">
-        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -6552,15 +6552,15 @@
         <v>lang$server(11)</v>
       </c>
       <c r="D12" t="s">
+        <v>353</v>
+      </c>
+      <c r="E12" t="s">
         <v>354</v>
-      </c>
-      <c r="E12" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -6570,15 +6570,15 @@
         <v>lang$server(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -6588,15 +6588,15 @@
         <v>lang$server(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -6606,15 +6606,15 @@
         <v>lang$server(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -6624,15 +6624,15 @@
         <v>lang$server(15)</v>
       </c>
       <c r="D16" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -6642,15 +6642,15 @@
         <v>lang$server(16)</v>
       </c>
       <c r="D17" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E17" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -6660,15 +6660,15 @@
         <v>lang$server(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E18" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -6678,15 +6678,15 @@
         <v>lang$server(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E19" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -6696,15 +6696,15 @@
         <v>lang$server(19)</v>
       </c>
       <c r="D20" t="s">
+        <v>371</v>
+      </c>
+      <c r="E20" t="s">
         <v>372</v>
-      </c>
-      <c r="E20" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -6714,15 +6714,15 @@
         <v>lang$server(20)</v>
       </c>
       <c r="D21" t="s">
+        <v>373</v>
+      </c>
+      <c r="E21" t="s">
         <v>374</v>
-      </c>
-      <c r="E21" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -6732,15 +6732,15 @@
         <v>lang$server(21)</v>
       </c>
       <c r="D22" t="s">
+        <v>375</v>
+      </c>
+      <c r="E22" t="s">
         <v>376</v>
-      </c>
-      <c r="E22" t="s">
-        <v>377</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -6750,15 +6750,15 @@
         <v>lang$server(22)</v>
       </c>
       <c r="D23" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="E23" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -6768,15 +6768,15 @@
         <v>lang$server(23)</v>
       </c>
       <c r="D24" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -6786,15 +6786,15 @@
         <v>lang$server(24)</v>
       </c>
       <c r="D25" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E25" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -6804,15 +6804,15 @@
         <v>lang$server(25)</v>
       </c>
       <c r="D26" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E26" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -6822,15 +6822,15 @@
         <v>lang$server(26)</v>
       </c>
       <c r="D27" t="s">
+        <v>383</v>
+      </c>
+      <c r="E27" t="s">
         <v>384</v>
-      </c>
-      <c r="E27" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -6840,15 +6840,15 @@
         <v>lang$server(27)</v>
       </c>
       <c r="D28" t="s">
+        <v>385</v>
+      </c>
+      <c r="E28" t="s">
         <v>386</v>
-      </c>
-      <c r="E28" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -6858,15 +6858,15 @@
         <v>lang$server(28)</v>
       </c>
       <c r="D29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E29" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -6876,15 +6876,15 @@
         <v>lang$server(29)</v>
       </c>
       <c r="D30" t="s">
+        <v>391</v>
+      </c>
+      <c r="E30" t="s">
         <v>392</v>
-      </c>
-      <c r="E30" t="s">
-        <v>393</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -6894,15 +6894,15 @@
         <v>lang$server(30)</v>
       </c>
       <c r="D31" t="s">
+        <v>393</v>
+      </c>
+      <c r="E31" t="s">
         <v>394</v>
-      </c>
-      <c r="E31" t="s">
-        <v>395</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -6912,15 +6912,15 @@
         <v>lang$server(31)</v>
       </c>
       <c r="D32" t="s">
+        <v>396</v>
+      </c>
+      <c r="E32" t="s">
         <v>397</v>
-      </c>
-      <c r="E32" t="s">
-        <v>398</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -6930,15 +6930,15 @@
         <v>lang$server(32)</v>
       </c>
       <c r="D33" t="s">
+        <v>398</v>
+      </c>
+      <c r="E33" t="s">
         <v>399</v>
-      </c>
-      <c r="E33" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -6948,15 +6948,15 @@
         <v>lang$server(33)</v>
       </c>
       <c r="D34" t="s">
+        <v>400</v>
+      </c>
+      <c r="E34" t="s">
         <v>401</v>
-      </c>
-      <c r="E34" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -6966,15 +6966,15 @@
         <v>lang$server(34)</v>
       </c>
       <c r="D35" t="s">
+        <v>402</v>
+      </c>
+      <c r="E35" t="s">
         <v>403</v>
-      </c>
-      <c r="E35" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -6984,15 +6984,15 @@
         <v>lang$server(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="E36" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7002,15 +7002,15 @@
         <v>lang$server(36)</v>
       </c>
       <c r="D37" t="s">
+        <v>407</v>
+      </c>
+      <c r="E37" t="s">
         <v>408</v>
-      </c>
-      <c r="E37" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -7020,15 +7020,15 @@
         <v>lang$server(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E38" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -7038,15 +7038,15 @@
         <v>lang$server(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E39" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -7056,15 +7056,15 @@
         <v>lang$server(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E40" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -7074,15 +7074,15 @@
         <v>lang$server(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -7092,15 +7092,15 @@
         <v>lang$server(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -7110,15 +7110,15 @@
         <v>lang$server(42)</v>
       </c>
       <c r="D43" t="s">
+        <v>417</v>
+      </c>
+      <c r="E43" t="s">
         <v>418</v>
-      </c>
-      <c r="E43" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7128,15 +7128,15 @@
         <v>lang$server(43)</v>
       </c>
       <c r="D44" t="s">
+        <v>419</v>
+      </c>
+      <c r="E44" t="s">
         <v>420</v>
-      </c>
-      <c r="E44" t="s">
-        <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -7146,15 +7146,15 @@
         <v>lang$server(44)</v>
       </c>
       <c r="D45" t="s">
+        <v>421</v>
+      </c>
+      <c r="E45" t="s">
         <v>422</v>
-      </c>
-      <c r="E45" t="s">
-        <v>423</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -7164,15 +7164,15 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="E46" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -7182,15 +7182,15 @@
         <v>lang$server(46)</v>
       </c>
       <c r="D47" t="s">
+        <v>424</v>
+      </c>
+      <c r="E47" t="s">
         <v>425</v>
-      </c>
-      <c r="E47" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -7200,15 +7200,15 @@
         <v>lang$server(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E48" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -7218,15 +7218,15 @@
         <v>lang$server(48)</v>
       </c>
       <c r="D49" t="s">
+        <v>427</v>
+      </c>
+      <c r="E49" t="s">
         <v>428</v>
-      </c>
-      <c r="E49" t="s">
-        <v>429</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -7236,15 +7236,15 @@
         <v>lang$server(49)</v>
       </c>
       <c r="D50" t="s">
+        <v>429</v>
+      </c>
+      <c r="E50" t="s">
         <v>430</v>
-      </c>
-      <c r="E50" t="s">
-        <v>431</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -7254,15 +7254,15 @@
         <v>lang$server(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E51" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -7272,15 +7272,15 @@
         <v>lang$server(51)</v>
       </c>
       <c r="D52" t="s">
+        <v>433</v>
+      </c>
+      <c r="E52" t="s">
         <v>434</v>
-      </c>
-      <c r="E52" t="s">
-        <v>435</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -7290,15 +7290,15 @@
         <v>lang$server(52)</v>
       </c>
       <c r="D53" t="s">
+        <v>435</v>
+      </c>
+      <c r="E53" t="s">
         <v>436</v>
-      </c>
-      <c r="E53" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -7308,15 +7308,15 @@
         <v>lang$server(53)</v>
       </c>
       <c r="D54" t="s">
+        <v>437</v>
+      </c>
+      <c r="E54" t="s">
         <v>438</v>
-      </c>
-      <c r="E54" t="s">
-        <v>439</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -7326,15 +7326,15 @@
         <v>lang$server(54)</v>
       </c>
       <c r="D55" t="s">
+        <v>149</v>
+      </c>
+      <c r="E55" t="s">
         <v>150</v>
-      </c>
-      <c r="E55" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -7344,15 +7344,15 @@
         <v>lang$server(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E56" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -7362,15 +7362,15 @@
         <v>lang$server(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E57" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -7380,15 +7380,15 @@
         <v>lang$server(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E58" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -7398,15 +7398,15 @@
         <v>lang$server(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E59" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -7416,15 +7416,15 @@
         <v>lang$server(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E60" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -7434,15 +7434,15 @@
         <v>lang$server(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E61" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -7452,15 +7452,15 @@
         <v>lang$server(61)</v>
       </c>
       <c r="D62" t="s">
+        <v>454</v>
+      </c>
+      <c r="E62" t="s">
         <v>455</v>
-      </c>
-      <c r="E62" t="s">
-        <v>456</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -7470,15 +7470,15 @@
         <v>lang$server(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E63" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -7488,15 +7488,15 @@
         <v>lang$server(63)</v>
       </c>
       <c r="D64" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E64" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -7506,15 +7506,15 @@
         <v>lang$server(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E65" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -7524,15 +7524,15 @@
         <v>lang$server(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E66" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -7542,15 +7542,15 @@
         <v>lang$server(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E67" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -7560,15 +7560,15 @@
         <v>lang$server(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E68" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -7578,15 +7578,15 @@
         <v>lang$server(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E69" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -7596,15 +7596,15 @@
         <v>lang$server(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E70" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -7614,15 +7614,15 @@
         <v>lang$server(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E71" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -7632,15 +7632,15 @@
         <v>lang$server(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E72" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -7650,15 +7650,15 @@
         <v>lang$server(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="E73" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -7668,15 +7668,15 @@
         <v>lang$server(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="E74" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7686,15 +7686,15 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="E75" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -7704,15 +7704,15 @@
         <v>lang$server(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E76" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7722,15 +7722,15 @@
         <v>lang$server(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E77" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7740,15 +7740,15 @@
         <v>lang$server(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="E78" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7758,15 +7758,15 @@
         <v>lang$server(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="E79" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7776,15 +7776,15 @@
         <v>lang$server(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="E80" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7794,15 +7794,15 @@
         <v>lang$server(80)</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -7812,15 +7812,15 @@
         <v>lang$server(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="E82" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -7830,15 +7830,15 @@
         <v>lang$server(82)</v>
       </c>
       <c r="D83" t="s">
+        <v>491</v>
+      </c>
+      <c r="E83" t="s">
         <v>492</v>
-      </c>
-      <c r="E83" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -7848,15 +7848,15 @@
         <v>lang$server(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="E84" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -7866,15 +7866,15 @@
         <v>lang$server(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="E85" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7884,15 +7884,15 @@
         <v>lang$server(85)</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -7902,15 +7902,15 @@
         <v>lang$server(86)</v>
       </c>
       <c r="D87" t="s">
+        <v>496</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>497</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>498</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -7920,15 +7920,15 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="E88" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -7938,15 +7938,15 @@
         <v>lang$server(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E89" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -7956,15 +7956,15 @@
         <v>lang$server(89)</v>
       </c>
       <c r="D90" t="s">
+        <v>502</v>
+      </c>
+      <c r="E90" t="s">
         <v>503</v>
-      </c>
-      <c r="E90" t="s">
-        <v>504</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7974,15 +7974,15 @@
         <v>lang$server(90)</v>
       </c>
       <c r="D91" t="s">
+        <v>504</v>
+      </c>
+      <c r="E91" t="s">
         <v>505</v>
-      </c>
-      <c r="E91" t="s">
-        <v>506</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -7992,15 +7992,15 @@
         <v>lang$server(91)</v>
       </c>
       <c r="D92" t="s">
+        <v>507</v>
+      </c>
+      <c r="E92" t="s">
         <v>508</v>
-      </c>
-      <c r="E92" t="s">
-        <v>509</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -8010,15 +8010,15 @@
         <v>lang$server(92)</v>
       </c>
       <c r="D93" t="s">
+        <v>509</v>
+      </c>
+      <c r="E93" t="s">
         <v>510</v>
-      </c>
-      <c r="E93" t="s">
-        <v>511</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -8028,15 +8028,15 @@
         <v>lang$server(93)</v>
       </c>
       <c r="D94" t="s">
+        <v>511</v>
+      </c>
+      <c r="E94" t="s">
         <v>512</v>
-      </c>
-      <c r="E94" t="s">
-        <v>513</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -8046,15 +8046,15 @@
         <v>lang$server(94)</v>
       </c>
       <c r="D95" t="s">
+        <v>513</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>515</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -8064,15 +8064,15 @@
         <v>lang$server(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="E96" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -8082,15 +8082,15 @@
         <v>lang$server(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -8100,15 +8100,15 @@
         <v>lang$server(97)</v>
       </c>
       <c r="D98" t="s">
+        <v>519</v>
+      </c>
+      <c r="E98" t="s">
         <v>520</v>
-      </c>
-      <c r="E98" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -8118,15 +8118,15 @@
         <v>lang$server(98)</v>
       </c>
       <c r="D99" t="s">
+        <v>521</v>
+      </c>
+      <c r="E99" t="s">
         <v>522</v>
-      </c>
-      <c r="E99" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -8136,15 +8136,15 @@
         <v>lang$server(99)</v>
       </c>
       <c r="D100" t="s">
+        <v>523</v>
+      </c>
+      <c r="E100" t="s">
         <v>524</v>
-      </c>
-      <c r="E100" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -8154,15 +8154,15 @@
         <v>lang$server(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E101" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -8172,15 +8172,15 @@
         <v>lang$server(101)</v>
       </c>
       <c r="D102" t="s">
+        <v>526</v>
+      </c>
+      <c r="E102" t="s">
         <v>527</v>
-      </c>
-      <c r="E102" t="s">
-        <v>528</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -8190,15 +8190,15 @@
         <v>lang$server(102)</v>
       </c>
       <c r="D103" t="s">
+        <v>528</v>
+      </c>
+      <c r="E103" t="s">
         <v>529</v>
-      </c>
-      <c r="E103" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -8208,15 +8208,15 @@
         <v>lang$server(103)</v>
       </c>
       <c r="D104" t="s">
+        <v>530</v>
+      </c>
+      <c r="E104" t="s">
         <v>531</v>
-      </c>
-      <c r="E104" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -8226,15 +8226,15 @@
         <v>lang$server(104)</v>
       </c>
       <c r="D105" t="s">
+        <v>532</v>
+      </c>
+      <c r="E105" t="s">
         <v>533</v>
-      </c>
-      <c r="E105" t="s">
-        <v>534</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -8244,15 +8244,15 @@
         <v>lang$server(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E106" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -8262,15 +8262,15 @@
         <v>lang$server(106)</v>
       </c>
       <c r="D107" t="s">
+        <v>535</v>
+      </c>
+      <c r="E107" t="s">
         <v>536</v>
-      </c>
-      <c r="E107" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -8280,15 +8280,15 @@
         <v>lang$server(107)</v>
       </c>
       <c r="D108" t="s">
+        <v>537</v>
+      </c>
+      <c r="E108" t="s">
         <v>538</v>
-      </c>
-      <c r="E108" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -8298,15 +8298,15 @@
         <v>lang$server(108)</v>
       </c>
       <c r="D109" t="s">
+        <v>539</v>
+      </c>
+      <c r="E109" t="s">
         <v>540</v>
-      </c>
-      <c r="E109" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -8316,15 +8316,15 @@
         <v>lang$server(109)</v>
       </c>
       <c r="D110" t="s">
+        <v>541</v>
+      </c>
+      <c r="E110" t="s">
         <v>542</v>
-      </c>
-      <c r="E110" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -8334,15 +8334,15 @@
         <v>lang$server(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E111" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -8352,15 +8352,15 @@
         <v>lang$server(111)</v>
       </c>
       <c r="D112" t="s">
+        <v>547</v>
+      </c>
+      <c r="E112" t="s">
         <v>548</v>
-      </c>
-      <c r="E112" t="s">
-        <v>549</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -8370,15 +8370,15 @@
         <v>lang$server(112)</v>
       </c>
       <c r="D113" t="s">
+        <v>549</v>
+      </c>
+      <c r="E113" t="s">
         <v>550</v>
-      </c>
-      <c r="E113" t="s">
-        <v>551</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -8388,15 +8388,15 @@
         <v>lang$server(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E114" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -8406,15 +8406,15 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="E115" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -8424,15 +8424,15 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
+        <v>552</v>
+      </c>
+      <c r="E116" t="s">
         <v>553</v>
-      </c>
-      <c r="E116" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -8442,15 +8442,15 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>554</v>
+      </c>
+      <c r="E117" t="s">
         <v>555</v>
-      </c>
-      <c r="E117" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -8460,15 +8460,15 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
+        <v>556</v>
+      </c>
+      <c r="E118" t="s">
         <v>557</v>
-      </c>
-      <c r="E118" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -8478,15 +8478,15 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
+        <v>558</v>
+      </c>
+      <c r="E119" t="s">
         <v>559</v>
-      </c>
-      <c r="E119" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -8496,15 +8496,15 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
+        <v>560</v>
+      </c>
+      <c r="E120" t="s">
         <v>561</v>
-      </c>
-      <c r="E120" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -8514,15 +8514,15 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E121" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -8532,15 +8532,15 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E122" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -8550,15 +8550,15 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E123" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -8568,15 +8568,15 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E124" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -8586,15 +8586,15 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="E125" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -8604,15 +8604,15 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
+        <v>572</v>
+      </c>
+      <c r="E126" t="s">
         <v>573</v>
-      </c>
-      <c r="E126" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -8622,15 +8622,15 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="E127" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -8640,15 +8640,15 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="E128" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -8658,15 +8658,15 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="E129" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -8676,15 +8676,15 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
+        <v>580</v>
+      </c>
+      <c r="E130" t="s">
         <v>581</v>
-      </c>
-      <c r="E130" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -8694,15 +8694,15 @@
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="E131" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -8712,15 +8712,15 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
+        <v>593</v>
+      </c>
+      <c r="E132" t="s">
         <v>595</v>
-      </c>
-      <c r="E132" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -8730,15 +8730,15 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
+        <v>594</v>
+      </c>
+      <c r="E133" t="s">
         <v>596</v>
-      </c>
-      <c r="E133" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -8748,15 +8748,15 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="E134" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -8766,15 +8766,15 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="E135" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -8784,15 +8784,15 @@
         <v>lang$server(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="E136" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -8802,10 +8802,10 @@
         <v>lang$server(136)</v>
       </c>
       <c r="D137" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="E137" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A10245A7-4585-4D4A-A0F0-1A299F3E8B7E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF23DA9-EC32-6346-A069-FF67DA0F2B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14540" yWindow="3740" windowWidth="29280" windowHeight="21840" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="1280" yWindow="2980" windowWidth="29280" windowHeight="21840" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="987" uniqueCount="659">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="666">
   <si>
     <t>Deutsch</t>
   </si>
@@ -49,30 +49,9 @@
     <t>melanopisch</t>
   </si>
   <si>
-    <t>erythropisch</t>
-  </si>
-  <si>
-    <t>chloropisch</t>
-  </si>
-  <si>
-    <t>cyanopisch</t>
-  </si>
-  <si>
     <t>rhodopisch</t>
   </si>
   <si>
-    <t>Erythropische Bewertung (long wavelength cone)</t>
-  </si>
-  <si>
-    <t>Chloropische Bewertung (medium wavelength cone)</t>
-  </si>
-  <si>
-    <t>Cyanopische Bewertung (short wavelength cone)</t>
-  </si>
-  <si>
-    <t>Rhodopische Bewertung</t>
-  </si>
-  <si>
     <t>Ort</t>
   </si>
   <si>
@@ -85,15 +64,6 @@
     <t>melanopic</t>
   </si>
   <si>
-    <t>erythropic</t>
-  </si>
-  <si>
-    <t>chloropic</t>
-  </si>
-  <si>
-    <t>cyanopic</t>
-  </si>
-  <si>
     <t>rhodopic</t>
   </si>
   <si>
@@ -694,9 +664,6 @@
     <t>zunehmende Dichte und Trübung der optischen Medien ('prärezeptorale Filterung')</t>
   </si>
   <si>
-    <t xml:space="preserve">entnommen und ist konform mit der </t>
-  </si>
-  <si>
     <t>. Die adaptiven Fähigkeiten der Netzhaut und des Gehirns, die altersabhängig verringerten Strahlungsmengen zu kompensieren, sind nach wie vor Gegenstand der Forschung. Daher sollten die im aktuellen Abschnitt gemachten Angaben angemessen betrachtet und abgewogen werden.</t>
   </si>
   <si>
@@ -745,9 +712,6 @@
     <t>progressive density and clouding of the optical media ('pre-receptoral filtering').</t>
   </si>
   <si>
-    <t xml:space="preserve">and are in accordance to the </t>
-  </si>
-  <si>
     <t xml:space="preserve">. Adaptive properties of the eye and brain to compensate for the age-dependent reduction in irradiation are a subject of current research. Thus, the correction factors in this section should be taken with a grain of salt. </t>
   </si>
   <si>
@@ -1003,9 +967,6 @@
     <t xml:space="preserve">, sowie der </t>
   </si>
   <si>
-    <t>. Die Korrektheit der meisten Berechnungsergebnisse wurde im Vergleich mit anderen, validierten Tools geprüft. Die Ergebnisse hierzu können Sie im folgenden Abschnitt nachlesen.</t>
-  </si>
-  <si>
     <t>Impressum</t>
   </si>
   <si>
@@ -1024,9 +985,6 @@
     <t xml:space="preserve"> and the </t>
   </si>
   <si>
-    <t>. The correctness of most calculations was compared to results from validated tools. The result of this comparison is shown in this section.</t>
-  </si>
-  <si>
     <t>About</t>
   </si>
   <si>
@@ -1465,9 +1423,6 @@
     <t>e Bewertung erfolgt gemäß der</t>
   </si>
   <si>
-    <t>und gilt für einen 32-jährigen Referenzbeobachter. Die Bewertung ist konform mit der</t>
-  </si>
-  <si>
     <t xml:space="preserve">beeinträchtigt die Menge und Zusammensetzung der auf die Netzhaut einfallenden Strahlung. Beiden Einflussgrößen können abhängig des Lebensalters abgeschätzt werden - dies erfolgt in diesem Abschnitt. Als Referenz wird ein 32-jähriger Referenzbeobachter bestimmt. Das hier angewandte Vorgehen wurde der </t>
   </si>
   <si>
@@ -1546,12 +1501,6 @@
     <t>Die altersabhängige Bewertung erfolgt gemäß der</t>
   </si>
   <si>
-    <t>Die Bewertung ist konform mit der</t>
-  </si>
-  <si>
-    <t>The evaluation is further compliant with the</t>
-  </si>
-  <si>
     <t>Altersabhängige Bewertung der Pupillengröße</t>
   </si>
   <si>
@@ -1672,9 +1621,6 @@
     <t>&amp;alpha;-opische Bewertung</t>
   </si>
   <si>
-    <t xml:space="preserve">for a 32-yr old reference observer is used. Further, the weighing is compliant with the </t>
-  </si>
-  <si>
     <t>&amp;alpha;-opic evaluation</t>
   </si>
   <si>
@@ -1786,15 +1732,6 @@
     <t>Comparison</t>
   </si>
   <si>
-    <t>Erythropic evaluation (long wavelength cone)</t>
-  </si>
-  <si>
-    <t>Chloropic evaluation (medium wavelength cone)</t>
-  </si>
-  <si>
-    <t>Cyanopic evaluation (short wavelength cone)</t>
-  </si>
-  <si>
     <t xml:space="preserve"> aber verwenden? Schicken Sie dem </t>
   </si>
   <si>
@@ -1858,9 +1795,6 @@
     <t>CIE Standard Illuminant</t>
   </si>
   <si>
-    <t>Rhodopic evaluation (scotopic vision)</t>
-  </si>
-  <si>
     <t>Wavelength with the highest spectral value (or the mean, if there are several)</t>
   </si>
   <si>
@@ -1876,12 +1810,6 @@
     <t>rel. Transmissionsgrad (gegenüber 32-j.)</t>
   </si>
   <si>
-    <t>Das Spektrum, welches Sie herunterladen möchten, stammt aus CIE Standardwerken (CIE 015:2018, ISO 11664-2:2007/CIE S 014-2:2006, und ISO/CIE 11664-2:2022). Mit Klick auf den Downloadbutton bestätigen Sie, dass Ihnen die jeweilige offizielle Quelle zur Verfügung steht.</t>
-  </si>
-  <si>
-    <t>The spectrum you want to download comes from CIE Standards (CIE 015:2018, ISO 11664-2:2007/CIE S 014-2:2006, and ISO/CIE 11664-2:2022). When you click Download, you pledge that you have official access to the respective Source.</t>
-  </si>
-  <si>
     <t>If you need a tutorial on how to use the program, please watch the video down below.</t>
   </si>
   <si>
@@ -2015,6 +1943,99 @@
   </si>
   <si>
     <t>Melanopische Bewertung (s&lt;sub&gt;mel&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>und gilt für einen 32-jährigen Referenzbeobachter.</t>
+  </si>
+  <si>
+    <t>for a 32-yr old reference observer is used.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(transmission: complete formula, eq. 20, pupil: eq. 25). Considering age-dependent changes in transmission is in accordance to the </t>
+  </si>
+  <si>
+    <t xml:space="preserve">entnommen (Transmission: vollständige Formel eq. 20, Pupille: eq. 25). Das Vorgehen bei der Transmission ist konform mit der </t>
+  </si>
+  <si>
+    <t>R&lt;sub&gt;a&lt;/sub&gt;</t>
+  </si>
+  <si>
+    <t>CRI</t>
+  </si>
+  <si>
+    <t>R_a</t>
+  </si>
+  <si>
+    <t>L-cone-opic</t>
+  </si>
+  <si>
+    <t>M-cone-opic</t>
+  </si>
+  <si>
+    <t>S-cone-opic</t>
+  </si>
+  <si>
+    <t>L-cone-opisch</t>
+  </si>
+  <si>
+    <t>M-cone-opisch</t>
+  </si>
+  <si>
+    <t>S-cone-opisch</t>
+  </si>
+  <si>
+    <t>Scaling</t>
+  </si>
+  <si>
+    <t>Skalierung</t>
+  </si>
+  <si>
+    <t>Eigener Wert</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Welche Werte liegen Spectran zugrunde?</t>
+  </si>
+  <si>
+    <t>What data does Spectran use?</t>
+  </si>
+  <si>
+    <t>The correctness of most calculations was compared to results from validated tools. The result of this comparison is shown in this section.</t>
+  </si>
+  <si>
+    <t>Die Korrektheit der meisten Berechnungsergebnisse wurde im Vergleich mit anderen, validierten Tools geprüft. Die Ergebnisse hierzu können Sie im folgenden Abschnitt nachlesen.</t>
+  </si>
+  <si>
+    <t>The CIE publishes standart illuminants for free online since 2023. Spectra included in Spectran were collected prior and might deviate from current versions.</t>
+  </si>
+  <si>
+    <t>Die CIE veröffentlicht seit 2023 online kostenlos Referenz-Lichtarten. Die hier eingepflegten Spektren wurden vor diesem Zeitpunkt zusammengetragen und weichen ggf. von aktuellen Veröffentlichungen ab.</t>
+  </si>
+  <si>
+    <t>L-cone-opische Bewertung (long wavelength cone, s&lt;sub&gt;lc&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>L-cone-opic evaluation (long wavelength cone, s&lt;sub&gt;lc&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>M-cone-opische Bewertung (medium wavelength cone, s&lt;sub&gt;mc&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>M-cone-opic evaluation (medium wavelength cone, s&lt;sub&gt;mc&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>S-cone-opische Bewertung (short wavelength cone, s&lt;sub&gt;sc&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>S-cone-opic evaluation (short wavelength cone, s&lt;sub&gt;mc&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>Rhodopische Bewertung (s&lt;sub&gt;rh&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>Rhodopic evaluation (scotopic vision, s&lt;sub&gt;rh&lt;/sub&gt;)</t>
   </si>
 </sst>
 </file>
@@ -2382,7 +2403,7 @@
   <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2396,13 +2417,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2413,7 +2434,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2426,12 +2447,12 @@
         <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -2441,15 +2462,15 @@
         <v>lang$global(2)</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>645</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>642</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -2459,15 +2480,15 @@
         <v>lang$global(3)</v>
       </c>
       <c r="D4" t="s">
-        <v>4</v>
+        <v>646</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -2477,15 +2498,15 @@
         <v>lang$global(4)</v>
       </c>
       <c r="D5" t="s">
-        <v>5</v>
+        <v>647</v>
       </c>
       <c r="E5" t="s">
-        <v>17</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -2495,15 +2516,15 @@
         <v>lang$global(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -2513,15 +2534,15 @@
         <v>lang$global(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="E7" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -2531,15 +2552,15 @@
         <v>lang$global(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>658</v>
       </c>
       <c r="E8" t="s">
-        <v>582</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -2549,15 +2570,15 @@
         <v>lang$global(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>660</v>
       </c>
       <c r="E9" t="s">
-        <v>583</v>
+        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -2567,15 +2588,15 @@
         <v>lang$global(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>662</v>
       </c>
       <c r="E10" t="s">
-        <v>584</v>
+        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -2585,15 +2606,15 @@
         <v>lang$global(10)</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>664</v>
       </c>
       <c r="E11" t="s">
-        <v>606</v>
+        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2603,15 +2624,15 @@
         <v>lang$global(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>599</v>
+        <v>578</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2621,15 +2642,15 @@
         <v>lang$global(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
       <c r="E13" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2639,15 +2660,15 @@
         <v>lang$global(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="E14" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2657,10 +2678,10 @@
         <v>lang$global(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="E15" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3132,10 +3153,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
-  <dimension ref="A1:E178"/>
+  <dimension ref="A1:E182"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="D65" sqref="D65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3149,13 +3170,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3166,7 +3187,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -3176,15 +3197,15 @@
         <v>lang$ui(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -3194,15 +3215,15 @@
         <v>lang$ui(2)</v>
       </c>
       <c r="D3" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -3212,15 +3233,15 @@
         <v>lang$ui(3)</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="E4" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -3230,15 +3251,15 @@
         <v>lang$ui(4)</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -3248,15 +3269,15 @@
         <v>lang$ui(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E6" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -3266,15 +3287,15 @@
         <v>lang$ui(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -3284,15 +3305,15 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>585</v>
+        <v>564</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>21</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -3302,15 +3323,15 @@
         <v>lang$ui(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -3320,15 +3341,15 @@
         <v>lang$ui(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -3338,15 +3359,15 @@
         <v>lang$ui(10)</v>
       </c>
       <c r="D11" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -3356,15 +3377,15 @@
         <v>lang$ui(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -3374,15 +3395,15 @@
         <v>lang$ui(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="E13" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -3392,15 +3413,15 @@
         <v>lang$ui(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>41</v>
+        <v>31</v>
       </c>
       <c r="E14" t="s">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -3410,15 +3431,15 @@
         <v>lang$ui(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>43</v>
+        <v>33</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -3428,15 +3449,15 @@
         <v>lang$ui(15)</v>
       </c>
       <c r="D16" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="E16" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -3446,15 +3467,15 @@
         <v>lang$ui(16)</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="E17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -3464,15 +3485,15 @@
         <v>lang$ui(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -3482,15 +3503,15 @@
         <v>lang$ui(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E19" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3500,15 +3521,15 @@
         <v>lang$ui(19)</v>
       </c>
       <c r="D20" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E20" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3518,15 +3539,15 @@
         <v>lang$ui(20)</v>
       </c>
       <c r="D21" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="E21" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3536,15 +3557,15 @@
         <v>lang$ui(21)</v>
       </c>
       <c r="D22" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E22" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3554,15 +3575,15 @@
         <v>lang$ui(22)</v>
       </c>
       <c r="D23" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E23" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3572,15 +3593,15 @@
         <v>lang$ui(23)</v>
       </c>
       <c r="D24" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E24" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3590,15 +3611,15 @@
         <v>lang$ui(24)</v>
       </c>
       <c r="D25" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E25" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3608,15 +3629,15 @@
         <v>lang$ui(25)</v>
       </c>
       <c r="D26" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="E26" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3626,15 +3647,15 @@
         <v>lang$ui(26)</v>
       </c>
       <c r="D27" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E27" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3644,15 +3665,15 @@
         <v>lang$ui(27)</v>
       </c>
       <c r="D28" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E28" t="s">
-        <v>464</v>
+        <v>450</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3662,15 +3683,15 @@
         <v>lang$ui(28)</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3680,15 +3701,15 @@
         <v>lang$ui(29)</v>
       </c>
       <c r="D30" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E30" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3698,15 +3719,15 @@
         <v>lang$ui(30)</v>
       </c>
       <c r="D31" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="E31" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3716,15 +3737,15 @@
         <v>lang$ui(31)</v>
       </c>
       <c r="D32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="E32" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3734,15 +3755,15 @@
         <v>lang$ui(32)</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="E33" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3752,15 +3773,15 @@
         <v>lang$ui(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="E34" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3770,15 +3791,15 @@
         <v>lang$ui(34)</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>75</v>
       </c>
       <c r="E35" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3788,15 +3809,15 @@
         <v>lang$ui(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="E36" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3806,15 +3827,15 @@
         <v>lang$ui(36)</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="E37" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3824,15 +3845,15 @@
         <v>lang$ui(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="E38" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3842,15 +3863,15 @@
         <v>lang$ui(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="E39" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3860,15 +3881,15 @@
         <v>lang$ui(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>95</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3878,15 +3899,15 @@
         <v>lang$ui(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="E41" t="s">
-        <v>106</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3896,15 +3917,15 @@
         <v>lang$ui(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>96</v>
+        <v>86</v>
       </c>
       <c r="E42" t="s">
-        <v>107</v>
+        <v>97</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3914,15 +3935,15 @@
         <v>lang$ui(42)</v>
       </c>
       <c r="D43" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="E43" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3932,15 +3953,15 @@
         <v>lang$ui(43)</v>
       </c>
       <c r="D44" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3950,15 +3971,15 @@
         <v>lang$ui(44)</v>
       </c>
       <c r="D45" t="s">
+        <v>89</v>
+      </c>
+      <c r="E45" t="s">
         <v>99</v>
-      </c>
-      <c r="E45" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3968,15 +3989,15 @@
         <v>lang$ui(45)</v>
       </c>
       <c r="D46" t="s">
+        <v>90</v>
+      </c>
+      <c r="E46" t="s">
         <v>100</v>
-      </c>
-      <c r="E46" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -3986,15 +4007,15 @@
         <v>lang$ui(46)</v>
       </c>
       <c r="D47" t="s">
+        <v>91</v>
+      </c>
+      <c r="E47" t="s">
         <v>101</v>
-      </c>
-      <c r="E47" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -4004,15 +4025,15 @@
         <v>lang$ui(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="E48" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -4022,15 +4043,15 @@
         <v>lang$ui(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="E49" t="s">
-        <v>452</v>
+        <v>438</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -4040,15 +4061,15 @@
         <v>lang$ui(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="E50" t="s">
-        <v>365</v>
+        <v>351</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -4058,15 +4079,15 @@
         <v>lang$ui(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="E51" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -4076,15 +4097,15 @@
         <v>lang$ui(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="E52" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -4094,15 +4115,15 @@
         <v>lang$ui(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E53" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -4112,15 +4133,15 @@
         <v>lang$ui(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="E54" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -4130,15 +4151,15 @@
         <v>lang$ui(54)</v>
       </c>
       <c r="D55" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E55" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -4148,15 +4169,15 @@
         <v>lang$ui(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="E56" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -4166,15 +4187,15 @@
         <v>lang$ui(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="E57" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -4184,15 +4205,15 @@
         <v>lang$ui(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="E58" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -4202,15 +4223,15 @@
         <v>lang$ui(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="E59" t="s">
-        <v>132</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -4220,15 +4241,15 @@
         <v>lang$ui(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="E60" t="s">
-        <v>131</v>
+        <v>121</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -4238,15 +4259,15 @@
         <v>lang$ui(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="E61" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -4256,15 +4277,15 @@
         <v>lang$ui(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="E62" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -4274,15 +4295,15 @@
         <v>lang$ui(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="E63" t="s">
-        <v>128</v>
+        <v>118</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -4292,15 +4313,15 @@
         <v>lang$ui(63)</v>
       </c>
       <c r="D64" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="E64" t="s">
-        <v>127</v>
+        <v>117</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -4310,15 +4331,15 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>602</v>
+        <v>581</v>
       </c>
       <c r="E65" t="s">
-        <v>603</v>
+        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -4328,15 +4349,15 @@
         <v>lang$ui(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -4346,15 +4367,15 @@
         <v>lang$ui(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="E67" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -4364,15 +4385,15 @@
         <v>lang$ui(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="E68" t="s">
-        <v>362</v>
+        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -4382,15 +4403,15 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>597</v>
+        <v>576</v>
       </c>
       <c r="E69" t="s">
-        <v>598</v>
+        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -4400,15 +4421,15 @@
         <v>lang$ui(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="E70" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -4418,15 +4439,15 @@
         <v>lang$ui(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E71" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -4436,15 +4457,15 @@
         <v>lang$ui(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="E72" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -4454,15 +4475,15 @@
         <v>lang$ui(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="E73" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -4472,15 +4493,15 @@
         <v>lang$ui(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="E74" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -4490,15 +4511,15 @@
         <v>lang$ui(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="E75" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -4508,15 +4529,15 @@
         <v>lang$ui(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="E76" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -4526,15 +4547,15 @@
         <v>lang$ui(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E77" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -4544,15 +4565,15 @@
         <v>lang$ui(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>182</v>
+        <v>172</v>
       </c>
       <c r="E78" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -4562,15 +4583,15 @@
         <v>lang$ui(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="E79" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -4580,15 +4601,15 @@
         <v>lang$ui(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E80" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -4598,15 +4619,15 @@
         <v>lang$ui(80)</v>
       </c>
       <c r="D81" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E81" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -4616,15 +4637,15 @@
         <v>lang$ui(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E82" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -4634,15 +4655,15 @@
         <v>lang$ui(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="E83" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -4652,15 +4673,15 @@
         <v>lang$ui(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="E84" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -4670,15 +4691,15 @@
         <v>lang$ui(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="E85" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -4688,15 +4709,15 @@
         <v>lang$ui(85)</v>
       </c>
       <c r="D86" t="s">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="E86" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -4706,15 +4727,15 @@
         <v>lang$ui(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="E87" t="s">
-        <v>360</v>
+        <v>346</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -4724,15 +4745,15 @@
         <v>lang$ui(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="E88" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -4742,15 +4763,15 @@
         <v>lang$ui(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E89" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -4760,15 +4781,15 @@
         <v>lang$ui(89)</v>
       </c>
       <c r="D90" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E90" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -4778,15 +4799,15 @@
         <v>lang$ui(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E91" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -4796,15 +4817,15 @@
         <v>lang$ui(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="E92" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -4814,15 +4835,15 @@
         <v>lang$ui(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="E93" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -4832,15 +4853,15 @@
         <v>lang$ui(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -4850,15 +4871,15 @@
         <v>lang$ui(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="E95" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -4868,15 +4889,15 @@
         <v>lang$ui(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="E96" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -4886,15 +4907,15 @@
         <v>lang$ui(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
       <c r="E97" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -4904,15 +4925,15 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>592</v>
+        <v>571</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -4922,15 +4943,15 @@
         <v>lang$ui(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="E99" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -4940,15 +4961,15 @@
         <v>lang$ui(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
       <c r="E100" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -4958,15 +4979,15 @@
         <v>lang$ui(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
       <c r="E101" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -4976,15 +4997,15 @@
         <v>lang$ui(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
       <c r="E102" t="s">
-        <v>230</v>
+        <v>219</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -4994,15 +5015,15 @@
         <v>lang$ui(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
       <c r="E103" t="s">
-        <v>231</v>
+        <v>220</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -5012,15 +5033,15 @@
         <v>lang$ui(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
       <c r="E104" t="s">
-        <v>232</v>
+        <v>221</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -5030,15 +5051,15 @@
         <v>lang$ui(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
       <c r="E105" t="s">
-        <v>233</v>
+        <v>222</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -5048,15 +5069,15 @@
         <v>lang$ui(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="E106" t="s">
-        <v>234</v>
+        <v>223</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -5066,15 +5087,15 @@
         <v>lang$ui(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>476</v>
+        <v>461</v>
       </c>
       <c r="E107" t="s">
-        <v>247</v>
+        <v>235</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -5084,15 +5105,15 @@
         <v>lang$ui(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>218</v>
+        <v>638</v>
       </c>
       <c r="E108" t="s">
-        <v>235</v>
+        <v>637</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -5102,15 +5123,15 @@
         <v>lang$ui(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>219</v>
+        <v>208</v>
       </c>
       <c r="E109" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -5120,15 +5141,15 @@
         <v>lang$ui(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>220</v>
+        <v>209</v>
       </c>
       <c r="E110" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -5138,15 +5159,15 @@
         <v>lang$ui(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>221</v>
+        <v>210</v>
       </c>
       <c r="E111" t="s">
-        <v>238</v>
+        <v>226</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -5156,15 +5177,15 @@
         <v>lang$ui(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>222</v>
+        <v>211</v>
       </c>
       <c r="E112" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -5174,15 +5195,15 @@
         <v>lang$ui(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="E113" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -5192,15 +5213,15 @@
         <v>lang$ui(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>224</v>
+        <v>213</v>
       </c>
       <c r="E114" t="s">
-        <v>242</v>
+        <v>230</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -5210,15 +5231,15 @@
         <v>lang$ui(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>225</v>
+        <v>214</v>
       </c>
       <c r="E115" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -5228,15 +5249,15 @@
         <v>lang$ui(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>226</v>
+        <v>215</v>
       </c>
       <c r="E116" t="s">
-        <v>243</v>
+        <v>231</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -5246,15 +5267,15 @@
         <v>lang$ui(116)</v>
       </c>
       <c r="D117" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="E117" t="s">
-        <v>244</v>
+        <v>232</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -5264,15 +5285,15 @@
         <v>lang$ui(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>228</v>
+        <v>217</v>
       </c>
       <c r="E118" t="s">
-        <v>245</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -5282,15 +5303,15 @@
         <v>lang$ui(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>229</v>
+        <v>218</v>
       </c>
       <c r="E119" t="s">
-        <v>246</v>
+        <v>234</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -5300,15 +5321,15 @@
         <v>lang$ui(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>248</v>
+        <v>236</v>
       </c>
       <c r="E120" t="s">
-        <v>252</v>
+        <v>240</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -5318,15 +5339,15 @@
         <v>lang$ui(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="E121" t="s">
-        <v>253</v>
+        <v>241</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -5336,15 +5357,15 @@
         <v>lang$ui(121)</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>250</v>
+        <v>238</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -5354,15 +5375,15 @@
         <v>lang$ui(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>251</v>
+        <v>239</v>
       </c>
       <c r="E123" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -5372,15 +5393,15 @@
         <v>lang$ui(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
       <c r="E124" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -5390,15 +5411,15 @@
         <v>lang$ui(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="E125" t="s">
-        <v>288</v>
+        <v>276</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -5408,15 +5429,15 @@
         <v>lang$ui(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="E126" t="s">
-        <v>316</v>
+        <v>304</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -5426,15 +5447,15 @@
         <v>lang$ui(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="E127" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -5444,15 +5465,15 @@
         <v>lang$ui(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="E128" t="s">
-        <v>289</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -5462,15 +5483,15 @@
         <v>lang$ui(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="E129" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -5480,15 +5501,15 @@
         <v>lang$ui(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="E130" t="s">
-        <v>291</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -5498,15 +5519,15 @@
         <v>lang$ui(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="E131" t="s">
-        <v>292</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -5516,15 +5537,15 @@
         <v>lang$ui(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="E132" t="s">
-        <v>293</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -5534,15 +5555,15 @@
         <v>lang$ui(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="E133" t="s">
-        <v>294</v>
+        <v>282</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -5552,15 +5573,15 @@
         <v>lang$ui(133)</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>295</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -5570,15 +5591,15 @@
         <v>lang$ui(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="E135" t="s">
-        <v>296</v>
+        <v>284</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -5588,15 +5609,15 @@
         <v>lang$ui(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="E136" t="s">
-        <v>297</v>
+        <v>285</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -5606,15 +5627,15 @@
         <v>lang$ui(136)</v>
       </c>
       <c r="D137" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="E137" t="s">
-        <v>298</v>
+        <v>286</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -5624,15 +5645,15 @@
         <v>lang$ui(137)</v>
       </c>
       <c r="D138" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="E138" t="s">
-        <v>299</v>
+        <v>287</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -5642,15 +5663,15 @@
         <v>lang$ui(138)</v>
       </c>
       <c r="D139" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="E139" t="s">
-        <v>300</v>
+        <v>288</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -5660,15 +5681,15 @@
         <v>lang$ui(139)</v>
       </c>
       <c r="D140" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="E140" t="s">
-        <v>301</v>
+        <v>289</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -5678,15 +5699,15 @@
         <v>lang$ui(140)</v>
       </c>
       <c r="D141" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="E141" t="s">
-        <v>302</v>
+        <v>290</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -5696,15 +5717,15 @@
         <v>lang$ui(141)</v>
       </c>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="E142" t="s">
-        <v>303</v>
+        <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -5714,15 +5735,15 @@
         <v>lang$ui(142)</v>
       </c>
       <c r="D143" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="E143" t="s">
-        <v>304</v>
+        <v>292</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -5732,15 +5753,15 @@
         <v>lang$ui(143)</v>
       </c>
       <c r="D144" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="E144" t="s">
-        <v>308</v>
+        <v>296</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B145">
         <v>144</v>
@@ -5750,15 +5771,15 @@
         <v>lang$ui(144)</v>
       </c>
       <c r="D145" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="E145" t="s">
-        <v>305</v>
+        <v>293</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -5768,15 +5789,15 @@
         <v>lang$ui(145)</v>
       </c>
       <c r="D146" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="E146" t="s">
-        <v>306</v>
+        <v>294</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -5786,15 +5807,15 @@
         <v>lang$ui(146)</v>
       </c>
       <c r="D147" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="E147" t="s">
-        <v>307</v>
+        <v>295</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -5804,15 +5825,15 @@
         <v>lang$ui(147)</v>
       </c>
       <c r="D148" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="E148" t="s">
-        <v>309</v>
+        <v>297</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B149">
         <v>148</v>
@@ -5822,15 +5843,15 @@
         <v>lang$ui(148)</v>
       </c>
       <c r="D149" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="E149" t="s">
-        <v>310</v>
+        <v>298</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B150">
         <v>149</v>
@@ -5840,15 +5861,15 @@
         <v>lang$ui(149)</v>
       </c>
       <c r="D150" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="E150" t="s">
-        <v>311</v>
+        <v>299</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -5858,15 +5879,15 @@
         <v>lang$ui(150)</v>
       </c>
       <c r="D151" t="s">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="E151" t="s">
-        <v>312</v>
+        <v>300</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B152">
         <v>151</v>
@@ -5876,15 +5897,15 @@
         <v>lang$ui(151)</v>
       </c>
       <c r="D152" t="s">
-        <v>287</v>
+        <v>275</v>
       </c>
       <c r="E152" t="s">
-        <v>313</v>
+        <v>301</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B153">
         <v>152</v>
@@ -5894,15 +5915,15 @@
         <v>lang$ui(152)</v>
       </c>
       <c r="D153" t="s">
-        <v>315</v>
+        <v>303</v>
       </c>
       <c r="E153" t="s">
-        <v>314</v>
+        <v>302</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B154">
         <v>153</v>
@@ -5912,15 +5933,15 @@
         <v>lang$ui(153)</v>
       </c>
       <c r="D154" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="E154" t="s">
-        <v>324</v>
+        <v>311</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B155">
         <v>154</v>
@@ -5930,15 +5951,15 @@
         <v>lang$ui(154)</v>
       </c>
       <c r="D155" t="s">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="E155" t="s">
-        <v>325</v>
+        <v>312</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -5948,15 +5969,15 @@
         <v>lang$ui(155)</v>
       </c>
       <c r="D156" t="s">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="E156" t="s">
-        <v>326</v>
+        <v>313</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B157">
         <v>156</v>
@@ -5966,15 +5987,15 @@
         <v>lang$ui(156)</v>
       </c>
       <c r="D157" t="s">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="E157" t="s">
-        <v>327</v>
+        <v>314</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="B158">
         <v>157</v>
@@ -5984,15 +6005,15 @@
         <v>lang$ui(157)</v>
       </c>
       <c r="D158" t="s">
-        <v>321</v>
+        <v>655</v>
       </c>
       <c r="E158" t="s">
-        <v>328</v>
+        <v>654</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B159">
         <v>158</v>
@@ -6002,15 +6023,15 @@
         <v>lang$ui(158)</v>
       </c>
       <c r="D159" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="E159" t="s">
-        <v>329</v>
+        <v>315</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B160">
         <v>159</v>
@@ -6020,15 +6041,15 @@
         <v>lang$ui(159)</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="E160" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B161">
         <v>160</v>
@@ -6038,15 +6059,15 @@
         <v>lang$ui(160)</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="E161" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B162">
         <v>161</v>
@@ -6056,15 +6077,15 @@
         <v>lang$ui(161)</v>
       </c>
       <c r="D162" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="E162" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B163">
         <v>162</v>
@@ -6074,15 +6095,15 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
       <c r="E163" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -6092,15 +6113,15 @@
         <v>lang$ui(163)</v>
       </c>
       <c r="D164" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="E164" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B165">
         <v>164</v>
@@ -6110,15 +6131,15 @@
         <v>lang$ui(164)</v>
       </c>
       <c r="D165" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="E165" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B166">
         <v>165</v>
@@ -6128,15 +6149,15 @@
         <v>lang$ui(165)</v>
       </c>
       <c r="D166" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="E166" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B167">
         <v>166</v>
@@ -6146,15 +6167,15 @@
         <v>lang$ui(166)</v>
       </c>
       <c r="D167" t="s">
-        <v>323</v>
+        <v>310</v>
       </c>
       <c r="E167" t="s">
-        <v>330</v>
+        <v>316</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B168">
         <v>167</v>
@@ -6164,15 +6185,15 @@
         <v>lang$ui(167)</v>
       </c>
       <c r="D168" t="s">
-        <v>332</v>
+        <v>318</v>
       </c>
       <c r="E168" t="s">
-        <v>331</v>
+        <v>317</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B169">
         <v>168</v>
@@ -6182,15 +6203,15 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
-        <v>586</v>
+        <v>565</v>
       </c>
       <c r="E169" t="s">
-        <v>588</v>
+        <v>567</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B170">
         <v>169</v>
@@ -6200,15 +6221,15 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
-        <v>587</v>
+        <v>566</v>
       </c>
       <c r="E170" t="s">
-        <v>589</v>
+        <v>568</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B171">
         <v>170</v>
@@ -6218,15 +6239,15 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
-        <v>600</v>
+        <v>579</v>
       </c>
       <c r="E171" t="s">
-        <v>601</v>
+        <v>580</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B172">
         <v>171</v>
@@ -6236,15 +6257,15 @@
         <v>lang$ui(171)</v>
       </c>
       <c r="D172" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="E172" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B173">
         <v>172</v>
@@ -6254,15 +6275,15 @@
         <v>lang$ui(172)</v>
       </c>
       <c r="D173" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="E173" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B174">
         <v>173</v>
@@ -6272,15 +6293,15 @@
         <v>lang$ui(173)</v>
       </c>
       <c r="D174" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="E174" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B175">
         <v>174</v>
@@ -6290,15 +6311,15 @@
         <v>lang$ui(174)</v>
       </c>
       <c r="D175" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="E175" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B176">
         <v>175</v>
@@ -6308,15 +6329,15 @@
         <v>lang$ui(175)</v>
       </c>
       <c r="D176" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="E176" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>322</v>
+        <v>309</v>
       </c>
       <c r="B177">
         <v>176</v>
@@ -6326,15 +6347,15 @@
         <v>lang$ui(176)</v>
       </c>
       <c r="D177" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="E177" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>124</v>
+        <v>114</v>
       </c>
       <c r="B178">
         <v>177</v>
@@ -6344,11 +6365,53 @@
         <v>lang$ui(177)</v>
       </c>
       <c r="D178" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="E178" t="s">
-        <v>642</v>
-      </c>
+        <v>618</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A179" t="s">
+        <v>114</v>
+      </c>
+      <c r="B179">
+        <v>178</v>
+      </c>
+      <c r="C179" s="3" t="str">
+        <f t="shared" ref="C179:C180" si="6">"lang$ui(" &amp; B179 &amp; ")"</f>
+        <v>lang$ui(178)</v>
+      </c>
+      <c r="D179" t="s">
+        <v>649</v>
+      </c>
+      <c r="E179" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A180" t="s">
+        <v>305</v>
+      </c>
+      <c r="B180">
+        <v>179</v>
+      </c>
+      <c r="C180" s="3" t="str">
+        <f t="shared" si="6"/>
+        <v>lang$ui(179)</v>
+      </c>
+      <c r="D180" t="s">
+        <v>652</v>
+      </c>
+      <c r="E180" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C181" s="3"/>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C182" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6357,10 +6420,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{496328DD-5C8E-3D45-AB81-313F176488D7}">
-  <dimension ref="A1:E137"/>
+  <dimension ref="A1:E140"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E134" sqref="E134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -6372,13 +6435,13 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>414</v>
+        <v>400</v>
       </c>
       <c r="C1" t="s">
-        <v>413</v>
+        <v>399</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6389,7 +6452,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>333</v>
+        <v>319</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6399,10 +6462,10 @@
         <v>lang$server(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="E2" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6434,7 +6497,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6444,15 +6507,15 @@
         <v>lang$server(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>334</v>
+        <v>320</v>
       </c>
       <c r="E6" t="s">
-        <v>336</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6462,15 +6525,15 @@
         <v>lang$server(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>335</v>
+        <v>321</v>
       </c>
       <c r="E7" t="s">
-        <v>337</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6480,15 +6543,15 @@
         <v>lang$server(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="E8" t="s">
-        <v>343</v>
+        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -6498,15 +6561,15 @@
         <v>lang$server(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="E9" t="s">
-        <v>344</v>
+        <v>330</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -6516,15 +6579,15 @@
         <v>lang$server(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="E10" t="s">
-        <v>345</v>
+        <v>331</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -6534,15 +6597,15 @@
         <v>lang$server(10)</v>
       </c>
       <c r="D11" t="s">
-        <v>350</v>
+        <v>336</v>
       </c>
       <c r="E11" t="s">
-        <v>351</v>
+        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -6552,15 +6615,15 @@
         <v>lang$server(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>353</v>
+        <v>339</v>
       </c>
       <c r="E12" t="s">
-        <v>354</v>
+        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -6570,15 +6633,15 @@
         <v>lang$server(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="E13" t="s">
-        <v>346</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -6588,15 +6651,15 @@
         <v>lang$server(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>352</v>
+        <v>338</v>
       </c>
       <c r="E14" t="s">
-        <v>347</v>
+        <v>333</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -6606,15 +6669,15 @@
         <v>lang$server(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>341</v>
+        <v>327</v>
       </c>
       <c r="E15" t="s">
-        <v>348</v>
+        <v>334</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -6624,15 +6687,15 @@
         <v>lang$server(15)</v>
       </c>
       <c r="D16" t="s">
-        <v>355</v>
+        <v>341</v>
       </c>
       <c r="E16" t="s">
-        <v>349</v>
+        <v>335</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -6642,15 +6705,15 @@
         <v>lang$server(16)</v>
       </c>
       <c r="D17" t="s">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="E17" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -6660,15 +6723,15 @@
         <v>lang$server(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>367</v>
+        <v>353</v>
       </c>
       <c r="E18" t="s">
-        <v>369</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -6678,15 +6741,15 @@
         <v>lang$server(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>368</v>
+        <v>354</v>
       </c>
       <c r="E19" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -6696,15 +6759,15 @@
         <v>lang$server(19)</v>
       </c>
       <c r="D20" t="s">
-        <v>371</v>
+        <v>357</v>
       </c>
       <c r="E20" t="s">
-        <v>372</v>
+        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -6714,15 +6777,15 @@
         <v>lang$server(20)</v>
       </c>
       <c r="D21" t="s">
-        <v>373</v>
+        <v>359</v>
       </c>
       <c r="E21" t="s">
-        <v>374</v>
+        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -6732,15 +6795,15 @@
         <v>lang$server(21)</v>
       </c>
       <c r="D22" t="s">
-        <v>375</v>
+        <v>361</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -6750,15 +6813,15 @@
         <v>lang$server(22)</v>
       </c>
       <c r="D23" t="s">
-        <v>377</v>
+        <v>363</v>
       </c>
       <c r="E23" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -6768,15 +6831,15 @@
         <v>lang$server(23)</v>
       </c>
       <c r="D24" t="s">
-        <v>378</v>
+        <v>364</v>
       </c>
       <c r="E24" t="s">
-        <v>381</v>
+        <v>367</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -6786,15 +6849,15 @@
         <v>lang$server(24)</v>
       </c>
       <c r="D25" t="s">
-        <v>379</v>
+        <v>365</v>
       </c>
       <c r="E25" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -6804,15 +6867,15 @@
         <v>lang$server(25)</v>
       </c>
       <c r="D26" t="s">
-        <v>380</v>
+        <v>366</v>
       </c>
       <c r="E26" t="s">
-        <v>382</v>
+        <v>368</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -6822,15 +6885,15 @@
         <v>lang$server(26)</v>
       </c>
       <c r="D27" t="s">
-        <v>383</v>
+        <v>369</v>
       </c>
       <c r="E27" t="s">
-        <v>384</v>
+        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -6840,15 +6903,15 @@
         <v>lang$server(27)</v>
       </c>
       <c r="D28" t="s">
-        <v>385</v>
+        <v>371</v>
       </c>
       <c r="E28" t="s">
-        <v>386</v>
+        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -6858,15 +6921,15 @@
         <v>lang$server(28)</v>
       </c>
       <c r="D29" t="s">
-        <v>387</v>
+        <v>373</v>
       </c>
       <c r="E29" t="s">
-        <v>390</v>
+        <v>376</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -6876,15 +6939,15 @@
         <v>lang$server(29)</v>
       </c>
       <c r="D30" t="s">
-        <v>391</v>
+        <v>377</v>
       </c>
       <c r="E30" t="s">
-        <v>392</v>
+        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -6894,15 +6957,15 @@
         <v>lang$server(30)</v>
       </c>
       <c r="D31" t="s">
-        <v>393</v>
+        <v>379</v>
       </c>
       <c r="E31" t="s">
-        <v>394</v>
+        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -6912,15 +6975,15 @@
         <v>lang$server(31)</v>
       </c>
       <c r="D32" t="s">
-        <v>396</v>
+        <v>382</v>
       </c>
       <c r="E32" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -6930,15 +6993,15 @@
         <v>lang$server(32)</v>
       </c>
       <c r="D33" t="s">
-        <v>398</v>
+        <v>384</v>
       </c>
       <c r="E33" t="s">
-        <v>399</v>
+        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -6948,15 +7011,15 @@
         <v>lang$server(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>400</v>
+        <v>386</v>
       </c>
       <c r="E34" t="s">
-        <v>401</v>
+        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>395</v>
+        <v>381</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -6966,15 +7029,15 @@
         <v>lang$server(34)</v>
       </c>
       <c r="D35" t="s">
-        <v>402</v>
+        <v>388</v>
       </c>
       <c r="E35" t="s">
-        <v>403</v>
+        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -6984,15 +7047,15 @@
         <v>lang$server(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>404</v>
+        <v>390</v>
       </c>
       <c r="E36" t="s">
-        <v>406</v>
+        <v>392</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>405</v>
+        <v>391</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7002,15 +7065,15 @@
         <v>lang$server(36)</v>
       </c>
       <c r="D37" t="s">
-        <v>407</v>
+        <v>393</v>
       </c>
       <c r="E37" t="s">
-        <v>408</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -7020,15 +7083,15 @@
         <v>lang$server(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>409</v>
+        <v>395</v>
       </c>
       <c r="E38" t="s">
-        <v>411</v>
+        <v>397</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -7038,15 +7101,15 @@
         <v>lang$server(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="E39" t="s">
-        <v>412</v>
+        <v>398</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -7056,15 +7119,15 @@
         <v>lang$server(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="E40" t="s">
-        <v>415</v>
+        <v>401</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -7074,15 +7137,15 @@
         <v>lang$server(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="E41" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -7092,15 +7155,15 @@
         <v>lang$server(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>416</v>
+        <v>402</v>
       </c>
       <c r="E42" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -7110,15 +7173,15 @@
         <v>lang$server(42)</v>
       </c>
       <c r="D43" t="s">
-        <v>417</v>
+        <v>403</v>
       </c>
       <c r="E43" t="s">
-        <v>418</v>
+        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7128,15 +7191,15 @@
         <v>lang$server(43)</v>
       </c>
       <c r="D44" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="E44" t="s">
-        <v>420</v>
+        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -7146,15 +7209,15 @@
         <v>lang$server(44)</v>
       </c>
       <c r="D45" t="s">
-        <v>421</v>
+        <v>407</v>
       </c>
       <c r="E45" t="s">
-        <v>422</v>
+        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -7164,15 +7227,15 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>608</v>
+        <v>586</v>
       </c>
       <c r="E46" t="s">
-        <v>607</v>
+        <v>585</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -7182,15 +7245,15 @@
         <v>lang$server(46)</v>
       </c>
       <c r="D47" t="s">
-        <v>424</v>
+        <v>410</v>
       </c>
       <c r="E47" t="s">
-        <v>425</v>
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -7200,15 +7263,15 @@
         <v>lang$server(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>423</v>
+        <v>409</v>
       </c>
       <c r="E48" t="s">
-        <v>426</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -7218,15 +7281,15 @@
         <v>lang$server(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>427</v>
+        <v>413</v>
       </c>
       <c r="E49" t="s">
-        <v>428</v>
+        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -7236,15 +7299,15 @@
         <v>lang$server(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>429</v>
+        <v>415</v>
       </c>
       <c r="E50" t="s">
-        <v>430</v>
+        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -7254,15 +7317,15 @@
         <v>lang$server(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>432</v>
+        <v>418</v>
       </c>
       <c r="E51" t="s">
-        <v>431</v>
+        <v>417</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -7272,15 +7335,15 @@
         <v>lang$server(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>433</v>
+        <v>419</v>
       </c>
       <c r="E52" t="s">
-        <v>434</v>
+        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -7290,15 +7353,15 @@
         <v>lang$server(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>435</v>
+        <v>421</v>
       </c>
       <c r="E53" t="s">
-        <v>436</v>
+        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -7308,15 +7371,15 @@
         <v>lang$server(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>437</v>
+        <v>423</v>
       </c>
       <c r="E54" t="s">
-        <v>438</v>
+        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -7326,15 +7389,15 @@
         <v>lang$server(54)</v>
       </c>
       <c r="D55" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="E55" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -7344,15 +7407,15 @@
         <v>lang$server(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>439</v>
+        <v>425</v>
       </c>
       <c r="E56" t="s">
-        <v>443</v>
+        <v>429</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -7362,15 +7425,15 @@
         <v>lang$server(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>440</v>
+        <v>426</v>
       </c>
       <c r="E57" t="s">
-        <v>444</v>
+        <v>430</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -7380,15 +7443,15 @@
         <v>lang$server(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>441</v>
+        <v>427</v>
       </c>
       <c r="E58" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -7398,15 +7461,15 @@
         <v>lang$server(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>442</v>
+        <v>428</v>
       </c>
       <c r="E59" t="s">
-        <v>448</v>
+        <v>434</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -7416,15 +7479,15 @@
         <v>lang$server(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>445</v>
+        <v>431</v>
       </c>
       <c r="E60" t="s">
-        <v>449</v>
+        <v>435</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -7434,15 +7497,15 @@
         <v>lang$server(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>446</v>
+        <v>432</v>
       </c>
       <c r="E61" t="s">
-        <v>450</v>
+        <v>436</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -7452,15 +7515,15 @@
         <v>lang$server(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>454</v>
+        <v>440</v>
       </c>
       <c r="E62" t="s">
-        <v>455</v>
+        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -7470,15 +7533,15 @@
         <v>lang$server(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>447</v>
+        <v>433</v>
       </c>
       <c r="E63" t="s">
-        <v>451</v>
+        <v>437</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -7488,15 +7551,15 @@
         <v>lang$server(63)</v>
       </c>
       <c r="D64" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
       <c r="E64" t="s">
-        <v>453</v>
+        <v>439</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -7506,15 +7569,15 @@
         <v>lang$server(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>456</v>
+        <v>442</v>
       </c>
       <c r="E65" t="s">
-        <v>472</v>
+        <v>458</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -7524,15 +7587,15 @@
         <v>lang$server(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>457</v>
+        <v>443</v>
       </c>
       <c r="E66" t="s">
-        <v>466</v>
+        <v>452</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -7542,15 +7605,15 @@
         <v>lang$server(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>458</v>
+        <v>444</v>
       </c>
       <c r="E67" t="s">
-        <v>465</v>
+        <v>451</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -7560,15 +7623,15 @@
         <v>lang$server(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>459</v>
+        <v>445</v>
       </c>
       <c r="E68" t="s">
-        <v>467</v>
+        <v>453</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -7578,15 +7641,15 @@
         <v>lang$server(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>460</v>
+        <v>446</v>
       </c>
       <c r="E69" t="s">
-        <v>470</v>
+        <v>456</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -7596,15 +7659,15 @@
         <v>lang$server(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>461</v>
+        <v>447</v>
       </c>
       <c r="E70" t="s">
-        <v>468</v>
+        <v>454</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -7614,15 +7677,15 @@
         <v>lang$server(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>462</v>
+        <v>448</v>
       </c>
       <c r="E71" t="s">
-        <v>469</v>
+        <v>455</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -7632,15 +7695,15 @@
         <v>lang$server(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>463</v>
+        <v>449</v>
       </c>
       <c r="E72" t="s">
-        <v>471</v>
+        <v>457</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -7650,15 +7713,15 @@
         <v>lang$server(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>473</v>
+        <v>459</v>
       </c>
       <c r="E73" t="s">
-        <v>477</v>
+        <v>462</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -7668,15 +7731,15 @@
         <v>lang$server(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>474</v>
+        <v>460</v>
       </c>
       <c r="E74" t="s">
-        <v>546</v>
+        <v>528</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7686,15 +7749,15 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>475</v>
+        <v>635</v>
       </c>
       <c r="E75" t="s">
-        <v>544</v>
+        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -7704,15 +7767,15 @@
         <v>lang$server(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>478</v>
+        <v>463</v>
       </c>
       <c r="E76" t="s">
-        <v>485</v>
+        <v>470</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7722,15 +7785,15 @@
         <v>lang$server(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>479</v>
+        <v>464</v>
       </c>
       <c r="E77" t="s">
-        <v>486</v>
+        <v>471</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7740,15 +7803,15 @@
         <v>lang$server(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>480</v>
+        <v>465</v>
       </c>
       <c r="E78" t="s">
-        <v>487</v>
+        <v>472</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7758,15 +7821,15 @@
         <v>lang$server(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>481</v>
+        <v>466</v>
       </c>
       <c r="E79" t="s">
-        <v>609</v>
+        <v>587</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7776,15 +7839,15 @@
         <v>lang$server(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>482</v>
+        <v>467</v>
       </c>
       <c r="E80" t="s">
-        <v>488</v>
+        <v>473</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7794,15 +7857,15 @@
         <v>lang$server(80)</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>483</v>
+        <v>468</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>489</v>
+        <v>474</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -7812,15 +7875,15 @@
         <v>lang$server(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>484</v>
+        <v>469</v>
       </c>
       <c r="E82" t="s">
-        <v>490</v>
+        <v>475</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -7830,15 +7893,15 @@
         <v>lang$server(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>491</v>
+        <v>476</v>
       </c>
       <c r="E83" t="s">
-        <v>492</v>
+        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -7848,15 +7911,15 @@
         <v>lang$server(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>493</v>
+        <v>478</v>
       </c>
       <c r="E84" t="s">
-        <v>499</v>
+        <v>484</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -7866,15 +7929,15 @@
         <v>lang$server(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>494</v>
+        <v>479</v>
       </c>
       <c r="E85" t="s">
-        <v>498</v>
+        <v>483</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7884,15 +7947,15 @@
         <v>lang$server(85)</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>495</v>
+        <v>480</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -7902,15 +7965,15 @@
         <v>lang$server(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>496</v>
+        <v>481</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>497</v>
+        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -7920,15 +7983,15 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>611</v>
+        <v>589</v>
       </c>
       <c r="E88" t="s">
-        <v>610</v>
+        <v>588</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -7938,15 +8001,15 @@
         <v>lang$server(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>501</v>
+        <v>486</v>
       </c>
       <c r="E89" t="s">
-        <v>506</v>
+        <v>489</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -7955,16 +8018,10 @@
         <f t="shared" si="1"/>
         <v>lang$server(89)</v>
       </c>
-      <c r="D90" t="s">
-        <v>502</v>
-      </c>
-      <c r="E90" t="s">
-        <v>503</v>
-      </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -7974,15 +8031,15 @@
         <v>lang$server(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>504</v>
+        <v>487</v>
       </c>
       <c r="E91" t="s">
-        <v>505</v>
+        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -7992,15 +8049,15 @@
         <v>lang$server(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>507</v>
+        <v>490</v>
       </c>
       <c r="E92" t="s">
-        <v>508</v>
+        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -8010,15 +8067,15 @@
         <v>lang$server(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>509</v>
+        <v>492</v>
       </c>
       <c r="E93" t="s">
-        <v>510</v>
+        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -8028,15 +8085,15 @@
         <v>lang$server(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>511</v>
+        <v>494</v>
       </c>
       <c r="E94" t="s">
-        <v>512</v>
+        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -8046,15 +8103,15 @@
         <v>lang$server(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>513</v>
+        <v>496</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>514</v>
+        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -8064,15 +8121,15 @@
         <v>lang$server(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>515</v>
+        <v>498</v>
       </c>
       <c r="E96" t="s">
-        <v>517</v>
+        <v>500</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -8082,15 +8139,15 @@
         <v>lang$server(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>516</v>
+        <v>499</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>518</v>
+        <v>501</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -8100,15 +8157,15 @@
         <v>lang$server(97)</v>
       </c>
       <c r="D98" t="s">
-        <v>519</v>
+        <v>502</v>
       </c>
       <c r="E98" t="s">
-        <v>520</v>
+        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -8118,15 +8175,15 @@
         <v>lang$server(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>521</v>
+        <v>504</v>
       </c>
       <c r="E99" t="s">
-        <v>522</v>
+        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -8136,15 +8193,15 @@
         <v>lang$server(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>523</v>
+        <v>506</v>
       </c>
       <c r="E100" t="s">
-        <v>524</v>
+        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -8154,15 +8211,15 @@
         <v>lang$server(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>525</v>
+        <v>508</v>
       </c>
       <c r="E101" t="s">
-        <v>397</v>
+        <v>383</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>500</v>
+        <v>485</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -8172,15 +8229,15 @@
         <v>lang$server(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>526</v>
+        <v>509</v>
       </c>
       <c r="E102" t="s">
-        <v>527</v>
+        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -8190,15 +8247,15 @@
         <v>lang$server(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>528</v>
+        <v>511</v>
       </c>
       <c r="E103" t="s">
-        <v>529</v>
+        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -8208,15 +8265,15 @@
         <v>lang$server(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>530</v>
+        <v>513</v>
       </c>
       <c r="E104" t="s">
-        <v>531</v>
+        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -8226,15 +8283,15 @@
         <v>lang$server(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>532</v>
+        <v>515</v>
       </c>
       <c r="E105" t="s">
-        <v>533</v>
+        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -8244,15 +8301,15 @@
         <v>lang$server(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>534</v>
+        <v>517</v>
       </c>
       <c r="E106" t="s">
-        <v>290</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -8262,15 +8319,15 @@
         <v>lang$server(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>535</v>
+        <v>518</v>
       </c>
       <c r="E107" t="s">
-        <v>536</v>
+        <v>519</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -8280,15 +8337,15 @@
         <v>lang$server(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="E108" t="s">
-        <v>538</v>
+        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -8298,15 +8355,15 @@
         <v>lang$server(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>539</v>
+        <v>522</v>
       </c>
       <c r="E109" t="s">
-        <v>540</v>
+        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -8316,15 +8373,15 @@
         <v>lang$server(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>541</v>
+        <v>524</v>
       </c>
       <c r="E110" t="s">
-        <v>542</v>
+        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -8334,15 +8391,15 @@
         <v>lang$server(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="E111" t="s">
-        <v>545</v>
+        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -8352,15 +8409,15 @@
         <v>lang$server(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>547</v>
+        <v>529</v>
       </c>
       <c r="E112" t="s">
-        <v>548</v>
+        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -8370,15 +8427,15 @@
         <v>lang$server(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>549</v>
+        <v>531</v>
       </c>
       <c r="E113" t="s">
-        <v>550</v>
+        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -8388,15 +8445,15 @@
         <v>lang$server(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>537</v>
+        <v>520</v>
       </c>
       <c r="E114" t="s">
-        <v>551</v>
+        <v>533</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -8406,15 +8463,15 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="E115" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -8424,15 +8481,15 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>552</v>
+        <v>534</v>
       </c>
       <c r="E116" t="s">
-        <v>553</v>
+        <v>535</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -8442,15 +8499,15 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>554</v>
+        <v>536</v>
       </c>
       <c r="E117" t="s">
-        <v>555</v>
+        <v>537</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -8460,15 +8517,15 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>556</v>
+        <v>538</v>
       </c>
       <c r="E118" t="s">
-        <v>557</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -8478,15 +8535,15 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>558</v>
+        <v>540</v>
       </c>
       <c r="E119" t="s">
-        <v>559</v>
+        <v>541</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -8496,15 +8553,15 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>560</v>
+        <v>542</v>
       </c>
       <c r="E120" t="s">
-        <v>561</v>
+        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -8514,15 +8571,15 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>562</v>
+        <v>544</v>
       </c>
       <c r="E121" t="s">
-        <v>567</v>
+        <v>549</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -8532,15 +8589,15 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
-        <v>563</v>
+        <v>545</v>
       </c>
       <c r="E122" t="s">
-        <v>570</v>
+        <v>552</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -8550,15 +8607,15 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>564</v>
+        <v>546</v>
       </c>
       <c r="E123" t="s">
-        <v>569</v>
+        <v>551</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -8568,15 +8625,15 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>565</v>
+        <v>547</v>
       </c>
       <c r="E124" t="s">
-        <v>568</v>
+        <v>550</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -8586,15 +8643,15 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>566</v>
+        <v>548</v>
       </c>
       <c r="E125" t="s">
-        <v>571</v>
+        <v>553</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -8604,15 +8661,15 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>572</v>
+        <v>554</v>
       </c>
       <c r="E126" t="s">
-        <v>573</v>
+        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -8622,15 +8679,15 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>574</v>
+        <v>556</v>
       </c>
       <c r="E127" t="s">
-        <v>577</v>
+        <v>559</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -8640,15 +8697,15 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>575</v>
+        <v>557</v>
       </c>
       <c r="E128" t="s">
-        <v>578</v>
+        <v>560</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -8658,15 +8715,15 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>576</v>
+        <v>558</v>
       </c>
       <c r="E129" t="s">
-        <v>579</v>
+        <v>561</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -8676,33 +8733,33 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>580</v>
+        <v>562</v>
       </c>
       <c r="E130" t="s">
-        <v>581</v>
+        <v>563</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B131">
         <v>130</v>
       </c>
       <c r="C131" s="3" t="str">
-        <f t="shared" ref="C131:C137" si="2">"lang$server(" &amp; B131 &amp; ")"</f>
+        <f t="shared" ref="C131:C139" si="2">"lang$server(" &amp; B131 &amp; ")"</f>
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>590</v>
+        <v>569</v>
       </c>
       <c r="E131" t="s">
-        <v>591</v>
+        <v>570</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -8712,15 +8769,15 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>593</v>
+        <v>572</v>
       </c>
       <c r="E132" t="s">
-        <v>595</v>
+        <v>574</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -8730,15 +8787,15 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>594</v>
+        <v>573</v>
       </c>
       <c r="E133" t="s">
-        <v>596</v>
+        <v>575</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -8748,15 +8805,15 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>612</v>
+        <v>657</v>
       </c>
       <c r="E134" t="s">
-        <v>613</v>
+        <v>656</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -8766,15 +8823,15 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>604</v>
+        <v>583</v>
       </c>
       <c r="E135" t="s">
-        <v>605</v>
+        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -8784,15 +8841,15 @@
         <v>lang$server(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="E136" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -8802,10 +8859,64 @@
         <v>lang$server(136)</v>
       </c>
       <c r="D137" t="s">
+        <v>627</v>
+      </c>
+      <c r="E137" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>188</v>
+      </c>
+      <c r="B138">
+        <v>137</v>
+      </c>
+      <c r="C138" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>lang$server(137)</v>
+      </c>
+      <c r="D138" t="s">
+        <v>639</v>
+      </c>
+      <c r="E138" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>188</v>
+      </c>
+      <c r="B139">
+        <v>138</v>
+      </c>
+      <c r="C139" s="3" t="str">
+        <f t="shared" si="2"/>
+        <v>lang$server(138)</v>
+      </c>
+      <c r="D139" t="s">
+        <v>641</v>
+      </c>
+      <c r="E139" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>170</v>
+      </c>
+      <c r="B140">
+        <v>139</v>
+      </c>
+      <c r="C140" s="3" t="str">
+        <f t="shared" ref="C140" si="4">"lang$server(" &amp; B140 &amp; ")"</f>
+        <v>lang$server(139)</v>
+      </c>
+      <c r="D140" t="s">
+        <v>650</v>
+      </c>
+      <c r="E140" t="s">
         <v>651</v>
-      </c>
-      <c r="E137" t="s">
-        <v>652</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AF23DA9-EC32-6346-A069-FF67DA0F2B1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C3440-D81A-5E4C-9294-61F5F623A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2980" windowWidth="29280" windowHeight="21840" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="1280" yWindow="2980" windowWidth="29280" windowHeight="21840" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1000" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1027" uniqueCount="682">
   <si>
     <t>Deutsch</t>
   </si>
@@ -157,9 +157,6 @@
     <t xml:space="preserve"> app allow for that. Spectran aims to add appealing graphics - either to be used in presentations or reports - and to be a tool for education when working with spectral data.</t>
   </si>
   <si>
-    <t>In den folgenden Abschnitten werden einige Funktionen der App dargestellt. Weiter unten haben Sie Zugriff auf Tutorial-Videos.</t>
-  </si>
-  <si>
     <t>The following sections show an overview of Spectran´s functionality. Further below you have access to tutorial materials.</t>
   </si>
   <si>
@@ -2036,6 +2033,57 @@
   </si>
   <si>
     <t>Rhodopic evaluation (scotopic vision, s&lt;sub&gt;rh&lt;/sub&gt;)</t>
+  </si>
+  <si>
+    <t>Import UI</t>
+  </si>
+  <si>
+    <t>Change Spectra</t>
+  </si>
+  <si>
+    <t>Radiometric Analysis</t>
+  </si>
+  <si>
+    <t>Nonvisual Analysis</t>
+  </si>
+  <si>
+    <t>Age-dependent Analysis</t>
+  </si>
+  <si>
+    <t>Export_UI</t>
+  </si>
+  <si>
+    <t>Graph Export</t>
+  </si>
+  <si>
+    <t>Table Export</t>
+  </si>
+  <si>
+    <t>Spektren Bearbeiten</t>
+  </si>
+  <si>
+    <t>Export UI</t>
+  </si>
+  <si>
+    <t>Grafik Export</t>
+  </si>
+  <si>
+    <t>Tabellen Export</t>
+  </si>
+  <si>
+    <t>Auswertung Radiometrie</t>
+  </si>
+  <si>
+    <t>Auswertung Nichtvisuell</t>
+  </si>
+  <si>
+    <t>Auswertung Alter</t>
+  </si>
+  <si>
+    <t>Spektren Beispiele</t>
+  </si>
+  <si>
+    <t>In den folgenden Abschnitten werden einige Funktionen der App dargestellt. Aus Speichergründen sind die Beispielbilder lediglich in einer Sprache (Englisch) dargestellt. Die Applikation selbst ist jedoch vollständig übersetzt. Weiter unten haben Sie Zugriff auf ein Tutorial Video.</t>
   </si>
 </sst>
 </file>
@@ -2402,7 +2450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D99FFC6-0F2D-9847-9357-C8569C6C6BF8}">
   <dimension ref="A1:E169"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2420,10 +2468,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -2462,10 +2510,10 @@
         <v>lang$global(2)</v>
       </c>
       <c r="D3" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E3" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2480,10 +2528,10 @@
         <v>lang$global(3)</v>
       </c>
       <c r="D4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2498,10 +2546,10 @@
         <v>lang$global(4)</v>
       </c>
       <c r="D5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2534,10 +2582,10 @@
         <v>lang$global(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="E7" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2552,10 +2600,10 @@
         <v>lang$global(7)</v>
       </c>
       <c r="D8" t="s">
+        <v>657</v>
+      </c>
+      <c r="E8" t="s">
         <v>658</v>
-      </c>
-      <c r="E8" t="s">
-        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2570,10 +2618,10 @@
         <v>lang$global(8)</v>
       </c>
       <c r="D9" t="s">
+        <v>659</v>
+      </c>
+      <c r="E9" t="s">
         <v>660</v>
-      </c>
-      <c r="E9" t="s">
-        <v>661</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2588,10 +2636,10 @@
         <v>lang$global(9)</v>
       </c>
       <c r="D10" t="s">
+        <v>661</v>
+      </c>
+      <c r="E10" t="s">
         <v>662</v>
-      </c>
-      <c r="E10" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2606,15 +2654,15 @@
         <v>lang$global(10)</v>
       </c>
       <c r="D11" t="s">
+        <v>663</v>
+      </c>
+      <c r="E11" t="s">
         <v>664</v>
-      </c>
-      <c r="E11" t="s">
-        <v>665</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -2624,15 +2672,15 @@
         <v>lang$global(11)</v>
       </c>
       <c r="D12" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E12" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2642,15 +2690,15 @@
         <v>lang$global(12)</v>
       </c>
       <c r="D13" t="s">
+        <v>621</v>
+      </c>
+      <c r="E13" t="s">
         <v>622</v>
-      </c>
-      <c r="E13" t="s">
-        <v>623</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2660,15 +2708,15 @@
         <v>lang$global(13)</v>
       </c>
       <c r="D14" t="s">
+        <v>623</v>
+      </c>
+      <c r="E14" t="s">
         <v>624</v>
-      </c>
-      <c r="E14" t="s">
-        <v>625</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2678,10 +2726,10 @@
         <v>lang$global(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="E15" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3153,16 +3201,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
-  <dimension ref="A1:E182"/>
+  <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="D65" sqref="D65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.1640625" customWidth="1"/>
-    <col min="2" max="2" width="3.33203125" customWidth="1"/>
+    <col min="2" max="2" width="8.6640625" customWidth="1"/>
     <col min="3" max="3" width="11.5" customWidth="1"/>
     <col min="4" max="4" width="38.6640625" customWidth="1"/>
     <col min="5" max="5" width="42.33203125" customWidth="1"/>
@@ -3173,10 +3221,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -3305,7 +3353,7 @@
         <v>lang$ui(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E8" t="s">
         <v>21</v>
@@ -3395,10 +3443,10 @@
         <v>lang$ui(12)</v>
       </c>
       <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
         <v>41</v>
-      </c>
-      <c r="E13" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -3485,15 +3533,15 @@
         <v>lang$ui(17)</v>
       </c>
       <c r="D18" t="s">
+        <v>681</v>
+      </c>
+      <c r="E18" t="s">
         <v>39</v>
-      </c>
-      <c r="E18" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -3503,15 +3551,15 @@
         <v>lang$ui(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -3521,15 +3569,15 @@
         <v>lang$ui(19)</v>
       </c>
       <c r="D20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -3539,15 +3587,15 @@
         <v>lang$ui(20)</v>
       </c>
       <c r="D21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -3557,15 +3605,15 @@
         <v>lang$ui(21)</v>
       </c>
       <c r="D22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E22" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -3575,15 +3623,15 @@
         <v>lang$ui(22)</v>
       </c>
       <c r="D23" t="s">
+        <v>51</v>
+      </c>
+      <c r="E23" t="s">
         <v>52</v>
-      </c>
-      <c r="E23" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -3593,15 +3641,15 @@
         <v>lang$ui(23)</v>
       </c>
       <c r="D24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E24" t="s">
         <v>56</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -3611,15 +3659,15 @@
         <v>lang$ui(24)</v>
       </c>
       <c r="D25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E25" t="s">
         <v>54</v>
-      </c>
-      <c r="E25" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -3629,15 +3677,15 @@
         <v>lang$ui(25)</v>
       </c>
       <c r="D26" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" t="s">
         <v>58</v>
-      </c>
-      <c r="E26" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -3647,15 +3695,15 @@
         <v>lang$ui(26)</v>
       </c>
       <c r="D27" t="s">
+        <v>59</v>
+      </c>
+      <c r="E27" t="s">
         <v>60</v>
-      </c>
-      <c r="E27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -3665,15 +3713,15 @@
         <v>lang$ui(27)</v>
       </c>
       <c r="D28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E28" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -3683,15 +3731,15 @@
         <v>lang$ui(28)</v>
       </c>
       <c r="D29" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" t="s">
         <v>63</v>
-      </c>
-      <c r="E29" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -3701,15 +3749,15 @@
         <v>lang$ui(29)</v>
       </c>
       <c r="D30" t="s">
+        <v>65</v>
+      </c>
+      <c r="E30" t="s">
         <v>66</v>
-      </c>
-      <c r="E30" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -3719,15 +3767,15 @@
         <v>lang$ui(30)</v>
       </c>
       <c r="D31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E31" t="s">
         <v>68</v>
-      </c>
-      <c r="E31" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -3737,15 +3785,15 @@
         <v>lang$ui(31)</v>
       </c>
       <c r="D32" t="s">
+        <v>69</v>
+      </c>
+      <c r="E32" t="s">
         <v>70</v>
-      </c>
-      <c r="E32" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -3755,15 +3803,15 @@
         <v>lang$ui(32)</v>
       </c>
       <c r="D33" t="s">
+        <v>71</v>
+      </c>
+      <c r="E33" t="s">
         <v>72</v>
-      </c>
-      <c r="E33" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -3773,15 +3821,15 @@
         <v>lang$ui(33)</v>
       </c>
       <c r="D34" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="E34" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -3791,15 +3839,15 @@
         <v>lang$ui(34)</v>
       </c>
       <c r="D35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E35" t="s">
         <v>75</v>
-      </c>
-      <c r="E35" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -3809,15 +3857,15 @@
         <v>lang$ui(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -3827,15 +3875,15 @@
         <v>lang$ui(36)</v>
       </c>
       <c r="D37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E37" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -3845,15 +3893,15 @@
         <v>lang$ui(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -3863,15 +3911,15 @@
         <v>lang$ui(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E39" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -3881,15 +3929,15 @@
         <v>lang$ui(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -3899,15 +3947,15 @@
         <v>lang$ui(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E41" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -3917,15 +3965,15 @@
         <v>lang$ui(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E42" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -3935,15 +3983,15 @@
         <v>lang$ui(42)</v>
       </c>
       <c r="D43" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E43" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -3953,15 +4001,15 @@
         <v>lang$ui(43)</v>
       </c>
       <c r="D44" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E44" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -3971,15 +4019,15 @@
         <v>lang$ui(44)</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E45" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -3989,15 +4037,15 @@
         <v>lang$ui(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -4007,15 +4055,15 @@
         <v>lang$ui(46)</v>
       </c>
       <c r="D47" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E47" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -4025,15 +4073,15 @@
         <v>lang$ui(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E48" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -4043,15 +4091,15 @@
         <v>lang$ui(48)</v>
       </c>
       <c r="D49" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -4061,15 +4109,15 @@
         <v>lang$ui(49)</v>
       </c>
       <c r="D50" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E50" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -4079,15 +4127,15 @@
         <v>lang$ui(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E51" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -4097,15 +4145,15 @@
         <v>lang$ui(51)</v>
       </c>
       <c r="D52" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -4115,15 +4163,15 @@
         <v>lang$ui(52)</v>
       </c>
       <c r="D53" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E53" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -4133,15 +4181,15 @@
         <v>lang$ui(53)</v>
       </c>
       <c r="D54" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E54" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -4151,15 +4199,15 @@
         <v>lang$ui(54)</v>
       </c>
       <c r="D55" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -4169,15 +4217,15 @@
         <v>lang$ui(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E56" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -4187,15 +4235,15 @@
         <v>lang$ui(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -4205,15 +4253,15 @@
         <v>lang$ui(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E58" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -4223,15 +4271,15 @@
         <v>lang$ui(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E59" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -4241,15 +4289,15 @@
         <v>lang$ui(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E60" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -4259,15 +4307,15 @@
         <v>lang$ui(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E61" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -4277,15 +4325,15 @@
         <v>lang$ui(61)</v>
       </c>
       <c r="D62" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -4295,15 +4343,15 @@
         <v>lang$ui(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -4313,15 +4361,15 @@
         <v>lang$ui(63)</v>
       </c>
       <c r="D64" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E64" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -4331,15 +4379,15 @@
         <v>lang$ui(64)</v>
       </c>
       <c r="D65" t="s">
+        <v>580</v>
+      </c>
+      <c r="E65" t="s">
         <v>581</v>
-      </c>
-      <c r="E65" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -4349,15 +4397,15 @@
         <v>lang$ui(65)</v>
       </c>
       <c r="D66" t="s">
+        <v>134</v>
+      </c>
+      <c r="E66" t="s">
         <v>135</v>
-      </c>
-      <c r="E66" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -4367,15 +4415,15 @@
         <v>lang$ui(66)</v>
       </c>
       <c r="D67" t="s">
+        <v>136</v>
+      </c>
+      <c r="E67" t="s">
         <v>137</v>
-      </c>
-      <c r="E67" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -4385,15 +4433,15 @@
         <v>lang$ui(67)</v>
       </c>
       <c r="D68" t="s">
+        <v>346</v>
+      </c>
+      <c r="E68" t="s">
         <v>347</v>
-      </c>
-      <c r="E68" t="s">
-        <v>348</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -4403,15 +4451,15 @@
         <v>lang$ui(68)</v>
       </c>
       <c r="D69" t="s">
+        <v>575</v>
+      </c>
+      <c r="E69" t="s">
         <v>576</v>
-      </c>
-      <c r="E69" t="s">
-        <v>577</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -4421,15 +4469,15 @@
         <v>lang$ui(69)</v>
       </c>
       <c r="D70" t="s">
+        <v>140</v>
+      </c>
+      <c r="E70" t="s">
         <v>141</v>
-      </c>
-      <c r="E70" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -4439,15 +4487,15 @@
         <v>lang$ui(70)</v>
       </c>
       <c r="D71" t="s">
+        <v>138</v>
+      </c>
+      <c r="E71" t="s">
         <v>139</v>
-      </c>
-      <c r="E71" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -4457,15 +4505,15 @@
         <v>lang$ui(71)</v>
       </c>
       <c r="D72" t="s">
+        <v>142</v>
+      </c>
+      <c r="E72" t="s">
         <v>143</v>
-      </c>
-      <c r="E72" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -4475,15 +4523,15 @@
         <v>lang$ui(72)</v>
       </c>
       <c r="D73" t="s">
+        <v>144</v>
+      </c>
+      <c r="E73" t="s">
         <v>145</v>
-      </c>
-      <c r="E73" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -4493,15 +4541,15 @@
         <v>lang$ui(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E74" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -4511,15 +4559,15 @@
         <v>lang$ui(74)</v>
       </c>
       <c r="D75" t="s">
+        <v>149</v>
+      </c>
+      <c r="E75" t="s">
         <v>150</v>
-      </c>
-      <c r="E75" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -4529,15 +4577,15 @@
         <v>lang$ui(75)</v>
       </c>
       <c r="D76" t="s">
+        <v>151</v>
+      </c>
+      <c r="E76" t="s">
         <v>152</v>
-      </c>
-      <c r="E76" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -4547,15 +4595,15 @@
         <v>lang$ui(76)</v>
       </c>
       <c r="D77" t="s">
+        <v>153</v>
+      </c>
+      <c r="E77" t="s">
         <v>154</v>
-      </c>
-      <c r="E77" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -4565,15 +4613,15 @@
         <v>lang$ui(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E78" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -4583,15 +4631,15 @@
         <v>lang$ui(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="E79" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -4601,15 +4649,15 @@
         <v>lang$ui(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="E80" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -4619,15 +4667,15 @@
         <v>lang$ui(80)</v>
       </c>
       <c r="D81" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E81" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -4637,15 +4685,15 @@
         <v>lang$ui(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E82" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -4655,15 +4703,15 @@
         <v>lang$ui(82)</v>
       </c>
       <c r="D83" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E83" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -4673,15 +4721,15 @@
         <v>lang$ui(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E84" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -4691,15 +4739,15 @@
         <v>lang$ui(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E85" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -4709,15 +4757,15 @@
         <v>lang$ui(85)</v>
       </c>
       <c r="D86" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E86" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -4727,15 +4775,15 @@
         <v>lang$ui(86)</v>
       </c>
       <c r="D87" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E87" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -4745,15 +4793,15 @@
         <v>lang$ui(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E88" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -4763,15 +4811,15 @@
         <v>lang$ui(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E89" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -4781,15 +4829,15 @@
         <v>lang$ui(89)</v>
       </c>
       <c r="D90" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E90" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -4799,15 +4847,15 @@
         <v>lang$ui(90)</v>
       </c>
       <c r="D91" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E91" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -4817,15 +4865,15 @@
         <v>lang$ui(91)</v>
       </c>
       <c r="D92" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E92" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -4835,15 +4883,15 @@
         <v>lang$ui(92)</v>
       </c>
       <c r="D93" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E93" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -4853,15 +4901,15 @@
         <v>lang$ui(93)</v>
       </c>
       <c r="D94" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E94" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -4871,15 +4919,15 @@
         <v>lang$ui(94)</v>
       </c>
       <c r="D95" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -4889,15 +4937,15 @@
         <v>lang$ui(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E96" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -4907,15 +4955,15 @@
         <v>lang$ui(96)</v>
       </c>
       <c r="D97" t="s">
+        <v>198</v>
+      </c>
+      <c r="E97" t="s">
         <v>199</v>
-      </c>
-      <c r="E97" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -4925,15 +4973,15 @@
         <v>lang$ui(97)</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -4943,15 +4991,15 @@
         <v>lang$ui(98)</v>
       </c>
       <c r="D99" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E99" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -4961,15 +5009,15 @@
         <v>lang$ui(99)</v>
       </c>
       <c r="D100" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -4979,15 +5027,15 @@
         <v>lang$ui(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E101" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -4997,15 +5045,15 @@
         <v>lang$ui(101)</v>
       </c>
       <c r="D102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E102" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -5015,15 +5063,15 @@
         <v>lang$ui(102)</v>
       </c>
       <c r="D103" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E103" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -5033,15 +5081,15 @@
         <v>lang$ui(103)</v>
       </c>
       <c r="D104" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E104" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -5051,15 +5099,15 @@
         <v>lang$ui(104)</v>
       </c>
       <c r="D105" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E105" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -5069,15 +5117,15 @@
         <v>lang$ui(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E106" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -5087,15 +5135,15 @@
         <v>lang$ui(106)</v>
       </c>
       <c r="D107" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E107" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -5105,15 +5153,15 @@
         <v>lang$ui(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="E108" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -5123,15 +5171,15 @@
         <v>lang$ui(108)</v>
       </c>
       <c r="D109" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E109" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -5141,15 +5189,15 @@
         <v>lang$ui(109)</v>
       </c>
       <c r="D110" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E110" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -5159,15 +5207,15 @@
         <v>lang$ui(110)</v>
       </c>
       <c r="D111" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E111" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -5177,15 +5225,15 @@
         <v>lang$ui(111)</v>
       </c>
       <c r="D112" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E112" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -5195,15 +5243,15 @@
         <v>lang$ui(112)</v>
       </c>
       <c r="D113" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E113" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -5213,15 +5261,15 @@
         <v>lang$ui(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E114" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -5231,15 +5279,15 @@
         <v>lang$ui(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -5249,15 +5297,15 @@
         <v>lang$ui(115)</v>
       </c>
       <c r="D116" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -5267,15 +5315,15 @@
         <v>lang$ui(116)</v>
       </c>
       <c r="D117" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E117" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -5285,15 +5333,15 @@
         <v>lang$ui(117)</v>
       </c>
       <c r="D118" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E118" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -5303,15 +5351,15 @@
         <v>lang$ui(118)</v>
       </c>
       <c r="D119" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E119" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -5321,15 +5369,15 @@
         <v>lang$ui(119)</v>
       </c>
       <c r="D120" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E120" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -5339,15 +5387,15 @@
         <v>lang$ui(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -5357,15 +5405,15 @@
         <v>lang$ui(121)</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -5375,15 +5423,15 @@
         <v>lang$ui(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -5393,15 +5441,15 @@
         <v>lang$ui(123)</v>
       </c>
       <c r="D124" t="s">
+        <v>242</v>
+      </c>
+      <c r="E124" t="s">
         <v>243</v>
-      </c>
-      <c r="E124" t="s">
-        <v>244</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -5411,15 +5459,15 @@
         <v>lang$ui(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E125" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -5429,15 +5477,15 @@
         <v>lang$ui(125)</v>
       </c>
       <c r="D126" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E126" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -5447,15 +5495,15 @@
         <v>lang$ui(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E127" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -5465,15 +5513,15 @@
         <v>lang$ui(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -5483,15 +5531,15 @@
         <v>lang$ui(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -5501,15 +5549,15 @@
         <v>lang$ui(129)</v>
       </c>
       <c r="D130" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E130" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -5519,15 +5567,15 @@
         <v>lang$ui(130)</v>
       </c>
       <c r="D131" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E131" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -5537,15 +5585,15 @@
         <v>lang$ui(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -5555,15 +5603,15 @@
         <v>lang$ui(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E133" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -5573,15 +5621,15 @@
         <v>lang$ui(133)</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -5591,15 +5639,15 @@
         <v>lang$ui(134)</v>
       </c>
       <c r="D135" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E135" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -5609,15 +5657,15 @@
         <v>lang$ui(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E136" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -5627,15 +5675,15 @@
         <v>lang$ui(136)</v>
       </c>
       <c r="D137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E137" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -5645,15 +5693,15 @@
         <v>lang$ui(137)</v>
       </c>
       <c r="D138" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E138" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -5663,15 +5711,15 @@
         <v>lang$ui(138)</v>
       </c>
       <c r="D139" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E139" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -5681,15 +5729,15 @@
         <v>lang$ui(139)</v>
       </c>
       <c r="D140" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E140" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B141">
         <v>140</v>
@@ -5699,15 +5747,15 @@
         <v>lang$ui(140)</v>
       </c>
       <c r="D141" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E141" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B142">
         <v>141</v>
@@ -5717,15 +5765,15 @@
         <v>lang$ui(141)</v>
       </c>
       <c r="D142" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E142" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B143">
         <v>142</v>
@@ -5735,15 +5783,15 @@
         <v>lang$ui(142)</v>
       </c>
       <c r="D143" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E143" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B144">
         <v>143</v>
@@ -5753,15 +5801,15 @@
         <v>lang$ui(143)</v>
       </c>
       <c r="D144" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="E144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B145">
         <v>144</v>
@@ -5771,15 +5819,15 @@
         <v>lang$ui(144)</v>
       </c>
       <c r="D145" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E145" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B146">
         <v>145</v>
@@ -5789,15 +5837,15 @@
         <v>lang$ui(145)</v>
       </c>
       <c r="D146" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="E146" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B147">
         <v>146</v>
@@ -5807,15 +5855,15 @@
         <v>lang$ui(146)</v>
       </c>
       <c r="D147" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E147" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B148">
         <v>147</v>
@@ -5825,15 +5873,15 @@
         <v>lang$ui(147)</v>
       </c>
       <c r="D148" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B149">
         <v>148</v>
@@ -5843,15 +5891,15 @@
         <v>lang$ui(148)</v>
       </c>
       <c r="D149" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E149" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B150">
         <v>149</v>
@@ -5861,15 +5909,15 @@
         <v>lang$ui(149)</v>
       </c>
       <c r="D150" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B151">
         <v>150</v>
@@ -5879,15 +5927,15 @@
         <v>lang$ui(150)</v>
       </c>
       <c r="D151" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E151" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B152">
         <v>151</v>
@@ -5897,15 +5945,15 @@
         <v>lang$ui(151)</v>
       </c>
       <c r="D152" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E152" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153">
         <v>152</v>
@@ -5915,15 +5963,15 @@
         <v>lang$ui(152)</v>
       </c>
       <c r="D153" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E153" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B154">
         <v>153</v>
@@ -5933,15 +5981,15 @@
         <v>lang$ui(153)</v>
       </c>
       <c r="D154" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E154" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B155">
         <v>154</v>
@@ -5951,15 +5999,15 @@
         <v>lang$ui(154)</v>
       </c>
       <c r="D155" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E155" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B156">
         <v>155</v>
@@ -5969,15 +6017,15 @@
         <v>lang$ui(155)</v>
       </c>
       <c r="D156" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E156" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B157">
         <v>156</v>
@@ -5987,15 +6035,15 @@
         <v>lang$ui(156)</v>
       </c>
       <c r="D157" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="E157" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B158">
         <v>157</v>
@@ -6005,15 +6053,15 @@
         <v>lang$ui(157)</v>
       </c>
       <c r="D158" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E158" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B159">
         <v>158</v>
@@ -6023,15 +6071,15 @@
         <v>lang$ui(158)</v>
       </c>
       <c r="D159" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="E159" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B160">
         <v>159</v>
@@ -6041,15 +6089,15 @@
         <v>lang$ui(159)</v>
       </c>
       <c r="D160" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="E160" t="s">
         <v>600</v>
-      </c>
-      <c r="E160" t="s">
-        <v>601</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B161">
         <v>160</v>
@@ -6059,15 +6107,15 @@
         <v>lang$ui(160)</v>
       </c>
       <c r="D161" s="2" t="s">
+        <v>591</v>
+      </c>
+      <c r="E161" t="s">
         <v>592</v>
-      </c>
-      <c r="E161" t="s">
-        <v>593</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B162">
         <v>161</v>
@@ -6077,15 +6125,15 @@
         <v>lang$ui(161)</v>
       </c>
       <c r="D162" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="E162" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B163">
         <v>162</v>
@@ -6095,15 +6143,15 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="E163" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B164">
         <v>163</v>
@@ -6113,15 +6161,15 @@
         <v>lang$ui(163)</v>
       </c>
       <c r="D164" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="E164" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B165">
         <v>164</v>
@@ -6131,15 +6179,15 @@
         <v>lang$ui(164)</v>
       </c>
       <c r="D165" t="s">
+        <v>595</v>
+      </c>
+      <c r="E165" t="s">
         <v>596</v>
-      </c>
-      <c r="E165" t="s">
-        <v>597</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B166">
         <v>165</v>
@@ -6149,15 +6197,15 @@
         <v>lang$ui(165)</v>
       </c>
       <c r="D166" t="s">
+        <v>597</v>
+      </c>
+      <c r="E166" t="s">
         <v>598</v>
-      </c>
-      <c r="E166" t="s">
-        <v>599</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B167">
         <v>166</v>
@@ -6167,15 +6215,15 @@
         <v>lang$ui(166)</v>
       </c>
       <c r="D167" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E167" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B168">
         <v>167</v>
@@ -6185,15 +6233,15 @@
         <v>lang$ui(167)</v>
       </c>
       <c r="D168" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="E168" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B169">
         <v>168</v>
@@ -6203,15 +6251,15 @@
         <v>lang$ui(168)</v>
       </c>
       <c r="D169" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E169" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B170">
         <v>169</v>
@@ -6221,15 +6269,15 @@
         <v>lang$ui(169)</v>
       </c>
       <c r="D170" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E170" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B171">
         <v>170</v>
@@ -6239,15 +6287,15 @@
         <v>lang$ui(170)</v>
       </c>
       <c r="D171" t="s">
+        <v>578</v>
+      </c>
+      <c r="E171" t="s">
         <v>579</v>
-      </c>
-      <c r="E171" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B172">
         <v>171</v>
@@ -6257,15 +6305,15 @@
         <v>lang$ui(171)</v>
       </c>
       <c r="D172" t="s">
+        <v>610</v>
+      </c>
+      <c r="E172" t="s">
         <v>611</v>
-      </c>
-      <c r="E172" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B173">
         <v>172</v>
@@ -6275,15 +6323,15 @@
         <v>lang$ui(172)</v>
       </c>
       <c r="D173" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="E173" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B174">
         <v>173</v>
@@ -6293,15 +6341,15 @@
         <v>lang$ui(173)</v>
       </c>
       <c r="D174" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="E174" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B175">
         <v>174</v>
@@ -6311,15 +6359,15 @@
         <v>lang$ui(174)</v>
       </c>
       <c r="D175" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="E175" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B176">
         <v>175</v>
@@ -6329,15 +6377,15 @@
         <v>lang$ui(175)</v>
       </c>
       <c r="D176" t="s">
+        <v>608</v>
+      </c>
+      <c r="E176" t="s">
         <v>609</v>
-      </c>
-      <c r="E176" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B177">
         <v>176</v>
@@ -6347,15 +6395,15 @@
         <v>lang$ui(176)</v>
       </c>
       <c r="D177" t="s">
+        <v>612</v>
+      </c>
+      <c r="E177" t="s">
         <v>613</v>
-      </c>
-      <c r="E177" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B178">
         <v>177</v>
@@ -6365,15 +6413,15 @@
         <v>lang$ui(177)</v>
       </c>
       <c r="D178" t="s">
+        <v>616</v>
+      </c>
+      <c r="E178" t="s">
         <v>617</v>
-      </c>
-      <c r="E178" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B179">
         <v>178</v>
@@ -6383,15 +6431,15 @@
         <v>lang$ui(178)</v>
       </c>
       <c r="D179" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E179" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B180">
         <v>179</v>
@@ -6401,17 +6449,173 @@
         <v>lang$ui(179)</v>
       </c>
       <c r="D180" t="s">
+        <v>651</v>
+      </c>
+      <c r="E180" t="s">
         <v>652</v>
       </c>
-      <c r="E180" t="s">
-        <v>653</v>
-      </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C181" s="3"/>
+      <c r="A181" t="s">
+        <v>42</v>
+      </c>
+      <c r="B181">
+        <v>180</v>
+      </c>
+      <c r="C181" s="3" t="str">
+        <f t="shared" ref="C181:C187" si="7">"lang$ui(" &amp; B181 &amp; ")"</f>
+        <v>lang$ui(180)</v>
+      </c>
+      <c r="D181" t="s">
+        <v>665</v>
+      </c>
+      <c r="E181" t="s">
+        <v>665</v>
+      </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C182" s="3"/>
+      <c r="A182" t="s">
+        <v>42</v>
+      </c>
+      <c r="B182">
+        <v>181</v>
+      </c>
+      <c r="C182" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>lang$ui(181)</v>
+      </c>
+      <c r="D182" t="s">
+        <v>680</v>
+      </c>
+      <c r="E182" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>42</v>
+      </c>
+      <c r="B183">
+        <v>182</v>
+      </c>
+      <c r="C183" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>lang$ui(182)</v>
+      </c>
+      <c r="D183" t="s">
+        <v>673</v>
+      </c>
+      <c r="E183" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>248</v>
+      </c>
+      <c r="B184">
+        <v>183</v>
+      </c>
+      <c r="C184" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>lang$ui(183)</v>
+      </c>
+      <c r="D184" t="s">
+        <v>677</v>
+      </c>
+      <c r="E184" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>248</v>
+      </c>
+      <c r="B185">
+        <v>184</v>
+      </c>
+      <c r="C185" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>lang$ui(184)</v>
+      </c>
+      <c r="D185" t="s">
+        <v>678</v>
+      </c>
+      <c r="E185" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>248</v>
+      </c>
+      <c r="B186">
+        <v>185</v>
+      </c>
+      <c r="C186" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>lang$ui(185)</v>
+      </c>
+      <c r="D186" t="s">
+        <v>679</v>
+      </c>
+      <c r="E186" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>64</v>
+      </c>
+      <c r="B187">
+        <v>186</v>
+      </c>
+      <c r="C187" s="3" t="str">
+        <f t="shared" si="7"/>
+        <v>lang$ui(186)</v>
+      </c>
+      <c r="D187" t="s">
+        <v>674</v>
+      </c>
+      <c r="E187" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>64</v>
+      </c>
+      <c r="B188">
+        <v>187</v>
+      </c>
+      <c r="C188" s="3" t="str">
+        <f t="shared" ref="C188:C189" si="8">"lang$ui(" &amp; B188 &amp; ")"</f>
+        <v>lang$ui(187)</v>
+      </c>
+      <c r="D188" t="s">
+        <v>675</v>
+      </c>
+      <c r="E188" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>64</v>
+      </c>
+      <c r="B189">
+        <v>188</v>
+      </c>
+      <c r="C189" s="3" t="str">
+        <f t="shared" si="8"/>
+        <v>lang$ui(188)</v>
+      </c>
+      <c r="D189" t="s">
+        <v>676</v>
+      </c>
+      <c r="E189" t="s">
+        <v>672</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -6438,10 +6642,10 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C1" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D1" t="s">
         <v>0</v>
@@ -6452,7 +6656,7 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -6462,10 +6666,10 @@
         <v>lang$server(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E2" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -6497,7 +6701,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -6507,15 +6711,15 @@
         <v>lang$server(5)</v>
       </c>
       <c r="D6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -6525,15 +6729,15 @@
         <v>lang$server(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E7" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -6543,15 +6747,15 @@
         <v>lang$server(7)</v>
       </c>
       <c r="D8" t="s">
+        <v>327</v>
+      </c>
+      <c r="E8" t="s">
         <v>328</v>
-      </c>
-      <c r="E8" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -6561,15 +6765,15 @@
         <v>lang$server(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E9" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -6579,15 +6783,15 @@
         <v>lang$server(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="E10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -6597,15 +6801,15 @@
         <v>lang$server(10)</v>
       </c>
       <c r="D11" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" t="s">
         <v>336</v>
-      </c>
-      <c r="E11" t="s">
-        <v>337</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -6615,15 +6819,15 @@
         <v>lang$server(11)</v>
       </c>
       <c r="D12" t="s">
+        <v>338</v>
+      </c>
+      <c r="E12" t="s">
         <v>339</v>
-      </c>
-      <c r="E12" t="s">
-        <v>340</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -6633,15 +6837,15 @@
         <v>lang$server(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E13" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -6651,15 +6855,15 @@
         <v>lang$server(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E14" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -6669,15 +6873,15 @@
         <v>lang$server(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E15" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -6687,15 +6891,15 @@
         <v>lang$server(15)</v>
       </c>
       <c r="D16" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="E16" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -6705,15 +6909,15 @@
         <v>lang$server(16)</v>
       </c>
       <c r="D17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -6723,15 +6927,15 @@
         <v>lang$server(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E18" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -6741,15 +6945,15 @@
         <v>lang$server(18)</v>
       </c>
       <c r="D19" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E19" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -6759,15 +6963,15 @@
         <v>lang$server(19)</v>
       </c>
       <c r="D20" t="s">
+        <v>356</v>
+      </c>
+      <c r="E20" t="s">
         <v>357</v>
-      </c>
-      <c r="E20" t="s">
-        <v>358</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -6777,15 +6981,15 @@
         <v>lang$server(20)</v>
       </c>
       <c r="D21" t="s">
+        <v>358</v>
+      </c>
+      <c r="E21" t="s">
         <v>359</v>
-      </c>
-      <c r="E21" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22">
         <v>21</v>
@@ -6795,15 +6999,15 @@
         <v>lang$server(21)</v>
       </c>
       <c r="D22" t="s">
+        <v>360</v>
+      </c>
+      <c r="E22" t="s">
         <v>361</v>
-      </c>
-      <c r="E22" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B23">
         <v>22</v>
@@ -6813,15 +7017,15 @@
         <v>lang$server(22)</v>
       </c>
       <c r="D23" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="E23" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B24">
         <v>23</v>
@@ -6831,15 +7035,15 @@
         <v>lang$server(23)</v>
       </c>
       <c r="D24" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E24" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B25">
         <v>24</v>
@@ -6849,15 +7053,15 @@
         <v>lang$server(24)</v>
       </c>
       <c r="D25" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E25" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B26">
         <v>25</v>
@@ -6867,15 +7071,15 @@
         <v>lang$server(25)</v>
       </c>
       <c r="D26" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E26" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B27">
         <v>26</v>
@@ -6885,15 +7089,15 @@
         <v>lang$server(26)</v>
       </c>
       <c r="D27" t="s">
+        <v>368</v>
+      </c>
+      <c r="E27" t="s">
         <v>369</v>
-      </c>
-      <c r="E27" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B28">
         <v>27</v>
@@ -6903,15 +7107,15 @@
         <v>lang$server(27)</v>
       </c>
       <c r="D28" t="s">
+        <v>370</v>
+      </c>
+      <c r="E28" t="s">
         <v>371</v>
-      </c>
-      <c r="E28" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B29">
         <v>28</v>
@@ -6921,15 +7125,15 @@
         <v>lang$server(28)</v>
       </c>
       <c r="D29" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E29" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B30">
         <v>29</v>
@@ -6939,15 +7143,15 @@
         <v>lang$server(29)</v>
       </c>
       <c r="D30" t="s">
+        <v>376</v>
+      </c>
+      <c r="E30" t="s">
         <v>377</v>
-      </c>
-      <c r="E30" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B31">
         <v>30</v>
@@ -6957,15 +7161,15 @@
         <v>lang$server(30)</v>
       </c>
       <c r="D31" t="s">
+        <v>378</v>
+      </c>
+      <c r="E31" t="s">
         <v>379</v>
-      </c>
-      <c r="E31" t="s">
-        <v>380</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B32">
         <v>31</v>
@@ -6975,15 +7179,15 @@
         <v>lang$server(31)</v>
       </c>
       <c r="D32" t="s">
+        <v>381</v>
+      </c>
+      <c r="E32" t="s">
         <v>382</v>
-      </c>
-      <c r="E32" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B33">
         <v>32</v>
@@ -6993,15 +7197,15 @@
         <v>lang$server(32)</v>
       </c>
       <c r="D33" t="s">
+        <v>383</v>
+      </c>
+      <c r="E33" t="s">
         <v>384</v>
-      </c>
-      <c r="E33" t="s">
-        <v>385</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B34">
         <v>33</v>
@@ -7011,15 +7215,15 @@
         <v>lang$server(33)</v>
       </c>
       <c r="D34" t="s">
+        <v>385</v>
+      </c>
+      <c r="E34" t="s">
         <v>386</v>
-      </c>
-      <c r="E34" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B35">
         <v>34</v>
@@ -7029,15 +7233,15 @@
         <v>lang$server(34)</v>
       </c>
       <c r="D35" t="s">
+        <v>387</v>
+      </c>
+      <c r="E35" t="s">
         <v>388</v>
-      </c>
-      <c r="E35" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B36">
         <v>35</v>
@@ -7047,15 +7251,15 @@
         <v>lang$server(35)</v>
       </c>
       <c r="D36" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E36" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B37">
         <v>36</v>
@@ -7065,15 +7269,15 @@
         <v>lang$server(36)</v>
       </c>
       <c r="D37" t="s">
+        <v>392</v>
+      </c>
+      <c r="E37" t="s">
         <v>393</v>
-      </c>
-      <c r="E37" t="s">
-        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B38">
         <v>37</v>
@@ -7083,15 +7287,15 @@
         <v>lang$server(37)</v>
       </c>
       <c r="D38" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="E38" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B39">
         <v>38</v>
@@ -7101,15 +7305,15 @@
         <v>lang$server(38)</v>
       </c>
       <c r="D39" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E39" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B40">
         <v>39</v>
@@ -7119,15 +7323,15 @@
         <v>lang$server(39)</v>
       </c>
       <c r="D40" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="E40" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B41">
         <v>40</v>
@@ -7137,15 +7341,15 @@
         <v>lang$server(40)</v>
       </c>
       <c r="D41" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E41" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B42">
         <v>41</v>
@@ -7155,15 +7359,15 @@
         <v>lang$server(41)</v>
       </c>
       <c r="D42" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="E42" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B43">
         <v>42</v>
@@ -7173,15 +7377,15 @@
         <v>lang$server(42)</v>
       </c>
       <c r="D43" t="s">
+        <v>402</v>
+      </c>
+      <c r="E43" t="s">
         <v>403</v>
-      </c>
-      <c r="E43" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B44">
         <v>43</v>
@@ -7191,15 +7395,15 @@
         <v>lang$server(43)</v>
       </c>
       <c r="D44" t="s">
+        <v>404</v>
+      </c>
+      <c r="E44" t="s">
         <v>405</v>
-      </c>
-      <c r="E44" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B45">
         <v>44</v>
@@ -7209,15 +7413,15 @@
         <v>lang$server(44)</v>
       </c>
       <c r="D45" t="s">
+        <v>406</v>
+      </c>
+      <c r="E45" t="s">
         <v>407</v>
-      </c>
-      <c r="E45" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B46">
         <v>45</v>
@@ -7227,15 +7431,15 @@
         <v>lang$server(45)</v>
       </c>
       <c r="D46" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="E46" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B47">
         <v>46</v>
@@ -7245,15 +7449,15 @@
         <v>lang$server(46)</v>
       </c>
       <c r="D47" t="s">
+        <v>409</v>
+      </c>
+      <c r="E47" t="s">
         <v>410</v>
-      </c>
-      <c r="E47" t="s">
-        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B48">
         <v>47</v>
@@ -7263,15 +7467,15 @@
         <v>lang$server(47)</v>
       </c>
       <c r="D48" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="E48" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B49">
         <v>48</v>
@@ -7281,15 +7485,15 @@
         <v>lang$server(48)</v>
       </c>
       <c r="D49" t="s">
+        <v>412</v>
+      </c>
+      <c r="E49" t="s">
         <v>413</v>
-      </c>
-      <c r="E49" t="s">
-        <v>414</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B50">
         <v>49</v>
@@ -7299,15 +7503,15 @@
         <v>lang$server(49)</v>
       </c>
       <c r="D50" t="s">
+        <v>414</v>
+      </c>
+      <c r="E50" t="s">
         <v>415</v>
-      </c>
-      <c r="E50" t="s">
-        <v>416</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B51">
         <v>50</v>
@@ -7317,15 +7521,15 @@
         <v>lang$server(50)</v>
       </c>
       <c r="D51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B52">
         <v>51</v>
@@ -7335,15 +7539,15 @@
         <v>lang$server(51)</v>
       </c>
       <c r="D52" t="s">
+        <v>418</v>
+      </c>
+      <c r="E52" t="s">
         <v>419</v>
-      </c>
-      <c r="E52" t="s">
-        <v>420</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B53">
         <v>52</v>
@@ -7353,15 +7557,15 @@
         <v>lang$server(52)</v>
       </c>
       <c r="D53" t="s">
+        <v>420</v>
+      </c>
+      <c r="E53" t="s">
         <v>421</v>
-      </c>
-      <c r="E53" t="s">
-        <v>422</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B54">
         <v>53</v>
@@ -7371,15 +7575,15 @@
         <v>lang$server(53)</v>
       </c>
       <c r="D54" t="s">
+        <v>422</v>
+      </c>
+      <c r="E54" t="s">
         <v>423</v>
-      </c>
-      <c r="E54" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B55">
         <v>54</v>
@@ -7389,15 +7593,15 @@
         <v>lang$server(54)</v>
       </c>
       <c r="D55" t="s">
+        <v>138</v>
+      </c>
+      <c r="E55" t="s">
         <v>139</v>
-      </c>
-      <c r="E55" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B56">
         <v>55</v>
@@ -7407,15 +7611,15 @@
         <v>lang$server(55)</v>
       </c>
       <c r="D56" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E56" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B57">
         <v>56</v>
@@ -7425,15 +7629,15 @@
         <v>lang$server(56)</v>
       </c>
       <c r="D57" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E57" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B58">
         <v>57</v>
@@ -7443,15 +7647,15 @@
         <v>lang$server(57)</v>
       </c>
       <c r="D58" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B59">
         <v>58</v>
@@ -7461,15 +7665,15 @@
         <v>lang$server(58)</v>
       </c>
       <c r="D59" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E59" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B60">
         <v>59</v>
@@ -7479,15 +7683,15 @@
         <v>lang$server(59)</v>
       </c>
       <c r="D60" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E60" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B61">
         <v>60</v>
@@ -7497,15 +7701,15 @@
         <v>lang$server(60)</v>
       </c>
       <c r="D61" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E61" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B62">
         <v>61</v>
@@ -7515,15 +7719,15 @@
         <v>lang$server(61)</v>
       </c>
       <c r="D62" t="s">
+        <v>439</v>
+      </c>
+      <c r="E62" t="s">
         <v>440</v>
-      </c>
-      <c r="E62" t="s">
-        <v>441</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B63">
         <v>62</v>
@@ -7533,15 +7737,15 @@
         <v>lang$server(62)</v>
       </c>
       <c r="D63" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E63" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B64">
         <v>63</v>
@@ -7551,15 +7755,15 @@
         <v>lang$server(63)</v>
       </c>
       <c r="D64" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E64" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B65">
         <v>64</v>
@@ -7569,15 +7773,15 @@
         <v>lang$server(64)</v>
       </c>
       <c r="D65" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E65" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B66">
         <v>65</v>
@@ -7587,15 +7791,15 @@
         <v>lang$server(65)</v>
       </c>
       <c r="D66" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="E66" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B67">
         <v>66</v>
@@ -7605,15 +7809,15 @@
         <v>lang$server(66)</v>
       </c>
       <c r="D67" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E67" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B68">
         <v>67</v>
@@ -7623,15 +7827,15 @@
         <v>lang$server(67)</v>
       </c>
       <c r="D68" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E68" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B69">
         <v>68</v>
@@ -7641,15 +7845,15 @@
         <v>lang$server(68)</v>
       </c>
       <c r="D69" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E69" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B70">
         <v>69</v>
@@ -7659,15 +7863,15 @@
         <v>lang$server(69)</v>
       </c>
       <c r="D70" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E70" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B71">
         <v>70</v>
@@ -7677,15 +7881,15 @@
         <v>lang$server(70)</v>
       </c>
       <c r="D71" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E71" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B72">
         <v>71</v>
@@ -7695,15 +7899,15 @@
         <v>lang$server(71)</v>
       </c>
       <c r="D72" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E72" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B73">
         <v>72</v>
@@ -7713,15 +7917,15 @@
         <v>lang$server(72)</v>
       </c>
       <c r="D73" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E73" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B74">
         <v>73</v>
@@ -7731,15 +7935,15 @@
         <v>lang$server(73)</v>
       </c>
       <c r="D74" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E74" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B75">
         <v>74</v>
@@ -7749,15 +7953,15 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
+        <v>634</v>
+      </c>
+      <c r="E75" t="s">
         <v>635</v>
-      </c>
-      <c r="E75" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B76">
         <v>75</v>
@@ -7767,15 +7971,15 @@
         <v>lang$server(75)</v>
       </c>
       <c r="D76" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E76" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B77">
         <v>76</v>
@@ -7785,15 +7989,15 @@
         <v>lang$server(76)</v>
       </c>
       <c r="D77" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="E77" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B78">
         <v>77</v>
@@ -7803,15 +8007,15 @@
         <v>lang$server(77)</v>
       </c>
       <c r="D78" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E78" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B79">
         <v>78</v>
@@ -7821,15 +8025,15 @@
         <v>lang$server(78)</v>
       </c>
       <c r="D79" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="E79" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B80">
         <v>79</v>
@@ -7839,15 +8043,15 @@
         <v>lang$server(79)</v>
       </c>
       <c r="D80" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="E80" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B81">
         <v>80</v>
@@ -7857,15 +8061,15 @@
         <v>lang$server(80)</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B82">
         <v>81</v>
@@ -7875,15 +8079,15 @@
         <v>lang$server(81)</v>
       </c>
       <c r="D82" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="E82" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B83">
         <v>82</v>
@@ -7893,15 +8097,15 @@
         <v>lang$server(82)</v>
       </c>
       <c r="D83" t="s">
+        <v>475</v>
+      </c>
+      <c r="E83" t="s">
         <v>476</v>
-      </c>
-      <c r="E83" t="s">
-        <v>477</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B84">
         <v>83</v>
@@ -7911,15 +8115,15 @@
         <v>lang$server(83)</v>
       </c>
       <c r="D84" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="E84" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B85">
         <v>84</v>
@@ -7929,15 +8133,15 @@
         <v>lang$server(84)</v>
       </c>
       <c r="D85" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="E85" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B86">
         <v>85</v>
@@ -7947,15 +8151,15 @@
         <v>lang$server(85)</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B87">
         <v>86</v>
@@ -7965,15 +8169,15 @@
         <v>lang$server(86)</v>
       </c>
       <c r="D87" t="s">
+        <v>480</v>
+      </c>
+      <c r="E87" s="4" t="s">
         <v>481</v>
-      </c>
-      <c r="E87" s="4" t="s">
-        <v>482</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B88">
         <v>87</v>
@@ -7983,15 +8187,15 @@
         <v>lang$server(87)</v>
       </c>
       <c r="D88" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="E88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B89">
         <v>88</v>
@@ -8001,15 +8205,15 @@
         <v>lang$server(88)</v>
       </c>
       <c r="D89" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E89" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B90">
         <v>89</v>
@@ -8021,7 +8225,7 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B91">
         <v>90</v>
@@ -8031,15 +8235,15 @@
         <v>lang$server(90)</v>
       </c>
       <c r="D91" t="s">
+        <v>486</v>
+      </c>
+      <c r="E91" t="s">
         <v>487</v>
-      </c>
-      <c r="E91" t="s">
-        <v>488</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B92">
         <v>91</v>
@@ -8049,15 +8253,15 @@
         <v>lang$server(91)</v>
       </c>
       <c r="D92" t="s">
+        <v>489</v>
+      </c>
+      <c r="E92" t="s">
         <v>490</v>
-      </c>
-      <c r="E92" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B93">
         <v>92</v>
@@ -8067,15 +8271,15 @@
         <v>lang$server(92)</v>
       </c>
       <c r="D93" t="s">
+        <v>491</v>
+      </c>
+      <c r="E93" t="s">
         <v>492</v>
-      </c>
-      <c r="E93" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B94">
         <v>93</v>
@@ -8085,15 +8289,15 @@
         <v>lang$server(93)</v>
       </c>
       <c r="D94" t="s">
+        <v>493</v>
+      </c>
+      <c r="E94" t="s">
         <v>494</v>
-      </c>
-      <c r="E94" t="s">
-        <v>495</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B95">
         <v>94</v>
@@ -8103,15 +8307,15 @@
         <v>lang$server(94)</v>
       </c>
       <c r="D95" t="s">
+        <v>495</v>
+      </c>
+      <c r="E95" s="1" t="s">
         <v>496</v>
-      </c>
-      <c r="E95" s="1" t="s">
-        <v>497</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B96">
         <v>95</v>
@@ -8121,15 +8325,15 @@
         <v>lang$server(95)</v>
       </c>
       <c r="D96" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="E96" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B97">
         <v>96</v>
@@ -8139,15 +8343,15 @@
         <v>lang$server(96)</v>
       </c>
       <c r="D97" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B98">
         <v>97</v>
@@ -8157,15 +8361,15 @@
         <v>lang$server(97)</v>
       </c>
       <c r="D98" t="s">
+        <v>501</v>
+      </c>
+      <c r="E98" t="s">
         <v>502</v>
-      </c>
-      <c r="E98" t="s">
-        <v>503</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B99">
         <v>98</v>
@@ -8175,15 +8379,15 @@
         <v>lang$server(98)</v>
       </c>
       <c r="D99" t="s">
+        <v>503</v>
+      </c>
+      <c r="E99" t="s">
         <v>504</v>
-      </c>
-      <c r="E99" t="s">
-        <v>505</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B100">
         <v>99</v>
@@ -8193,15 +8397,15 @@
         <v>lang$server(99)</v>
       </c>
       <c r="D100" t="s">
+        <v>505</v>
+      </c>
+      <c r="E100" t="s">
         <v>506</v>
-      </c>
-      <c r="E100" t="s">
-        <v>507</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B101">
         <v>100</v>
@@ -8211,15 +8415,15 @@
         <v>lang$server(100)</v>
       </c>
       <c r="D101" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="E101" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B102">
         <v>101</v>
@@ -8229,15 +8433,15 @@
         <v>lang$server(101)</v>
       </c>
       <c r="D102" t="s">
+        <v>508</v>
+      </c>
+      <c r="E102" t="s">
         <v>509</v>
-      </c>
-      <c r="E102" t="s">
-        <v>510</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B103">
         <v>102</v>
@@ -8247,15 +8451,15 @@
         <v>lang$server(102)</v>
       </c>
       <c r="D103" t="s">
+        <v>510</v>
+      </c>
+      <c r="E103" t="s">
         <v>511</v>
-      </c>
-      <c r="E103" t="s">
-        <v>512</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B104">
         <v>103</v>
@@ -8265,15 +8469,15 @@
         <v>lang$server(103)</v>
       </c>
       <c r="D104" t="s">
+        <v>512</v>
+      </c>
+      <c r="E104" t="s">
         <v>513</v>
-      </c>
-      <c r="E104" t="s">
-        <v>514</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B105">
         <v>104</v>
@@ -8283,15 +8487,15 @@
         <v>lang$server(104)</v>
       </c>
       <c r="D105" t="s">
+        <v>514</v>
+      </c>
+      <c r="E105" t="s">
         <v>515</v>
-      </c>
-      <c r="E105" t="s">
-        <v>516</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B106">
         <v>105</v>
@@ -8301,15 +8505,15 @@
         <v>lang$server(105)</v>
       </c>
       <c r="D106" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B107">
         <v>106</v>
@@ -8319,15 +8523,15 @@
         <v>lang$server(106)</v>
       </c>
       <c r="D107" t="s">
+        <v>517</v>
+      </c>
+      <c r="E107" t="s">
         <v>518</v>
-      </c>
-      <c r="E107" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B108">
         <v>107</v>
@@ -8337,15 +8541,15 @@
         <v>lang$server(107)</v>
       </c>
       <c r="D108" t="s">
+        <v>519</v>
+      </c>
+      <c r="E108" t="s">
         <v>520</v>
-      </c>
-      <c r="E108" t="s">
-        <v>521</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B109">
         <v>108</v>
@@ -8355,15 +8559,15 @@
         <v>lang$server(108)</v>
       </c>
       <c r="D109" t="s">
+        <v>521</v>
+      </c>
+      <c r="E109" t="s">
         <v>522</v>
-      </c>
-      <c r="E109" t="s">
-        <v>523</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B110">
         <v>109</v>
@@ -8373,15 +8577,15 @@
         <v>lang$server(109)</v>
       </c>
       <c r="D110" t="s">
+        <v>523</v>
+      </c>
+      <c r="E110" t="s">
         <v>524</v>
-      </c>
-      <c r="E110" t="s">
-        <v>525</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B111">
         <v>110</v>
@@ -8391,15 +8595,15 @@
         <v>lang$server(110)</v>
       </c>
       <c r="D111" t="s">
+        <v>525</v>
+      </c>
+      <c r="E111" t="s">
         <v>526</v>
-      </c>
-      <c r="E111" t="s">
-        <v>527</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B112">
         <v>111</v>
@@ -8409,15 +8613,15 @@
         <v>lang$server(111)</v>
       </c>
       <c r="D112" t="s">
+        <v>528</v>
+      </c>
+      <c r="E112" t="s">
         <v>529</v>
-      </c>
-      <c r="E112" t="s">
-        <v>530</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B113">
         <v>112</v>
@@ -8427,15 +8631,15 @@
         <v>lang$server(112)</v>
       </c>
       <c r="D113" t="s">
+        <v>530</v>
+      </c>
+      <c r="E113" t="s">
         <v>531</v>
-      </c>
-      <c r="E113" t="s">
-        <v>532</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B114">
         <v>113</v>
@@ -8445,15 +8649,15 @@
         <v>lang$server(113)</v>
       </c>
       <c r="D114" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="E114" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B115">
         <v>114</v>
@@ -8463,15 +8667,15 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="E115" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B116">
         <v>115</v>
@@ -8481,15 +8685,15 @@
         <v>lang$server(115)</v>
       </c>
       <c r="D116" t="s">
+        <v>533</v>
+      </c>
+      <c r="E116" t="s">
         <v>534</v>
-      </c>
-      <c r="E116" t="s">
-        <v>535</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B117">
         <v>116</v>
@@ -8499,15 +8703,15 @@
         <v>lang$server(116)</v>
       </c>
       <c r="D117" s="3" t="s">
+        <v>535</v>
+      </c>
+      <c r="E117" t="s">
         <v>536</v>
-      </c>
-      <c r="E117" t="s">
-        <v>537</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B118">
         <v>117</v>
@@ -8517,15 +8721,15 @@
         <v>lang$server(117)</v>
       </c>
       <c r="D118" t="s">
+        <v>537</v>
+      </c>
+      <c r="E118" t="s">
         <v>538</v>
-      </c>
-      <c r="E118" t="s">
-        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B119">
         <v>118</v>
@@ -8535,15 +8739,15 @@
         <v>lang$server(118)</v>
       </c>
       <c r="D119" t="s">
+        <v>539</v>
+      </c>
+      <c r="E119" t="s">
         <v>540</v>
-      </c>
-      <c r="E119" t="s">
-        <v>541</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B120">
         <v>119</v>
@@ -8553,15 +8757,15 @@
         <v>lang$server(119)</v>
       </c>
       <c r="D120" t="s">
+        <v>541</v>
+      </c>
+      <c r="E120" t="s">
         <v>542</v>
-      </c>
-      <c r="E120" t="s">
-        <v>543</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B121">
         <v>120</v>
@@ -8571,15 +8775,15 @@
         <v>lang$server(120)</v>
       </c>
       <c r="D121" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E121" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B122">
         <v>121</v>
@@ -8589,15 +8793,15 @@
         <v>lang$server(121)</v>
       </c>
       <c r="D122" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E122" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B123">
         <v>122</v>
@@ -8607,15 +8811,15 @@
         <v>lang$server(122)</v>
       </c>
       <c r="D123" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E123" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B124">
         <v>123</v>
@@ -8625,15 +8829,15 @@
         <v>lang$server(123)</v>
       </c>
       <c r="D124" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E124" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B125">
         <v>124</v>
@@ -8643,15 +8847,15 @@
         <v>lang$server(124)</v>
       </c>
       <c r="D125" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E125" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B126">
         <v>125</v>
@@ -8661,15 +8865,15 @@
         <v>lang$server(125)</v>
       </c>
       <c r="D126" t="s">
+        <v>553</v>
+      </c>
+      <c r="E126" t="s">
         <v>554</v>
-      </c>
-      <c r="E126" t="s">
-        <v>555</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B127">
         <v>126</v>
@@ -8679,15 +8883,15 @@
         <v>lang$server(126)</v>
       </c>
       <c r="D127" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E127" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B128">
         <v>127</v>
@@ -8697,15 +8901,15 @@
         <v>lang$server(127)</v>
       </c>
       <c r="D128" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E128" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B129">
         <v>128</v>
@@ -8715,15 +8919,15 @@
         <v>lang$server(128)</v>
       </c>
       <c r="D129" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="E129" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B130">
         <v>129</v>
@@ -8733,15 +8937,15 @@
         <v>lang$server(129)</v>
       </c>
       <c r="D130" t="s">
+        <v>561</v>
+      </c>
+      <c r="E130" t="s">
         <v>562</v>
-      </c>
-      <c r="E130" t="s">
-        <v>563</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B131">
         <v>130</v>
@@ -8751,15 +8955,15 @@
         <v>lang$server(130)</v>
       </c>
       <c r="D131" t="s">
+        <v>568</v>
+      </c>
+      <c r="E131" t="s">
         <v>569</v>
-      </c>
-      <c r="E131" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B132">
         <v>131</v>
@@ -8769,15 +8973,15 @@
         <v>lang$server(131)</v>
       </c>
       <c r="D132" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="E132" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B133">
         <v>132</v>
@@ -8787,15 +8991,15 @@
         <v>lang$server(132)</v>
       </c>
       <c r="D133" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="E133" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B134">
         <v>133</v>
@@ -8805,15 +9009,15 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="E134" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B135">
         <v>134</v>
@@ -8823,15 +9027,15 @@
         <v>lang$server(134)</v>
       </c>
       <c r="D135" t="s">
+        <v>582</v>
+      </c>
+      <c r="E135" t="s">
         <v>583</v>
-      </c>
-      <c r="E135" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B136">
         <v>135</v>
@@ -8841,15 +9045,15 @@
         <v>lang$server(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="E136" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B137">
         <v>136</v>
@@ -8859,15 +9063,15 @@
         <v>lang$server(136)</v>
       </c>
       <c r="D137" t="s">
+        <v>626</v>
+      </c>
+      <c r="E137" t="s">
         <v>627</v>
-      </c>
-      <c r="E137" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B138">
         <v>137</v>
@@ -8877,15 +9081,15 @@
         <v>lang$server(137)</v>
       </c>
       <c r="D138" t="s">
+        <v>638</v>
+      </c>
+      <c r="E138" t="s">
         <v>639</v>
-      </c>
-      <c r="E138" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B139">
         <v>138</v>
@@ -8895,15 +9099,15 @@
         <v>lang$server(138)</v>
       </c>
       <c r="D139" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E139" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B140">
         <v>139</v>
@@ -8913,10 +9117,10 @@
         <v>lang$server(139)</v>
       </c>
       <c r="D140" t="s">
+        <v>649</v>
+      </c>
+      <c r="E140" t="s">
         <v>650</v>
-      </c>
-      <c r="E140" t="s">
-        <v>651</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951C3440-D81A-5E4C-9294-61F5F623A96D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19B870-C999-AE41-8B53-C41A681CDB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="2980" windowWidth="29280" windowHeight="21840" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
+    <workbookView xWindow="7200" yWindow="2600" windowWidth="29280" windowHeight="21840" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
   <sheets>
     <sheet name="global" sheetId="1" r:id="rId1"/>
@@ -1846,18 +1846,9 @@
     <t>Autor:</t>
   </si>
   <si>
-    <t>This application is a publication of the German technical lighting society.</t>
-  </si>
-  <si>
     <t>Author:</t>
   </si>
   <si>
-    <t>Diese Applikation ist eine Veröffentlichung der Deutschen Lichttechnischen Gesellschaft e.V..</t>
-  </si>
-  <si>
-    <t>Deutsche Lichttechnische Gesellschaft e.V. (LiTG)</t>
-  </si>
-  <si>
     <t>Danneckerstraße 16</t>
   </si>
   <si>
@@ -2084,6 +2075,15 @@
   </si>
   <si>
     <t>In den folgenden Abschnitten werden einige Funktionen der App dargestellt. Aus Speichergründen sind die Beispielbilder lediglich in einer Sprache (Englisch) dargestellt. Die Applikation selbst ist jedoch vollständig übersetzt. Weiter unten haben Sie Zugriff auf ein Tutorial Video.</t>
+  </si>
+  <si>
+    <t>Deutsche Gesellschaft für LichtTechnik und LichtGestaltung e.V.</t>
+  </si>
+  <si>
+    <t>Diese Applikation ist eine Veröffentlichung der Deutsche Gesellschaft für LichtTechnik und LichtGestaltung e.V..</t>
+  </si>
+  <si>
+    <t>This application is a publication of the German Society for Lighting Design and Lighting Technology (LiTG)</t>
   </si>
 </sst>
 </file>
@@ -2152,9 +2152,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022-Design">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 – 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -2192,7 +2192,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 – 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -2298,7 +2298,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 – 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -2440,7 +2440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2451,7 +2451,7 @@
   <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2510,10 +2510,10 @@
         <v>lang$global(2)</v>
       </c>
       <c r="D3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="E3" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
@@ -2528,10 +2528,10 @@
         <v>lang$global(3)</v>
       </c>
       <c r="D4" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
       <c r="E4" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -2546,10 +2546,10 @@
         <v>lang$global(4)</v>
       </c>
       <c r="D5" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
       <c r="E5" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -2582,10 +2582,10 @@
         <v>lang$global(6)</v>
       </c>
       <c r="D7" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="E7" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -2600,10 +2600,10 @@
         <v>lang$global(7)</v>
       </c>
       <c r="D8" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
       <c r="E8" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -2618,10 +2618,10 @@
         <v>lang$global(8)</v>
       </c>
       <c r="D9" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="E9" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -2636,10 +2636,10 @@
         <v>lang$global(9)</v>
       </c>
       <c r="D10" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
       <c r="E10" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -2654,10 +2654,10 @@
         <v>lang$global(10)</v>
       </c>
       <c r="D11" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
       <c r="E11" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -2680,7 +2680,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -2690,15 +2690,15 @@
         <v>lang$global(12)</v>
       </c>
       <c r="D13" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="E13" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -2708,15 +2708,15 @@
         <v>lang$global(13)</v>
       </c>
       <c r="D14" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="E14" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -2726,10 +2726,10 @@
         <v>lang$global(14)</v>
       </c>
       <c r="D15" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="E15" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -3203,8 +3203,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+      <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3533,7 +3533,7 @@
         <v>lang$ui(17)</v>
       </c>
       <c r="D18" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
       <c r="E18" t="s">
         <v>39</v>
@@ -5153,10 +5153,10 @@
         <v>lang$ui(107)</v>
       </c>
       <c r="D108" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
       <c r="E108" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
@@ -5498,7 +5498,7 @@
         <v>249</v>
       </c>
       <c r="E127" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.2">
@@ -6053,10 +6053,10 @@
         <v>lang$ui(157)</v>
       </c>
       <c r="D158" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
       <c r="E158" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.2">
@@ -6143,10 +6143,10 @@
         <v>lang$ui(162)</v>
       </c>
       <c r="D163" t="s">
-        <v>604</v>
+        <v>680</v>
       </c>
       <c r="E163" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.2">
@@ -6164,7 +6164,7 @@
         <v>601</v>
       </c>
       <c r="E164" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.2">
@@ -6305,10 +6305,10 @@
         <v>lang$ui(171)</v>
       </c>
       <c r="D172" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="E172" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.2">
@@ -6323,10 +6323,10 @@
         <v>lang$ui(172)</v>
       </c>
       <c r="D173" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
       <c r="E173" t="s">
-        <v>605</v>
+        <v>679</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.2">
@@ -6341,10 +6341,10 @@
         <v>lang$ui(173)</v>
       </c>
       <c r="D174" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="E174" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.2">
@@ -6359,10 +6359,10 @@
         <v>lang$ui(174)</v>
       </c>
       <c r="D175" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="E175" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.2">
@@ -6377,10 +6377,10 @@
         <v>lang$ui(175)</v>
       </c>
       <c r="D176" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="E176" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.2">
@@ -6395,10 +6395,10 @@
         <v>lang$ui(176)</v>
       </c>
       <c r="D177" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="E177" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.2">
@@ -6413,10 +6413,10 @@
         <v>lang$ui(177)</v>
       </c>
       <c r="D178" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="E178" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.2">
@@ -6431,10 +6431,10 @@
         <v>lang$ui(178)</v>
       </c>
       <c r="D179" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
       <c r="E179" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.2">
@@ -6449,10 +6449,10 @@
         <v>lang$ui(179)</v>
       </c>
       <c r="D180" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
       <c r="E180" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.2">
@@ -6467,10 +6467,10 @@
         <v>lang$ui(180)</v>
       </c>
       <c r="D181" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
       <c r="E181" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.2">
@@ -6485,7 +6485,7 @@
         <v>lang$ui(181)</v>
       </c>
       <c r="D182" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
       <c r="E182" t="s">
         <v>183</v>
@@ -6503,10 +6503,10 @@
         <v>lang$ui(182)</v>
       </c>
       <c r="D183" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
       <c r="E183" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.2">
@@ -6521,10 +6521,10 @@
         <v>lang$ui(183)</v>
       </c>
       <c r="D184" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
       <c r="E184" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.2">
@@ -6539,10 +6539,10 @@
         <v>lang$ui(184)</v>
       </c>
       <c r="D185" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
       <c r="E185" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.2">
@@ -6557,10 +6557,10 @@
         <v>lang$ui(185)</v>
       </c>
       <c r="D186" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
       <c r="E186" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.2">
@@ -6575,10 +6575,10 @@
         <v>lang$ui(186)</v>
       </c>
       <c r="D187" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
       <c r="E187" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.2">
@@ -6593,10 +6593,10 @@
         <v>lang$ui(187)</v>
       </c>
       <c r="D188" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
       <c r="E188" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.2">
@@ -6611,10 +6611,10 @@
         <v>lang$ui(188)</v>
       </c>
       <c r="D189" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
       <c r="E189" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
   </sheetData>
@@ -6666,10 +6666,10 @@
         <v>lang$server(1)</v>
       </c>
       <c r="D2" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="E2" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -7953,10 +7953,10 @@
         <v>lang$server(74)</v>
       </c>
       <c r="D75" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
       <c r="E75" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -8667,10 +8667,10 @@
         <v>lang$server(114)</v>
       </c>
       <c r="D115" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="E115" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.2">
@@ -9009,10 +9009,10 @@
         <v>lang$server(133)</v>
       </c>
       <c r="D134" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="E134" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -9045,10 +9045,10 @@
         <v>lang$server(135)</v>
       </c>
       <c r="D136" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="E136" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -9063,10 +9063,10 @@
         <v>lang$server(136)</v>
       </c>
       <c r="D137" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="E137" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.2">
@@ -9081,10 +9081,10 @@
         <v>lang$server(137)</v>
       </c>
       <c r="D138" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
       <c r="E138" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.2">
@@ -9099,10 +9099,10 @@
         <v>lang$server(138)</v>
       </c>
       <c r="D139" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
       <c r="E139" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.2">
@@ -9117,10 +9117,10 @@
         <v>lang$server(139)</v>
       </c>
       <c r="D140" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
       <c r="E140" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
   </sheetData>

--- a/data-raw/languages.xlsx
+++ b/data-raw/languages.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zauner/Documents/Gremienarbeit/TWA/Projekte/Spectran/Spectran/data-raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D19B870-C999-AE41-8B53-C41A681CDB76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{861F7C0F-8F58-AA41-A4B2-1D650011DF1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7200" yWindow="2600" windowWidth="29280" windowHeight="21840" activeTab="1" xr2:uid="{910D35BB-F26F-9249-A4C4-73C92B270189}"/>
   </bookViews>
@@ -2083,7 +2083,7 @@
     <t>Diese Applikation ist eine Veröffentlichung der Deutsche Gesellschaft für LichtTechnik und LichtGestaltung e.V..</t>
   </si>
   <si>
-    <t>This application is a publication of the German Society for Lighting Design and Lighting Technology (LiTG)</t>
+    <t>This application is a publication of the German Society for Lighting Technology and Lighting Design (LiTG)</t>
   </si>
 </sst>
 </file>
@@ -2451,7 +2451,7 @@
   <dimension ref="A1:E169"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3203,7 +3203,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16C6AC7-F954-EC4A-BACE-CEC04494FD73}">
   <dimension ref="A1:E189"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A152" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A143" workbookViewId="0">
       <selection activeCell="E165" sqref="E165"/>
     </sheetView>
   </sheetViews>
